--- a/ERP, STUDENT, and CAB Databases/Campus/Data for Assignment002 (Create Campus _with_constraints Table ) .xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/Data for Assignment002 (Create Campus _with_constraints Table ) .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.100.10\Faculty Common\saleel\Saleel\New DATA\Saleel Tables VER2\ERP, STUDENT, and CAB Databases\Campus\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE8BE63-83CA-49BB-8C98-0F4062774E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -12,17 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$3:$J$44</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="201">
   <si>
     <t>namefirst</t>
   </si>
@@ -622,18 +634,21 @@
   </si>
   <si>
     <t>7 vaibhav, Ishadan soc, paud road, Pune</t>
+  </si>
+  <si>
+    <t>isActive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,7 +738,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -826,10 +841,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Excel Built-in Normal" xfId="2"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1100,22 +1118,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:BP96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:BQ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ18" sqref="AZ18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="4" customWidth="1"/>
@@ -1126,68 +1144,69 @@
     <col min="8" max="8" width="6.5703125" style="4" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="4" customWidth="1"/>
     <col min="10" max="10" width="16" style="4" customWidth="1"/>
-    <col min="11" max="11" width="2.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="35.42578125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="2.5703125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="27" style="4" customWidth="1"/>
-    <col min="21" max="21" width="2.5703125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" style="4" customWidth="1"/>
-    <col min="24" max="24" width="13" style="4" customWidth="1"/>
-    <col min="25" max="25" width="2.5703125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="7.42578125" style="4" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" style="4" customWidth="1"/>
-    <col min="28" max="28" width="43.28515625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="2.5703125" style="4" customWidth="1"/>
-    <col min="30" max="30" width="6.42578125" style="4" customWidth="1"/>
-    <col min="31" max="31" width="9.5703125" style="4" customWidth="1"/>
-    <col min="32" max="32" width="8.5703125" style="4" customWidth="1"/>
-    <col min="33" max="33" width="32.42578125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="2.5703125" style="4" customWidth="1"/>
-    <col min="35" max="35" width="6.5703125" style="4" customWidth="1"/>
-    <col min="36" max="36" width="13.7109375" style="4" customWidth="1"/>
-    <col min="37" max="37" width="8.42578125" style="4" customWidth="1"/>
-    <col min="38" max="38" width="2.5703125" style="4" customWidth="1"/>
-    <col min="39" max="39" width="7.42578125" style="4" customWidth="1"/>
-    <col min="40" max="40" width="9.140625" style="4" customWidth="1"/>
-    <col min="41" max="41" width="10.7109375" style="4" customWidth="1"/>
-    <col min="42" max="42" width="2.5703125" style="4" customWidth="1"/>
-    <col min="43" max="43" width="6.140625" style="4" customWidth="1"/>
-    <col min="44" max="44" width="8.7109375" style="4" customWidth="1"/>
-    <col min="45" max="45" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="2.5703125" style="4" customWidth="1"/>
-    <col min="50" max="50" width="8.140625" style="4" customWidth="1"/>
-    <col min="51" max="51" width="11" style="4" customWidth="1"/>
-    <col min="52" max="52" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="2.5703125" style="4" customWidth="1"/>
-    <col min="54" max="54" width="6.7109375" style="4" customWidth="1"/>
-    <col min="55" max="55" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.140625" style="4" customWidth="1"/>
-    <col min="58" max="58" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.140625" style="4" customWidth="1"/>
-    <col min="60" max="60" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="2.5703125" style="4" customWidth="1"/>
-    <col min="62" max="62" width="6.7109375" style="4" customWidth="1"/>
-    <col min="63" max="63" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="13.140625" style="4" customWidth="1"/>
-    <col min="68" max="68" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="9.140625" style="4"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="2.5703125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="35.42578125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="2.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="27" style="4" customWidth="1"/>
+    <col min="22" max="22" width="2.5703125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" style="4" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" style="4" customWidth="1"/>
+    <col min="25" max="25" width="13" style="4" customWidth="1"/>
+    <col min="26" max="26" width="2.5703125" style="4" customWidth="1"/>
+    <col min="27" max="27" width="7.42578125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" style="4" customWidth="1"/>
+    <col min="29" max="29" width="43.28515625" style="4" customWidth="1"/>
+    <col min="30" max="30" width="2.5703125" style="4" customWidth="1"/>
+    <col min="31" max="31" width="6.42578125" style="4" customWidth="1"/>
+    <col min="32" max="32" width="9.5703125" style="4" customWidth="1"/>
+    <col min="33" max="33" width="8.5703125" style="4" customWidth="1"/>
+    <col min="34" max="34" width="32.42578125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="2.5703125" style="4" customWidth="1"/>
+    <col min="36" max="36" width="6.5703125" style="4" customWidth="1"/>
+    <col min="37" max="37" width="13.7109375" style="4" customWidth="1"/>
+    <col min="38" max="38" width="8.42578125" style="4" customWidth="1"/>
+    <col min="39" max="39" width="2.5703125" style="4" customWidth="1"/>
+    <col min="40" max="40" width="7.42578125" style="4" customWidth="1"/>
+    <col min="41" max="41" width="9.140625" style="4" customWidth="1"/>
+    <col min="42" max="42" width="10.7109375" style="4" customWidth="1"/>
+    <col min="43" max="43" width="2.5703125" style="4" customWidth="1"/>
+    <col min="44" max="44" width="6.140625" style="4" customWidth="1"/>
+    <col min="45" max="45" width="8.7109375" style="4" customWidth="1"/>
+    <col min="46" max="46" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="2.5703125" style="4" customWidth="1"/>
+    <col min="51" max="51" width="8.140625" style="4" customWidth="1"/>
+    <col min="52" max="52" width="11" style="4" customWidth="1"/>
+    <col min="53" max="53" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="2.5703125" style="4" customWidth="1"/>
+    <col min="55" max="55" width="6.7109375" style="4" customWidth="1"/>
+    <col min="56" max="56" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.140625" style="4" customWidth="1"/>
+    <col min="59" max="59" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.140625" style="4" customWidth="1"/>
+    <col min="61" max="61" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="2.5703125" style="4" customWidth="1"/>
+    <col min="63" max="63" width="6.7109375" style="4" customWidth="1"/>
+    <col min="64" max="64" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.140625" style="4" customWidth="1"/>
+    <col min="69" max="69" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="70" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:68" ht="30" customHeight="1">
+    <row r="2" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
@@ -1200,77 +1219,78 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="L2" s="19" t="s">
+      <c r="K2" s="38"/>
+      <c r="M2" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="P2" s="11" t="s">
+      <c r="O2" s="3"/>
+      <c r="Q2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-      <c r="V2" s="11" t="s">
+      <c r="U2" s="3"/>
+      <c r="W2" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Z2" s="19" t="s">
+      <c r="Y2" s="3"/>
+      <c r="AA2" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
-      <c r="AD2" s="37" t="s">
+      <c r="AC2" s="3"/>
+      <c r="AE2" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="AE2" s="37"/>
       <c r="AF2" s="37"/>
-      <c r="AG2" s="3"/>
-      <c r="AI2" s="37" t="s">
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="3"/>
+      <c r="AJ2" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="AJ2" s="37"/>
       <c r="AK2" s="37"/>
-      <c r="AM2" s="37" t="s">
+      <c r="AL2" s="37"/>
+      <c r="AN2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="37"/>
       <c r="AO2" s="37"/>
-      <c r="AQ2" s="6" t="s">
+      <c r="AP2" s="37"/>
+      <c r="AR2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AR2" s="6"/>
       <c r="AS2" s="6"/>
       <c r="AT2" s="6"/>
       <c r="AU2" s="6"/>
       <c r="AV2" s="6"/>
-      <c r="AX2" s="6" t="s">
+      <c r="AW2" s="6"/>
+      <c r="AY2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
-      <c r="BB2" s="6" t="s">
+      <c r="BA2" s="6"/>
+      <c r="BC2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="BC2" s="6"/>
       <c r="BD2" s="6"/>
       <c r="BE2" s="6"/>
       <c r="BF2" s="6"/>
       <c r="BG2" s="6"/>
       <c r="BH2" s="6"/>
-      <c r="BJ2" s="6" t="s">
+      <c r="BI2" s="6"/>
+      <c r="BK2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="BK2" s="6"/>
       <c r="BL2" s="6"/>
       <c r="BM2" s="6"/>
       <c r="BN2" s="6"/>
       <c r="BO2" s="6"/>
       <c r="BP2" s="6"/>
-    </row>
-    <row r="3" spans="2:68" ht="30" customHeight="1">
+      <c r="BQ2" s="6"/>
+    </row>
+    <row r="3" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>84</v>
       </c>
@@ -1295,149 +1315,152 @@
       <c r="J3" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="N3" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="S3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="W3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AA3" s="36" t="s">
+      <c r="AB3" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AK3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AL3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AM3" s="7" t="s">
+      <c r="AN3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AN3" s="7" t="s">
+      <c r="AO3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="7" t="s">
+      <c r="AP3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AQ3" s="7" t="s">
+      <c r="AR3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AR3" s="7" t="s">
+      <c r="AS3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AS3" s="7" t="s">
+      <c r="AT3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AT3" s="7" t="s">
+      <c r="AU3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AU3" s="7" t="s">
+      <c r="AV3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AV3" s="7" t="s">
+      <c r="AW3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AX3" s="7" t="s">
+      <c r="AY3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AY3" s="7" t="s">
+      <c r="AZ3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AZ3" s="7" t="s">
+      <c r="BA3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="BB3" s="16" t="s">
+      <c r="BC3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="BC3" s="5" t="s">
+      <c r="BD3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="BD3" s="5" t="s">
+      <c r="BE3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="BE3" s="5" t="s">
+      <c r="BF3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BF3" s="5" t="s">
+      <c r="BG3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="BG3" s="5" t="s">
+      <c r="BH3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="BH3" s="5" t="s">
+      <c r="BI3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="BJ3" s="16" t="s">
+      <c r="BK3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="BK3" s="5" t="s">
+      <c r="BL3" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="BL3" s="5" t="s">
+      <c r="BM3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="BM3" s="5" t="s">
+      <c r="BN3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="BN3" s="5" t="s">
+      <c r="BO3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="BO3" s="5" t="s">
+      <c r="BP3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="BP3" s="5" t="s">
+      <c r="BQ3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13">
         <v>1</v>
       </c>
@@ -1463,71 +1486,71 @@
       <c r="J4" s="13">
         <v>7032300034</v>
       </c>
-      <c r="L4" s="13">
+      <c r="K4" s="8">
         <v>1</v>
       </c>
       <c r="M4" s="13">
         <v>1</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="13">
+        <v>1</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="13">
+        <v>1</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="S4" s="23">
+      <c r="T4" s="23">
         <v>27192</v>
       </c>
-      <c r="T4" s="9" t="str">
-        <f>CONCATENATE(Q4,".",R4,"@gmail.com")</f>
+      <c r="U4" s="9" t="str">
+        <f>CONCATENATE(R4,".",S4,"@gmail.com")</f>
         <v>prachi.gupta@gmail.com</v>
       </c>
-      <c r="V4" s="13">
-        <v>1</v>
-      </c>
       <c r="W4" s="13">
         <v>1</v>
       </c>
       <c r="X4" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="13">
         <v>7032300034</v>
       </c>
-      <c r="Z4" s="13">
-        <v>1</v>
-      </c>
       <c r="AA4" s="13">
         <v>1</v>
       </c>
-      <c r="AB4" s="24" t="s">
+      <c r="AB4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="AD4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AE4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AF4" s="13">
+      <c r="AG4" s="13">
         <v>6</v>
       </c>
-      <c r="AG4" s="20" t="s">
+      <c r="AH4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="AI4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AJ4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AK4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="13">
+      <c r="AL4" s="13">
         <v>1</v>
       </c>
       <c r="AN4" s="13">
@@ -1536,77 +1559,80 @@
       <c r="AO4" s="13">
         <v>1</v>
       </c>
-      <c r="AQ4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="9" t="s">
+      <c r="AP4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AS4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="25">
+      <c r="AT4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="25">
         <v>42401</v>
       </c>
-      <c r="AU4" s="25">
+      <c r="AV4" s="25">
         <v>42613</v>
       </c>
-      <c r="AV4" s="13">
+      <c r="AW4" s="13">
         <v>80</v>
       </c>
-      <c r="AX4" s="13">
-        <v>1</v>
-      </c>
       <c r="AY4" s="13">
         <v>1</v>
       </c>
       <c r="AZ4" s="13">
         <v>1</v>
       </c>
-      <c r="BB4" s="13">
+      <c r="BA4" s="13">
         <v>1</v>
       </c>
       <c r="BC4" s="13">
         <v>1</v>
       </c>
-      <c r="BD4" s="9">
+      <c r="BD4" s="13">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="9">
         <v>10</v>
       </c>
-      <c r="BE4" s="9" t="s">
+      <c r="BF4" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BF4" s="26" t="s">
+      <c r="BG4" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="BG4" s="13">
+      <c r="BH4" s="13">
         <v>67</v>
       </c>
-      <c r="BH4" s="13">
+      <c r="BI4" s="13">
         <v>2012</v>
       </c>
-      <c r="BJ4" s="13">
-        <v>1</v>
-      </c>
       <c r="BK4" s="13">
         <v>1</v>
       </c>
-      <c r="BL4" s="9">
+      <c r="BL4" s="13">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="9">
         <v>10</v>
       </c>
-      <c r="BM4" s="9" t="s">
+      <c r="BN4" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BN4" s="26" t="s">
+      <c r="BO4" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="BO4" s="13">
+      <c r="BP4" s="13">
         <v>67</v>
       </c>
-      <c r="BP4" s="13">
+      <c r="BQ4" s="13">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="5" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>2</v>
       </c>
@@ -1632,150 +1658,153 @@
       <c r="J5" s="13">
         <v>7032300039</v>
       </c>
-      <c r="L5" s="13">
-        <v>2</v>
+      <c r="K5" s="8">
+        <v>1</v>
       </c>
       <c r="M5" s="13">
         <v>2</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="13">
+        <v>2</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="13">
+      <c r="Q5" s="13">
         <v>2</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="R5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="S5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="23">
+      <c r="T5" s="23">
         <v>26597</v>
       </c>
-      <c r="T5" s="9" t="str">
-        <f t="shared" ref="T5:T7" si="1">CONCATENATE(Q5,".",R5,"@gmail.com")</f>
+      <c r="U5" s="9" t="str">
+        <f t="shared" ref="U5:U7" si="1">CONCATENATE(R5,".",S5,"@gmail.com")</f>
         <v>ketan.shukla@gmail.com</v>
-      </c>
-      <c r="V5" s="13">
-        <v>2</v>
       </c>
       <c r="W5" s="13">
         <v>2</v>
       </c>
       <c r="X5" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="13">
         <v>7032300039</v>
-      </c>
-      <c r="Z5" s="13">
-        <v>2</v>
       </c>
       <c r="AA5" s="13">
         <v>2</v>
       </c>
-      <c r="AB5" s="24" t="s">
+      <c r="AB5" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AD5" s="13">
+      <c r="AE5" s="13">
         <v>2</v>
       </c>
-      <c r="AE5" s="9" t="s">
+      <c r="AF5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AF5" s="13">
+      <c r="AG5" s="13">
         <v>6</v>
       </c>
-      <c r="AG5" s="20" t="s">
+      <c r="AH5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="AI5" s="13">
+      <c r="AJ5" s="13">
         <v>2</v>
       </c>
-      <c r="AJ5" s="9" t="s">
+      <c r="AK5" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AK5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="13">
+      <c r="AL5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="13">
         <v>2</v>
       </c>
-      <c r="AN5" s="13">
-        <v>1</v>
-      </c>
       <c r="AO5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="13">
         <v>2</v>
       </c>
-      <c r="AQ5" s="13">
+      <c r="AR5" s="13">
         <v>2</v>
       </c>
-      <c r="AR5" s="9" t="s">
+      <c r="AS5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AS5" s="13">
+      <c r="AT5" s="13">
         <v>2</v>
       </c>
-      <c r="AT5" s="25">
+      <c r="AU5" s="25">
         <v>42401</v>
       </c>
-      <c r="AU5" s="25">
+      <c r="AV5" s="25">
         <v>42613</v>
       </c>
-      <c r="AV5" s="13">
+      <c r="AW5" s="13">
         <v>30</v>
       </c>
-      <c r="AX5" s="13">
+      <c r="AY5" s="13">
         <v>2</v>
       </c>
-      <c r="AY5" s="13">
+      <c r="AZ5" s="13">
         <v>7</v>
       </c>
-      <c r="AZ5" s="13">
+      <c r="BA5" s="13">
         <v>5</v>
       </c>
-      <c r="BB5" s="13">
+      <c r="BC5" s="13">
         <v>2</v>
       </c>
-      <c r="BC5" s="13">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="9">
+      <c r="BD5" s="13">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="9">
         <v>12</v>
       </c>
-      <c r="BE5" s="9" t="s">
+      <c r="BF5" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BF5" s="26" t="s">
+      <c r="BG5" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BG5" s="13">
+      <c r="BH5" s="13">
         <v>74</v>
       </c>
-      <c r="BH5" s="13">
+      <c r="BI5" s="13">
         <v>2014</v>
       </c>
-      <c r="BJ5" s="13">
+      <c r="BK5" s="13">
         <v>2</v>
       </c>
-      <c r="BK5" s="13">
-        <v>1</v>
-      </c>
-      <c r="BL5" s="9">
+      <c r="BL5" s="13">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="9">
         <v>12</v>
       </c>
-      <c r="BM5" s="9" t="s">
+      <c r="BN5" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BN5" s="26" t="s">
+      <c r="BO5" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BO5" s="13">
+      <c r="BP5" s="13">
         <v>74</v>
       </c>
-      <c r="BP5" s="13">
+      <c r="BQ5" s="13">
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="6" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>3</v>
       </c>
@@ -1801,150 +1830,153 @@
       <c r="J6" s="13">
         <v>7032300050</v>
       </c>
-      <c r="L6" s="13">
-        <v>3</v>
+      <c r="K6" s="8">
+        <v>1</v>
       </c>
       <c r="M6" s="13">
         <v>3</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="13">
+        <v>3</v>
+      </c>
+      <c r="O6" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="13">
+      <c r="Q6" s="13">
         <v>3</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="R6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="S6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="23">
+      <c r="T6" s="23">
         <v>26231</v>
       </c>
-      <c r="T6" s="9" t="str">
+      <c r="U6" s="9" t="str">
         <f t="shared" si="1"/>
         <v>kiran.dev@gmail.com</v>
       </c>
-      <c r="V6" s="13">
-        <v>3</v>
-      </c>
       <c r="W6" s="13">
         <v>3</v>
       </c>
       <c r="X6" s="13">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="13">
         <v>7032300050</v>
-      </c>
-      <c r="Z6" s="13">
-        <v>3</v>
       </c>
       <c r="AA6" s="13">
         <v>3</v>
       </c>
-      <c r="AB6" s="24" t="s">
+      <c r="AB6" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AD6" s="13">
+      <c r="AE6" s="13">
         <v>3</v>
       </c>
-      <c r="AE6" s="9" t="s">
+      <c r="AF6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AF6" s="13">
+      <c r="AG6" s="13">
         <v>2</v>
       </c>
-      <c r="AG6" s="20" t="s">
+      <c r="AH6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="AI6" s="13">
+      <c r="AJ6" s="13">
         <v>3</v>
       </c>
-      <c r="AJ6" s="9" t="s">
+      <c r="AK6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AK6" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="13">
+      <c r="AL6" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="13">
         <v>3</v>
       </c>
-      <c r="AN6" s="13">
-        <v>1</v>
-      </c>
       <c r="AO6" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="13">
         <v>3</v>
       </c>
-      <c r="AQ6" s="13">
+      <c r="AR6" s="13">
         <v>3</v>
       </c>
-      <c r="AR6" s="9" t="s">
+      <c r="AS6" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AS6" s="13">
+      <c r="AT6" s="13">
         <v>3</v>
       </c>
-      <c r="AT6" s="25">
+      <c r="AU6" s="25">
         <v>42401</v>
       </c>
-      <c r="AU6" s="25">
+      <c r="AV6" s="25">
         <v>42460</v>
       </c>
-      <c r="AV6" s="13">
+      <c r="AW6" s="13">
         <v>35</v>
-      </c>
-      <c r="AX6" s="13">
-        <v>3</v>
       </c>
       <c r="AY6" s="13">
         <v>3</v>
       </c>
       <c r="AZ6" s="13">
+        <v>3</v>
+      </c>
+      <c r="BA6" s="13">
         <v>4</v>
       </c>
-      <c r="BB6" s="13">
+      <c r="BC6" s="13">
         <v>3</v>
       </c>
-      <c r="BC6" s="13">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="9" t="s">
+      <c r="BD6" s="13">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE6" s="9" t="s">
+      <c r="BF6" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BF6" s="26" t="s">
+      <c r="BG6" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BG6" s="13">
+      <c r="BH6" s="13">
         <v>68</v>
       </c>
-      <c r="BH6" s="13">
+      <c r="BI6" s="13">
         <v>2018</v>
       </c>
-      <c r="BJ6" s="13">
+      <c r="BK6" s="13">
         <v>3</v>
       </c>
-      <c r="BK6" s="13">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="9" t="s">
+      <c r="BL6" s="13">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BM6" s="9" t="s">
+      <c r="BN6" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BN6" s="26" t="s">
+      <c r="BO6" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BO6" s="13">
+      <c r="BP6" s="13">
         <v>68</v>
       </c>
-      <c r="BP6" s="13">
+      <c r="BQ6" s="13">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="7" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>4</v>
       </c>
@@ -1970,150 +2002,153 @@
       <c r="J7" s="13">
         <v>7032300027</v>
       </c>
-      <c r="L7" s="13">
-        <v>4</v>
+      <c r="K7" s="8">
+        <v>1</v>
       </c>
       <c r="M7" s="13">
         <v>4</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="13">
+        <v>4</v>
+      </c>
+      <c r="O7" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="13">
+      <c r="Q7" s="13">
         <v>4</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="R7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="S7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="23">
+      <c r="T7" s="23">
         <v>26603</v>
       </c>
-      <c r="T7" s="9" t="str">
+      <c r="U7" s="9" t="str">
         <f t="shared" si="1"/>
         <v>parag.patil@gmail.com</v>
       </c>
-      <c r="V7" s="13">
-        <v>4</v>
-      </c>
       <c r="W7" s="13">
         <v>4</v>
       </c>
       <c r="X7" s="13">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="13">
         <v>7032300027</v>
-      </c>
-      <c r="Z7" s="13">
-        <v>4</v>
       </c>
       <c r="AA7" s="13">
         <v>4</v>
       </c>
-      <c r="AB7" s="22" t="s">
+      <c r="AB7" s="13">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AE7" s="13">
         <v>4</v>
       </c>
-      <c r="AE7" s="9" t="s">
+      <c r="AF7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AG7" s="13">
         <v>3</v>
       </c>
-      <c r="AG7" s="20" t="s">
+      <c r="AH7" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="AI7" s="13">
+      <c r="AJ7" s="13">
         <v>4</v>
       </c>
-      <c r="AJ7" s="9" t="s">
+      <c r="AK7" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AK7" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="13">
+      <c r="AL7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="13">
         <v>4</v>
       </c>
-      <c r="AN7" s="13">
-        <v>1</v>
-      </c>
       <c r="AO7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="13">
         <v>4</v>
       </c>
-      <c r="AQ7" s="13">
+      <c r="AR7" s="13">
         <v>4</v>
       </c>
-      <c r="AR7" s="9" t="s">
+      <c r="AS7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AS7" s="13">
+      <c r="AT7" s="13">
         <v>4</v>
       </c>
-      <c r="AT7" s="25">
+      <c r="AU7" s="25">
         <v>42552</v>
       </c>
-      <c r="AU7" s="27">
+      <c r="AV7" s="27">
         <v>42643</v>
       </c>
-      <c r="AV7" s="13">
+      <c r="AW7" s="13">
         <v>25</v>
       </c>
-      <c r="AX7" s="13">
+      <c r="AY7" s="13">
         <v>4</v>
       </c>
-      <c r="AY7" s="13">
+      <c r="AZ7" s="13">
         <v>6</v>
       </c>
-      <c r="AZ7" s="13">
+      <c r="BA7" s="13">
         <v>3</v>
       </c>
-      <c r="BB7" s="13">
+      <c r="BC7" s="13">
         <v>4</v>
       </c>
-      <c r="BC7" s="13">
+      <c r="BD7" s="13">
         <v>2</v>
       </c>
-      <c r="BD7" s="9">
+      <c r="BE7" s="9">
         <v>10</v>
       </c>
-      <c r="BE7" s="9" t="s">
+      <c r="BF7" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BF7" s="26" t="s">
+      <c r="BG7" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="BG7" s="13">
+      <c r="BH7" s="13">
         <v>68</v>
       </c>
-      <c r="BH7" s="13">
+      <c r="BI7" s="13">
         <v>2013</v>
       </c>
-      <c r="BJ7" s="13">
+      <c r="BK7" s="13">
         <v>4</v>
       </c>
-      <c r="BK7" s="13">
+      <c r="BL7" s="13">
         <v>2</v>
       </c>
-      <c r="BL7" s="9">
+      <c r="BM7" s="9">
         <v>10</v>
       </c>
-      <c r="BM7" s="9" t="s">
+      <c r="BN7" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BN7" s="26" t="s">
+      <c r="BO7" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="BO7" s="13">
+      <c r="BP7" s="13">
         <v>68</v>
       </c>
-      <c r="BP7" s="13">
+      <c r="BQ7" s="13">
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="8" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>5</v>
       </c>
@@ -2139,125 +2174,128 @@
       <c r="J8" s="13">
         <v>7032300801</v>
       </c>
-      <c r="L8" s="13">
-        <v>5</v>
+      <c r="K8" s="8">
+        <v>1</v>
       </c>
       <c r="M8" s="13">
         <v>5</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="13">
+        <v>5</v>
+      </c>
+      <c r="O8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="V8" s="13">
+      <c r="W8" s="13">
         <v>5</v>
       </c>
-      <c r="W8" s="13">
-        <v>1</v>
-      </c>
       <c r="X8" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="13">
         <v>7032301201</v>
       </c>
-      <c r="AD8" s="13">
+      <c r="AE8" s="13">
         <v>5</v>
       </c>
-      <c r="AE8" s="9" t="s">
+      <c r="AF8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AF8" s="13">
+      <c r="AG8" s="13">
         <v>3</v>
       </c>
-      <c r="AG8" s="20" t="s">
+      <c r="AH8" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="AI8" s="13">
+      <c r="AJ8" s="13">
         <v>5</v>
       </c>
-      <c r="AJ8" s="9" t="s">
+      <c r="AK8" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AK8" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="13">
+      <c r="AL8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="13">
         <v>5</v>
       </c>
-      <c r="AN8" s="13">
-        <v>1</v>
-      </c>
       <c r="AO8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="13">
         <v>5</v>
       </c>
-      <c r="AQ8" s="13">
+      <c r="AR8" s="13">
         <v>5</v>
       </c>
-      <c r="AR8" s="9" t="s">
+      <c r="AS8" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="AS8" s="13">
+      <c r="AT8" s="13">
         <v>5</v>
       </c>
-      <c r="AT8" s="25">
+      <c r="AU8" s="25">
         <v>42552</v>
       </c>
-      <c r="AU8" s="27">
+      <c r="AV8" s="27">
         <v>42643</v>
       </c>
-      <c r="AV8" s="13">
+      <c r="AW8" s="13">
         <v>25</v>
       </c>
-      <c r="AX8" s="13">
+      <c r="AY8" s="13">
         <v>5</v>
       </c>
-      <c r="AY8" s="13">
+      <c r="AZ8" s="13">
         <v>10</v>
       </c>
-      <c r="AZ8" s="13">
+      <c r="BA8" s="13">
         <v>6</v>
       </c>
-      <c r="BB8" s="13">
+      <c r="BC8" s="13">
         <v>5</v>
       </c>
-      <c r="BC8" s="13">
+      <c r="BD8" s="13">
         <v>2</v>
       </c>
-      <c r="BD8" s="9">
+      <c r="BE8" s="9">
         <v>12</v>
       </c>
-      <c r="BE8" s="9" t="s">
+      <c r="BF8" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="BF8" s="26" t="s">
+      <c r="BG8" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="BG8" s="13">
+      <c r="BH8" s="13">
         <v>56</v>
       </c>
-      <c r="BH8" s="13">
+      <c r="BI8" s="13">
         <v>2015</v>
       </c>
-      <c r="BJ8" s="13">
+      <c r="BK8" s="13">
         <v>5</v>
       </c>
-      <c r="BK8" s="13">
+      <c r="BL8" s="13">
         <v>2</v>
       </c>
-      <c r="BL8" s="9">
+      <c r="BM8" s="9">
         <v>12</v>
       </c>
-      <c r="BM8" s="9" t="s">
+      <c r="BN8" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="BN8" s="26" t="s">
+      <c r="BO8" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="BO8" s="13">
+      <c r="BP8" s="13">
         <v>56</v>
       </c>
-      <c r="BP8" s="13">
+      <c r="BQ8" s="13">
         <v>2015</v>
       </c>
     </row>
-    <row r="9" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="9" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>6</v>
       </c>
@@ -2283,125 +2321,128 @@
       <c r="J9" s="13">
         <v>7032300079</v>
       </c>
-      <c r="L9" s="13">
-        <v>6</v>
+      <c r="K9" s="8">
+        <v>1</v>
       </c>
       <c r="M9" s="13">
         <v>6</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="13">
+        <v>6</v>
+      </c>
+      <c r="O9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="V9" s="13">
+      <c r="W9" s="13">
         <v>6</v>
       </c>
-      <c r="W9" s="13">
+      <c r="X9" s="13">
         <v>2</v>
       </c>
-      <c r="X9" s="13">
+      <c r="Y9" s="13">
         <v>7032303479</v>
       </c>
-      <c r="AD9" s="13">
+      <c r="AE9" s="13">
         <v>6</v>
       </c>
-      <c r="AE9" s="9" t="s">
+      <c r="AF9" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="AF9" s="13">
+      <c r="AG9" s="13">
         <v>6</v>
       </c>
-      <c r="AG9" s="20" t="s">
+      <c r="AH9" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="AI9" s="13">
+      <c r="AJ9" s="13">
         <v>6</v>
       </c>
-      <c r="AJ9" s="9" t="s">
+      <c r="AK9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AK9" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="13">
+      <c r="AL9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="13">
         <v>6</v>
       </c>
-      <c r="AN9" s="13">
-        <v>1</v>
-      </c>
       <c r="AO9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="13">
         <v>6</v>
       </c>
-      <c r="AQ9" s="13">
+      <c r="AR9" s="13">
         <v>6</v>
       </c>
-      <c r="AR9" s="9" t="s">
+      <c r="AS9" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="AS9" s="13">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="25">
+      <c r="AT9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="25">
         <v>42036</v>
       </c>
-      <c r="AU9" s="25">
+      <c r="AV9" s="25">
         <v>42247</v>
       </c>
-      <c r="AV9" s="13">
+      <c r="AW9" s="13">
         <v>80</v>
       </c>
-      <c r="AX9" s="13">
+      <c r="AY9" s="13">
         <v>6</v>
       </c>
-      <c r="AY9" s="13">
+      <c r="AZ9" s="13">
         <v>17</v>
       </c>
-      <c r="AZ9" s="13">
+      <c r="BA9" s="13">
         <v>8</v>
       </c>
-      <c r="BB9" s="13">
+      <c r="BC9" s="13">
         <v>6</v>
       </c>
-      <c r="BC9" s="13">
+      <c r="BD9" s="13">
         <v>2</v>
       </c>
-      <c r="BD9" s="9" t="s">
+      <c r="BE9" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="BE9" s="9" t="s">
+      <c r="BF9" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="BF9" s="26" t="s">
+      <c r="BG9" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="BG9" s="13">
+      <c r="BH9" s="13">
         <v>64</v>
       </c>
-      <c r="BH9" s="13">
+      <c r="BI9" s="13">
         <v>2019</v>
       </c>
-      <c r="BJ9" s="13">
+      <c r="BK9" s="13">
         <v>6</v>
       </c>
-      <c r="BK9" s="13">
+      <c r="BL9" s="13">
         <v>2</v>
       </c>
-      <c r="BL9" s="9" t="s">
+      <c r="BM9" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BM9" s="9" t="s">
+      <c r="BN9" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="BN9" s="26" t="s">
+      <c r="BO9" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="BO9" s="13">
+      <c r="BP9" s="13">
         <v>64</v>
       </c>
-      <c r="BP9" s="13">
+      <c r="BQ9" s="13">
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>7</v>
       </c>
@@ -2427,125 +2468,128 @@
       <c r="J10" s="13">
         <v>7032300081</v>
       </c>
-      <c r="L10" s="13">
-        <v>7</v>
+      <c r="K10" s="8">
+        <v>1</v>
       </c>
       <c r="M10" s="13">
         <v>7</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N10" s="13">
+        <v>7</v>
+      </c>
+      <c r="O10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="V10" s="13">
+      <c r="W10" s="13">
         <v>7</v>
       </c>
-      <c r="W10" s="13">
+      <c r="X10" s="13">
         <v>3</v>
       </c>
-      <c r="X10" s="13">
+      <c r="Y10" s="13">
         <v>7032306781</v>
       </c>
-      <c r="AD10" s="33">
+      <c r="AE10" s="33">
         <v>7</v>
       </c>
-      <c r="AE10" s="34" t="s">
+      <c r="AF10" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="AF10" s="33">
+      <c r="AG10" s="33">
         <v>6</v>
       </c>
-      <c r="AG10" s="35" t="s">
+      <c r="AH10" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="AI10" s="13">
+      <c r="AJ10" s="13">
         <v>7</v>
       </c>
-      <c r="AJ10" s="9" t="s">
+      <c r="AK10" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AK10" s="13">
+      <c r="AL10" s="13">
         <v>2</v>
       </c>
-      <c r="AM10" s="13">
+      <c r="AN10" s="13">
         <v>7</v>
       </c>
-      <c r="AN10" s="13">
-        <v>1</v>
-      </c>
       <c r="AO10" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="13">
         <v>7</v>
       </c>
-      <c r="AQ10" s="13">
+      <c r="AR10" s="13">
         <v>7</v>
       </c>
-      <c r="AR10" s="9" t="s">
+      <c r="AS10" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="AS10" s="13">
+      <c r="AT10" s="13">
         <v>2</v>
       </c>
-      <c r="AT10" s="25">
+      <c r="AU10" s="25">
         <v>42036</v>
       </c>
-      <c r="AU10" s="25">
+      <c r="AV10" s="25">
         <v>42247</v>
       </c>
-      <c r="AV10" s="13">
+      <c r="AW10" s="13">
         <v>30</v>
       </c>
-      <c r="AX10" s="13">
+      <c r="AY10" s="13">
         <v>7</v>
       </c>
-      <c r="AY10" s="13">
+      <c r="AZ10" s="13">
         <v>20</v>
       </c>
-      <c r="AZ10" s="13">
+      <c r="BA10" s="13">
         <v>12</v>
       </c>
-      <c r="BB10" s="13">
+      <c r="BC10" s="13">
         <v>7</v>
       </c>
-      <c r="BC10" s="13">
+      <c r="BD10" s="13">
         <v>3</v>
       </c>
-      <c r="BD10" s="9">
+      <c r="BE10" s="9">
         <v>10</v>
       </c>
-      <c r="BE10" s="9" t="s">
+      <c r="BF10" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BF10" s="26" t="s">
+      <c r="BG10" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="BG10" s="13">
+      <c r="BH10" s="13">
         <v>75</v>
       </c>
-      <c r="BH10" s="13">
+      <c r="BI10" s="13">
         <v>2011</v>
       </c>
-      <c r="BJ10" s="13">
+      <c r="BK10" s="13">
         <v>7</v>
       </c>
-      <c r="BK10" s="13">
+      <c r="BL10" s="13">
         <v>3</v>
       </c>
-      <c r="BL10" s="9">
+      <c r="BM10" s="9">
         <v>10</v>
       </c>
-      <c r="BM10" s="9" t="s">
+      <c r="BN10" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BN10" s="26" t="s">
+      <c r="BO10" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="BO10" s="13">
+      <c r="BP10" s="13">
         <v>75</v>
       </c>
-      <c r="BP10" s="13">
+      <c r="BQ10" s="13">
         <v>2011</v>
       </c>
     </row>
-    <row r="11" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>8</v>
       </c>
@@ -2571,117 +2615,120 @@
       <c r="J11" s="13">
         <v>7032300054</v>
       </c>
-      <c r="L11" s="13">
-        <v>8</v>
+      <c r="K11" s="8">
+        <v>1</v>
       </c>
       <c r="M11" s="13">
         <v>8</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="13">
+        <v>8</v>
+      </c>
+      <c r="O11" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="V11" s="13">
+      <c r="W11" s="13">
         <v>8</v>
       </c>
-      <c r="W11" s="13">
+      <c r="X11" s="13">
         <v>4</v>
       </c>
-      <c r="X11" s="13">
+      <c r="Y11" s="13">
         <v>7032390234</v>
       </c>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="14"/>
+      <c r="AE11" s="12"/>
       <c r="AF11" s="14"/>
-      <c r="AG11" s="28"/>
-      <c r="AI11" s="13">
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="28"/>
+      <c r="AJ11" s="13">
         <v>8</v>
       </c>
-      <c r="AJ11" s="9" t="s">
+      <c r="AK11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AK11" s="13">
+      <c r="AL11" s="13">
         <v>2</v>
       </c>
-      <c r="AM11" s="13">
+      <c r="AN11" s="13">
         <v>8</v>
       </c>
-      <c r="AN11" s="13">
-        <v>1</v>
-      </c>
       <c r="AO11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="13">
         <v>8</v>
       </c>
-      <c r="AQ11" s="13">
+      <c r="AR11" s="13">
         <v>8</v>
       </c>
-      <c r="AR11" s="9" t="s">
+      <c r="AS11" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="AS11" s="13">
+      <c r="AT11" s="13">
         <v>3</v>
       </c>
-      <c r="AT11" s="25">
+      <c r="AU11" s="25">
         <v>42826</v>
       </c>
-      <c r="AU11" s="29">
+      <c r="AV11" s="29">
         <v>42886</v>
       </c>
-      <c r="AV11" s="13">
+      <c r="AW11" s="13">
         <v>30</v>
       </c>
-      <c r="AX11" s="13">
+      <c r="AY11" s="13">
         <v>8</v>
       </c>
-      <c r="AY11" s="13">
-        <v>1</v>
-      </c>
       <c r="AZ11" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="13">
         <v>7</v>
       </c>
-      <c r="BB11" s="13">
+      <c r="BC11" s="13">
         <v>8</v>
       </c>
-      <c r="BC11" s="13">
+      <c r="BD11" s="13">
         <v>3</v>
       </c>
-      <c r="BD11" s="9">
+      <c r="BE11" s="9">
         <v>12</v>
       </c>
-      <c r="BE11" s="9" t="s">
+      <c r="BF11" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="BF11" s="26" t="s">
+      <c r="BG11" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="BG11" s="13">
+      <c r="BH11" s="13">
         <v>86</v>
       </c>
-      <c r="BH11" s="13">
+      <c r="BI11" s="13">
         <v>2013</v>
       </c>
-      <c r="BJ11" s="13">
+      <c r="BK11" s="13">
         <v>8</v>
       </c>
-      <c r="BK11" s="13">
+      <c r="BL11" s="13">
         <v>3</v>
       </c>
-      <c r="BL11" s="9">
+      <c r="BM11" s="9">
         <v>12</v>
       </c>
-      <c r="BM11" s="9" t="s">
+      <c r="BN11" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="BN11" s="26" t="s">
+      <c r="BO11" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="BO11" s="13">
+      <c r="BP11" s="13">
         <v>86</v>
       </c>
-      <c r="BP11" s="13">
+      <c r="BQ11" s="13">
         <v>2013</v>
       </c>
     </row>
-    <row r="12" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>9</v>
       </c>
@@ -2707,111 +2754,114 @@
       <c r="J12" s="13">
         <v>7032300059</v>
       </c>
-      <c r="L12" s="13">
-        <v>9</v>
+      <c r="K12" s="8">
+        <v>1</v>
       </c>
       <c r="M12" s="13">
         <v>9</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="13">
+        <v>9</v>
+      </c>
+      <c r="O12" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="14"/>
+      <c r="Y12" s="12"/>
+      <c r="AE12" s="12"/>
       <c r="AF12" s="14"/>
-      <c r="AG12" s="28"/>
-      <c r="AI12" s="13">
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="28"/>
+      <c r="AJ12" s="13">
         <v>9</v>
       </c>
-      <c r="AJ12" s="9" t="s">
+      <c r="AK12" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AK12" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="13">
+      <c r="AL12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="13">
         <v>9</v>
       </c>
-      <c r="AN12" s="13">
-        <v>1</v>
-      </c>
       <c r="AO12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="13">
         <v>9</v>
       </c>
-      <c r="AQ12" s="13">
+      <c r="AR12" s="13">
         <v>9</v>
       </c>
-      <c r="AR12" s="9" t="s">
+      <c r="AS12" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="AS12" s="13">
+      <c r="AT12" s="13">
         <v>4</v>
       </c>
-      <c r="AT12" s="25">
+      <c r="AU12" s="25">
         <v>43282</v>
       </c>
-      <c r="AU12" s="27">
+      <c r="AV12" s="27">
         <v>43373</v>
       </c>
-      <c r="AV12" s="13">
+      <c r="AW12" s="13">
         <v>25</v>
       </c>
-      <c r="AX12" s="13">
+      <c r="AY12" s="13">
         <v>9</v>
       </c>
-      <c r="AY12" s="13">
+      <c r="AZ12" s="13">
         <v>2</v>
       </c>
-      <c r="AZ12" s="13">
+      <c r="BA12" s="13">
         <v>12</v>
       </c>
-      <c r="BB12" s="13">
+      <c r="BC12" s="13">
         <v>9</v>
       </c>
-      <c r="BC12" s="13">
+      <c r="BD12" s="13">
         <v>3</v>
       </c>
-      <c r="BD12" s="9" t="s">
+      <c r="BE12" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE12" s="9" t="s">
+      <c r="BF12" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="BF12" s="26" t="s">
+      <c r="BG12" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="BG12" s="13">
+      <c r="BH12" s="13">
         <v>67</v>
       </c>
-      <c r="BH12" s="13">
+      <c r="BI12" s="13">
         <v>2017</v>
       </c>
-      <c r="BJ12" s="13">
+      <c r="BK12" s="13">
         <v>9</v>
       </c>
-      <c r="BK12" s="13">
+      <c r="BL12" s="13">
         <v>3</v>
       </c>
-      <c r="BL12" s="9" t="s">
+      <c r="BM12" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BM12" s="9" t="s">
+      <c r="BN12" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="BN12" s="26" t="s">
+      <c r="BO12" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="BO12" s="13">
+      <c r="BP12" s="13">
         <v>67</v>
       </c>
-      <c r="BP12" s="13">
+      <c r="BQ12" s="13">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="13" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13">
         <v>10</v>
       </c>
@@ -2837,111 +2887,114 @@
       <c r="J13" s="13">
         <v>7032300086</v>
       </c>
-      <c r="L13" s="13">
-        <v>10</v>
+      <c r="K13" s="8">
+        <v>1</v>
       </c>
       <c r="M13" s="13">
         <v>10</v>
       </c>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="13">
+        <v>10</v>
+      </c>
+      <c r="O13" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="14"/>
+      <c r="Y13" s="12"/>
+      <c r="AE13" s="12"/>
       <c r="AF13" s="14"/>
-      <c r="AG13" s="28"/>
-      <c r="AI13" s="13">
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="28"/>
+      <c r="AJ13" s="13">
         <v>10</v>
       </c>
-      <c r="AJ13" s="9" t="s">
+      <c r="AK13" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AK13" s="13">
+      <c r="AL13" s="13">
         <v>2</v>
       </c>
-      <c r="AM13" s="13">
+      <c r="AN13" s="13">
         <v>10</v>
       </c>
-      <c r="AN13" s="13">
+      <c r="AO13" s="13">
         <v>2</v>
       </c>
-      <c r="AO13" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="13">
+      <c r="AP13" s="13">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="13">
         <v>10</v>
       </c>
-      <c r="AR13" s="9" t="s">
+      <c r="AS13" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AS13" s="13">
+      <c r="AT13" s="13">
         <v>5</v>
       </c>
-      <c r="AT13" s="25">
+      <c r="AU13" s="25">
         <v>43344</v>
       </c>
-      <c r="AU13" s="30">
+      <c r="AV13" s="30">
         <v>43434</v>
       </c>
-      <c r="AV13" s="13">
+      <c r="AW13" s="13">
         <v>25</v>
       </c>
-      <c r="AX13" s="13">
+      <c r="AY13" s="13">
         <v>10</v>
       </c>
-      <c r="AY13" s="13">
+      <c r="AZ13" s="13">
         <v>4</v>
       </c>
-      <c r="AZ13" s="13">
+      <c r="BA13" s="13">
         <v>15</v>
       </c>
-      <c r="BB13" s="13">
+      <c r="BC13" s="13">
         <v>10</v>
       </c>
-      <c r="BC13" s="13">
+      <c r="BD13" s="13">
         <v>4</v>
       </c>
-      <c r="BD13" s="9">
+      <c r="BE13" s="9">
         <v>10</v>
       </c>
-      <c r="BE13" s="9" t="s">
+      <c r="BF13" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="BF13" s="26" t="s">
+      <c r="BG13" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="BG13" s="13">
+      <c r="BH13" s="13">
         <v>58</v>
       </c>
-      <c r="BH13" s="13">
+      <c r="BI13" s="13">
         <v>2010</v>
       </c>
-      <c r="BJ13" s="13">
+      <c r="BK13" s="13">
         <v>10</v>
       </c>
-      <c r="BK13" s="13">
+      <c r="BL13" s="13">
         <v>4</v>
       </c>
-      <c r="BL13" s="9">
+      <c r="BM13" s="9">
         <v>10</v>
       </c>
-      <c r="BM13" s="9" t="s">
+      <c r="BN13" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="BN13" s="26" t="s">
+      <c r="BO13" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="BO13" s="13">
+      <c r="BP13" s="13">
         <v>58</v>
       </c>
-      <c r="BP13" s="13">
+      <c r="BQ13" s="13">
         <v>2010</v>
       </c>
     </row>
-    <row r="14" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>11</v>
       </c>
@@ -2967,111 +3020,114 @@
       <c r="J14" s="13">
         <v>7032300082</v>
       </c>
-      <c r="L14" s="13">
-        <v>11</v>
+      <c r="K14" s="8">
+        <v>1</v>
       </c>
       <c r="M14" s="13">
         <v>11</v>
       </c>
-      <c r="N14" s="24" t="s">
+      <c r="N14" s="13">
+        <v>11</v>
+      </c>
+      <c r="O14" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="14"/>
+      <c r="Y14" s="12"/>
+      <c r="AE14" s="12"/>
       <c r="AF14" s="14"/>
-      <c r="AG14" s="28"/>
-      <c r="AI14" s="13">
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="28"/>
+      <c r="AJ14" s="13">
         <v>11</v>
       </c>
-      <c r="AJ14" s="9" t="s">
+      <c r="AK14" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AK14" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="13">
+      <c r="AL14" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="13">
         <v>11</v>
-      </c>
-      <c r="AN14" s="13">
-        <v>2</v>
       </c>
       <c r="AO14" s="13">
         <v>2</v>
       </c>
-      <c r="AQ14" s="13">
+      <c r="AP14" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR14" s="13">
         <v>11</v>
       </c>
-      <c r="AR14" s="9" t="s">
+      <c r="AS14" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="AS14" s="13">
-        <v>1</v>
-      </c>
-      <c r="AT14" s="25">
+      <c r="AT14" s="13">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="25">
         <v>42948</v>
       </c>
-      <c r="AU14" s="25">
+      <c r="AV14" s="25">
         <v>43159</v>
       </c>
-      <c r="AV14" s="13">
+      <c r="AW14" s="13">
         <v>80</v>
       </c>
-      <c r="AX14" s="13">
+      <c r="AY14" s="13">
         <v>11</v>
       </c>
-      <c r="AY14" s="13">
+      <c r="AZ14" s="13">
         <v>5</v>
       </c>
-      <c r="AZ14" s="13">
+      <c r="BA14" s="13">
         <v>20</v>
       </c>
-      <c r="BB14" s="13">
+      <c r="BC14" s="13">
         <v>11</v>
       </c>
-      <c r="BC14" s="13">
+      <c r="BD14" s="13">
         <v>4</v>
       </c>
-      <c r="BD14" s="9">
+      <c r="BE14" s="9">
         <v>12</v>
       </c>
-      <c r="BE14" s="9" t="s">
+      <c r="BF14" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="BF14" s="26" t="s">
+      <c r="BG14" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="BG14" s="13">
+      <c r="BH14" s="13">
         <v>97</v>
       </c>
-      <c r="BH14" s="13">
+      <c r="BI14" s="13">
         <v>2012</v>
       </c>
-      <c r="BJ14" s="13">
+      <c r="BK14" s="13">
         <v>11</v>
       </c>
-      <c r="BK14" s="13">
+      <c r="BL14" s="13">
         <v>4</v>
       </c>
-      <c r="BL14" s="9">
+      <c r="BM14" s="9">
         <v>12</v>
       </c>
-      <c r="BM14" s="9" t="s">
+      <c r="BN14" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="BN14" s="26" t="s">
+      <c r="BO14" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="BO14" s="13">
+      <c r="BP14" s="13">
         <v>97</v>
       </c>
-      <c r="BP14" s="13">
+      <c r="BQ14" s="13">
         <v>2012</v>
       </c>
     </row>
-    <row r="15" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>12</v>
       </c>
@@ -3097,111 +3153,114 @@
       <c r="J15" s="13">
         <v>7032300042</v>
       </c>
-      <c r="L15" s="13">
-        <v>12</v>
+      <c r="K15" s="8">
+        <v>1</v>
       </c>
       <c r="M15" s="13">
         <v>12</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N15" s="13">
+        <v>12</v>
+      </c>
+      <c r="O15" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="14"/>
+      <c r="Y15" s="12"/>
+      <c r="AE15" s="12"/>
       <c r="AF15" s="14"/>
-      <c r="AG15" s="28"/>
-      <c r="AI15" s="13">
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="28"/>
+      <c r="AJ15" s="13">
         <v>12</v>
       </c>
-      <c r="AJ15" s="9" t="s">
+      <c r="AK15" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AK15" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="13">
+      <c r="AL15" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="13">
         <v>12</v>
       </c>
-      <c r="AN15" s="13">
+      <c r="AO15" s="13">
         <v>2</v>
       </c>
-      <c r="AO15" s="13">
+      <c r="AP15" s="13">
         <v>3</v>
       </c>
-      <c r="AQ15" s="13">
+      <c r="AR15" s="13">
         <v>12</v>
       </c>
-      <c r="AR15" s="9" t="s">
+      <c r="AS15" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AS15" s="13">
+      <c r="AT15" s="13">
         <v>2</v>
       </c>
-      <c r="AT15" s="25">
+      <c r="AU15" s="25">
         <v>42948</v>
       </c>
-      <c r="AU15" s="25">
+      <c r="AV15" s="25">
         <v>43159</v>
       </c>
-      <c r="AV15" s="13">
+      <c r="AW15" s="13">
         <v>30</v>
       </c>
-      <c r="AX15" s="13">
+      <c r="AY15" s="13">
         <v>12</v>
       </c>
-      <c r="AY15" s="13">
+      <c r="AZ15" s="13">
         <v>6</v>
       </c>
-      <c r="AZ15" s="13">
+      <c r="BA15" s="13">
         <v>5</v>
       </c>
-      <c r="BB15" s="13">
+      <c r="BC15" s="13">
         <v>12</v>
       </c>
-      <c r="BC15" s="13">
+      <c r="BD15" s="13">
         <v>4</v>
       </c>
-      <c r="BD15" s="9" t="s">
+      <c r="BE15" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="BE15" s="9" t="s">
+      <c r="BF15" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="BF15" s="26" t="s">
+      <c r="BG15" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="BG15" s="13">
+      <c r="BH15" s="13">
         <v>77</v>
       </c>
-      <c r="BH15" s="13">
+      <c r="BI15" s="13">
         <v>2016</v>
       </c>
-      <c r="BJ15" s="13">
+      <c r="BK15" s="13">
         <v>12</v>
       </c>
-      <c r="BK15" s="13">
+      <c r="BL15" s="13">
         <v>4</v>
       </c>
-      <c r="BL15" s="9" t="s">
+      <c r="BM15" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BM15" s="9" t="s">
+      <c r="BN15" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="BN15" s="26" t="s">
+      <c r="BO15" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="BO15" s="13">
+      <c r="BP15" s="13">
         <v>77</v>
       </c>
-      <c r="BP15" s="13">
+      <c r="BQ15" s="13">
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>13</v>
       </c>
@@ -3227,97 +3286,100 @@
       <c r="J16" s="13">
         <v>7032300055</v>
       </c>
-      <c r="L16" s="13">
-        <v>13</v>
+      <c r="K16" s="8">
+        <v>1</v>
       </c>
       <c r="M16" s="13">
         <v>13</v>
       </c>
-      <c r="N16" s="24" t="s">
+      <c r="N16" s="13">
+        <v>13</v>
+      </c>
+      <c r="O16" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="14"/>
+      <c r="Y16" s="12"/>
+      <c r="AE16" s="12"/>
       <c r="AF16" s="14"/>
-      <c r="AG16" s="28"/>
-      <c r="AI16" s="13">
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="28"/>
+      <c r="AJ16" s="13">
         <v>13</v>
       </c>
-      <c r="AJ16" s="9" t="s">
+      <c r="AK16" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AK16" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="13">
+      <c r="AL16" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="13">
         <v>13</v>
       </c>
-      <c r="AN16" s="13">
+      <c r="AO16" s="13">
         <v>2</v>
       </c>
-      <c r="AO16" s="13">
+      <c r="AP16" s="13">
         <v>11</v>
       </c>
-      <c r="AQ16" s="13">
+      <c r="AR16" s="13">
         <v>13</v>
       </c>
-      <c r="AR16" s="9" t="s">
+      <c r="AS16" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="AS16" s="13">
+      <c r="AT16" s="13">
         <v>3</v>
       </c>
-      <c r="AT16" s="25">
+      <c r="AU16" s="25">
         <v>42917</v>
       </c>
-      <c r="AU16" s="25">
+      <c r="AV16" s="25">
         <v>42978</v>
       </c>
-      <c r="AV16" s="13">
+      <c r="AW16" s="13">
         <v>30</v>
       </c>
-      <c r="AX16" s="13">
+      <c r="AY16" s="13">
         <v>13</v>
       </c>
-      <c r="AY16" s="13">
+      <c r="AZ16" s="13">
         <v>7</v>
       </c>
-      <c r="AZ16" s="13">
+      <c r="BA16" s="13">
         <v>3</v>
       </c>
-      <c r="BB16" s="13">
+      <c r="BC16" s="13">
         <v>13</v>
       </c>
-      <c r="BC16" s="13">
+      <c r="BD16" s="13">
         <v>5</v>
       </c>
-      <c r="BD16" s="9">
+      <c r="BE16" s="9">
         <v>10</v>
       </c>
-      <c r="BE16" s="9" t="s">
+      <c r="BF16" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BF16" s="26" t="s">
+      <c r="BG16" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="BG16" s="13">
+      <c r="BH16" s="13">
         <v>56</v>
       </c>
-      <c r="BH16" s="13">
+      <c r="BI16" s="13">
         <v>2008</v>
       </c>
-      <c r="BJ16" s="12"/>
       <c r="BK16" s="12"/>
-      <c r="BL16" s="14"/>
+      <c r="BL16" s="12"/>
       <c r="BM16" s="14"/>
-      <c r="BN16" s="31"/>
-      <c r="BO16" s="12"/>
+      <c r="BN16" s="14"/>
+      <c r="BO16" s="31"/>
       <c r="BP16" s="12"/>
-    </row>
-    <row r="17" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ16" s="12"/>
+    </row>
+    <row r="17" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>14</v>
       </c>
@@ -3343,97 +3405,100 @@
       <c r="J17" s="13">
         <v>7032300013</v>
       </c>
-      <c r="L17" s="13">
-        <v>14</v>
+      <c r="K17" s="8">
+        <v>1</v>
       </c>
       <c r="M17" s="13">
         <v>14</v>
       </c>
-      <c r="N17" s="24" t="s">
+      <c r="N17" s="13">
+        <v>14</v>
+      </c>
+      <c r="O17" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="14"/>
+      <c r="Y17" s="12"/>
+      <c r="AE17" s="12"/>
       <c r="AF17" s="14"/>
-      <c r="AG17" s="28"/>
-      <c r="AI17" s="13">
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="28"/>
+      <c r="AJ17" s="13">
         <v>14</v>
       </c>
-      <c r="AJ17" s="9" t="s">
+      <c r="AK17" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="AK17" s="13">
+      <c r="AL17" s="13">
         <v>3</v>
       </c>
-      <c r="AM17" s="13">
+      <c r="AN17" s="13">
         <v>14</v>
       </c>
-      <c r="AN17" s="13">
+      <c r="AO17" s="13">
         <v>2</v>
       </c>
-      <c r="AO17" s="13">
+      <c r="AP17" s="13">
         <v>12</v>
       </c>
-      <c r="AQ17" s="13">
+      <c r="AR17" s="13">
         <v>14</v>
       </c>
-      <c r="AR17" s="9" t="s">
+      <c r="AS17" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="AS17" s="13">
+      <c r="AT17" s="13">
         <v>4</v>
       </c>
-      <c r="AT17" s="25">
+      <c r="AU17" s="25">
         <v>43221</v>
       </c>
-      <c r="AU17" s="25">
+      <c r="AV17" s="25">
         <v>43312</v>
       </c>
-      <c r="AV17" s="13">
+      <c r="AW17" s="13">
         <v>25</v>
       </c>
-      <c r="AX17" s="13">
+      <c r="AY17" s="13">
         <v>14</v>
       </c>
-      <c r="AY17" s="13">
-        <v>1</v>
-      </c>
       <c r="AZ17" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="13">
         <v>20</v>
       </c>
-      <c r="BB17" s="13">
+      <c r="BC17" s="13">
         <v>14</v>
       </c>
-      <c r="BC17" s="13">
+      <c r="BD17" s="13">
         <v>5</v>
       </c>
-      <c r="BD17" s="9">
+      <c r="BE17" s="9">
         <v>12</v>
       </c>
-      <c r="BE17" s="9" t="s">
+      <c r="BF17" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="BF17" s="26" t="s">
+      <c r="BG17" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="BG17" s="13">
+      <c r="BH17" s="13">
         <v>57</v>
       </c>
-      <c r="BH17" s="13">
+      <c r="BI17" s="13">
         <v>2010</v>
       </c>
-      <c r="BJ17" s="12"/>
       <c r="BK17" s="12"/>
-      <c r="BL17" s="14"/>
+      <c r="BL17" s="12"/>
       <c r="BM17" s="14"/>
-      <c r="BN17" s="31"/>
-      <c r="BO17" s="12"/>
+      <c r="BN17" s="14"/>
+      <c r="BO17" s="31"/>
       <c r="BP17" s="12"/>
-    </row>
-    <row r="18" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ17" s="12"/>
+    </row>
+    <row r="18" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>15</v>
       </c>
@@ -3459,97 +3524,100 @@
       <c r="J18" s="13">
         <v>7032300099</v>
       </c>
-      <c r="L18" s="13">
-        <v>15</v>
+      <c r="K18" s="8">
+        <v>1</v>
       </c>
       <c r="M18" s="13">
         <v>15</v>
       </c>
-      <c r="N18" s="24" t="s">
+      <c r="N18" s="13">
+        <v>15</v>
+      </c>
+      <c r="O18" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="14"/>
+      <c r="Y18" s="12"/>
+      <c r="AE18" s="12"/>
       <c r="AF18" s="14"/>
-      <c r="AG18" s="28"/>
-      <c r="AI18" s="13">
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="28"/>
+      <c r="AJ18" s="13">
         <v>15</v>
       </c>
-      <c r="AJ18" s="9" t="s">
+      <c r="AK18" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="AK18" s="13">
+      <c r="AL18" s="13">
         <v>3</v>
       </c>
-      <c r="AM18" s="13">
+      <c r="AN18" s="13">
         <v>15</v>
       </c>
-      <c r="AN18" s="13">
+      <c r="AO18" s="13">
         <v>2</v>
       </c>
-      <c r="AO18" s="13">
+      <c r="AP18" s="13">
         <v>9</v>
       </c>
-      <c r="AQ18" s="13">
+      <c r="AR18" s="13">
         <v>15</v>
       </c>
-      <c r="AR18" s="9" t="s">
+      <c r="AS18" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="AS18" s="13">
+      <c r="AT18" s="13">
         <v>5</v>
       </c>
-      <c r="AT18" s="25">
+      <c r="AU18" s="25">
         <v>43252</v>
       </c>
-      <c r="AU18" s="25">
+      <c r="AV18" s="25">
         <v>43342</v>
       </c>
-      <c r="AV18" s="13">
+      <c r="AW18" s="13">
         <v>25</v>
       </c>
-      <c r="AX18" s="13">
+      <c r="AY18" s="13">
         <v>15</v>
       </c>
-      <c r="AY18" s="13">
+      <c r="AZ18" s="13">
         <v>2</v>
       </c>
-      <c r="AZ18" s="13">
+      <c r="BA18" s="13">
         <v>10</v>
       </c>
-      <c r="BB18" s="13">
+      <c r="BC18" s="13">
         <v>15</v>
       </c>
-      <c r="BC18" s="13">
+      <c r="BD18" s="13">
         <v>5</v>
       </c>
-      <c r="BD18" s="9" t="s">
+      <c r="BE18" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="BE18" s="9" t="s">
+      <c r="BF18" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="BF18" s="26" t="s">
+      <c r="BG18" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="BG18" s="13">
+      <c r="BH18" s="13">
         <v>86</v>
       </c>
-      <c r="BH18" s="13">
+      <c r="BI18" s="13">
         <v>2014</v>
       </c>
-      <c r="BJ18" s="12"/>
       <c r="BK18" s="12"/>
-      <c r="BL18" s="14"/>
+      <c r="BL18" s="12"/>
       <c r="BM18" s="14"/>
-      <c r="BN18" s="31"/>
-      <c r="BO18" s="12"/>
+      <c r="BN18" s="14"/>
+      <c r="BO18" s="31"/>
       <c r="BP18" s="12"/>
-    </row>
-    <row r="19" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ18" s="12"/>
+    </row>
+    <row r="19" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13">
         <v>16</v>
       </c>
@@ -3575,97 +3643,100 @@
       <c r="J19" s="13">
         <v>7032300023</v>
       </c>
-      <c r="L19" s="13">
-        <v>16</v>
+      <c r="K19" s="8">
+        <v>1</v>
       </c>
       <c r="M19" s="13">
         <v>16</v>
       </c>
-      <c r="N19" s="24" t="s">
+      <c r="N19" s="13">
+        <v>16</v>
+      </c>
+      <c r="O19" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="14"/>
+      <c r="Y19" s="12"/>
+      <c r="AE19" s="12"/>
       <c r="AF19" s="14"/>
-      <c r="AG19" s="28"/>
-      <c r="AI19" s="13">
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="28"/>
+      <c r="AJ19" s="13">
         <v>16</v>
       </c>
-      <c r="AJ19" s="9" t="s">
+      <c r="AK19" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="AK19" s="13">
+      <c r="AL19" s="13">
         <v>3</v>
       </c>
-      <c r="AM19" s="13">
+      <c r="AN19" s="13">
         <v>16</v>
       </c>
-      <c r="AN19" s="13">
+      <c r="AO19" s="13">
         <v>3</v>
       </c>
-      <c r="AO19" s="13">
+      <c r="AP19" s="13">
         <v>13</v>
       </c>
-      <c r="AQ19" s="13">
+      <c r="AR19" s="13">
         <v>16</v>
       </c>
-      <c r="AR19" s="9" t="s">
+      <c r="AS19" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="AS19" s="13">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="25">
+      <c r="AT19" s="13">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="25">
         <v>41852</v>
       </c>
-      <c r="AU19" s="25">
+      <c r="AV19" s="25">
         <v>42063</v>
       </c>
-      <c r="AV19" s="13">
+      <c r="AW19" s="13">
         <v>80</v>
       </c>
-      <c r="AX19" s="13">
+      <c r="AY19" s="13">
         <v>16</v>
       </c>
-      <c r="AY19" s="13">
+      <c r="AZ19" s="13">
         <v>3</v>
       </c>
-      <c r="AZ19" s="13">
+      <c r="BA19" s="13">
         <v>5</v>
       </c>
-      <c r="BB19" s="13">
+      <c r="BC19" s="13">
         <v>16</v>
       </c>
-      <c r="BC19" s="13">
+      <c r="BD19" s="13">
         <v>6</v>
       </c>
-      <c r="BD19" s="9">
+      <c r="BE19" s="9">
         <v>10</v>
       </c>
-      <c r="BE19" s="9" t="s">
+      <c r="BF19" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="BF19" s="26" t="s">
+      <c r="BG19" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BG19" s="13">
+      <c r="BH19" s="13">
         <v>56</v>
       </c>
-      <c r="BH19" s="13">
+      <c r="BI19" s="13">
         <v>2009</v>
       </c>
-      <c r="BJ19" s="12"/>
       <c r="BK19" s="12"/>
-      <c r="BL19" s="14"/>
+      <c r="BL19" s="12"/>
       <c r="BM19" s="14"/>
-      <c r="BN19" s="31"/>
-      <c r="BO19" s="12"/>
+      <c r="BN19" s="14"/>
+      <c r="BO19" s="31"/>
       <c r="BP19" s="12"/>
-    </row>
-    <row r="20" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ19" s="12"/>
+    </row>
+    <row r="20" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>17</v>
       </c>
@@ -3691,97 +3762,100 @@
       <c r="J20" s="13">
         <v>7032300084</v>
       </c>
-      <c r="L20" s="13">
-        <v>17</v>
+      <c r="K20" s="8">
+        <v>1</v>
       </c>
       <c r="M20" s="13">
         <v>17</v>
       </c>
-      <c r="N20" s="24" t="s">
+      <c r="N20" s="13">
+        <v>17</v>
+      </c>
+      <c r="O20" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="14"/>
+      <c r="Y20" s="12"/>
+      <c r="AE20" s="12"/>
       <c r="AF20" s="14"/>
-      <c r="AG20" s="28"/>
-      <c r="AI20" s="13">
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="28"/>
+      <c r="AJ20" s="13">
         <v>17</v>
       </c>
-      <c r="AJ20" s="9" t="s">
+      <c r="AK20" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="AK20" s="13">
+      <c r="AL20" s="13">
         <v>3</v>
       </c>
-      <c r="AM20" s="13">
+      <c r="AN20" s="13">
         <v>17</v>
       </c>
-      <c r="AN20" s="13">
+      <c r="AO20" s="13">
         <v>3</v>
       </c>
-      <c r="AO20" s="13">
+      <c r="AP20" s="13">
         <v>5</v>
       </c>
-      <c r="AQ20" s="13">
+      <c r="AR20" s="13">
         <v>17</v>
       </c>
-      <c r="AR20" s="9" t="s">
+      <c r="AS20" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="AS20" s="13">
+      <c r="AT20" s="13">
         <v>2</v>
       </c>
-      <c r="AT20" s="25">
+      <c r="AU20" s="25">
         <v>41852</v>
       </c>
-      <c r="AU20" s="25">
+      <c r="AV20" s="25">
         <v>42063</v>
       </c>
-      <c r="AV20" s="13">
+      <c r="AW20" s="13">
         <v>30</v>
       </c>
-      <c r="AX20" s="13">
+      <c r="AY20" s="13">
         <v>17</v>
       </c>
-      <c r="AY20" s="13">
+      <c r="AZ20" s="13">
         <v>4</v>
       </c>
-      <c r="AZ20" s="13">
+      <c r="BA20" s="13">
         <v>6</v>
       </c>
-      <c r="BB20" s="13">
+      <c r="BC20" s="13">
         <v>17</v>
       </c>
-      <c r="BC20" s="13">
+      <c r="BD20" s="13">
         <v>6</v>
       </c>
-      <c r="BD20" s="9">
+      <c r="BE20" s="9">
         <v>12</v>
       </c>
-      <c r="BE20" s="9" t="s">
+      <c r="BF20" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BF20" s="26" t="s">
+      <c r="BG20" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BG20" s="13">
+      <c r="BH20" s="13">
         <v>76</v>
       </c>
-      <c r="BH20" s="13">
+      <c r="BI20" s="13">
         <v>2011</v>
       </c>
-      <c r="BJ20" s="12"/>
       <c r="BK20" s="12"/>
-      <c r="BL20" s="14"/>
+      <c r="BL20" s="12"/>
       <c r="BM20" s="14"/>
-      <c r="BN20" s="31"/>
-      <c r="BO20" s="12"/>
+      <c r="BN20" s="14"/>
+      <c r="BO20" s="31"/>
       <c r="BP20" s="12"/>
-    </row>
-    <row r="21" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ20" s="12"/>
+    </row>
+    <row r="21" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>18</v>
       </c>
@@ -3807,91 +3881,94 @@
       <c r="J21" s="13">
         <v>7032300011</v>
       </c>
-      <c r="L21" s="13">
-        <v>18</v>
+      <c r="K21" s="8">
+        <v>1</v>
       </c>
       <c r="M21" s="13">
         <v>18</v>
       </c>
-      <c r="N21" s="24" t="s">
+      <c r="N21" s="13">
+        <v>18</v>
+      </c>
+      <c r="O21" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="14"/>
+      <c r="Y21" s="12"/>
+      <c r="AE21" s="12"/>
       <c r="AF21" s="14"/>
-      <c r="AG21" s="28"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="28"/>
+      <c r="AJ21" s="12"/>
       <c r="AK21" s="14"/>
-      <c r="AM21" s="13">
+      <c r="AL21" s="14"/>
+      <c r="AN21" s="13">
         <v>18</v>
       </c>
-      <c r="AN21" s="13">
+      <c r="AO21" s="13">
         <v>3</v>
       </c>
-      <c r="AO21" s="13">
+      <c r="AP21" s="13">
         <v>6</v>
       </c>
-      <c r="AQ21" s="13">
+      <c r="AR21" s="13">
         <v>18</v>
       </c>
-      <c r="AR21" s="9" t="s">
+      <c r="AS21" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="AS21" s="13">
+      <c r="AT21" s="13">
         <v>3</v>
       </c>
-      <c r="AT21" s="25">
+      <c r="AU21" s="25">
         <v>43160</v>
       </c>
-      <c r="AU21" s="25">
+      <c r="AV21" s="25">
         <v>43220</v>
       </c>
-      <c r="AV21" s="13">
+      <c r="AW21" s="13">
         <v>35</v>
       </c>
-      <c r="AX21" s="13">
+      <c r="AY21" s="13">
         <v>18</v>
       </c>
-      <c r="AY21" s="13">
+      <c r="AZ21" s="13">
         <v>5</v>
       </c>
-      <c r="AZ21" s="13">
+      <c r="BA21" s="13">
         <v>3</v>
       </c>
-      <c r="BB21" s="13">
+      <c r="BC21" s="13">
         <v>18</v>
       </c>
-      <c r="BC21" s="13">
+      <c r="BD21" s="13">
         <v>6</v>
       </c>
-      <c r="BD21" s="9" t="s">
+      <c r="BE21" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE21" s="9" t="s">
+      <c r="BF21" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="BF21" s="26" t="s">
+      <c r="BG21" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="BG21" s="13">
+      <c r="BH21" s="13">
         <v>87</v>
       </c>
-      <c r="BH21" s="13">
+      <c r="BI21" s="13">
         <v>2015</v>
       </c>
-      <c r="BJ21" s="12"/>
       <c r="BK21" s="12"/>
-      <c r="BL21" s="14"/>
+      <c r="BL21" s="12"/>
       <c r="BM21" s="14"/>
-      <c r="BN21" s="31"/>
-      <c r="BO21" s="12"/>
+      <c r="BN21" s="14"/>
+      <c r="BO21" s="31"/>
       <c r="BP21" s="12"/>
-    </row>
-    <row r="22" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ21" s="12"/>
+    </row>
+    <row r="22" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>19</v>
       </c>
@@ -3917,91 +3994,94 @@
       <c r="J22" s="13">
         <v>7032300066</v>
       </c>
-      <c r="L22" s="13">
-        <v>19</v>
+      <c r="K22" s="8">
+        <v>1</v>
       </c>
       <c r="M22" s="13">
         <v>19</v>
       </c>
-      <c r="N22" s="24" t="s">
+      <c r="N22" s="13">
+        <v>19</v>
+      </c>
+      <c r="O22" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="32"/>
+      <c r="Y22" s="12"/>
+      <c r="AE22" s="12"/>
       <c r="AF22" s="32"/>
-      <c r="AG22" s="28"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="28"/>
+      <c r="AJ22" s="12"/>
       <c r="AK22" s="32"/>
-      <c r="AM22" s="13">
+      <c r="AL22" s="32"/>
+      <c r="AN22" s="13">
         <v>19</v>
       </c>
-      <c r="AN22" s="13">
+      <c r="AO22" s="13">
         <v>4</v>
       </c>
-      <c r="AO22" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ22" s="13">
+      <c r="AP22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="13">
         <v>19</v>
       </c>
-      <c r="AR22" s="9" t="s">
+      <c r="AS22" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="AS22" s="13">
+      <c r="AT22" s="13">
         <v>4</v>
       </c>
-      <c r="AT22" s="25">
+      <c r="AU22" s="25">
         <v>43466</v>
       </c>
-      <c r="AU22" s="25">
+      <c r="AV22" s="25">
         <v>43554</v>
       </c>
-      <c r="AV22" s="13">
+      <c r="AW22" s="13">
         <v>25</v>
       </c>
-      <c r="AX22" s="13">
+      <c r="AY22" s="13">
         <v>19</v>
       </c>
-      <c r="AY22" s="13">
+      <c r="AZ22" s="13">
         <v>6</v>
       </c>
-      <c r="AZ22" s="13">
-        <v>1</v>
-      </c>
-      <c r="BB22" s="13">
+      <c r="BA22" s="13">
+        <v>1</v>
+      </c>
+      <c r="BC22" s="13">
         <v>19</v>
       </c>
-      <c r="BC22" s="13">
+      <c r="BD22" s="13">
         <v>7</v>
       </c>
-      <c r="BD22" s="9">
+      <c r="BE22" s="9">
         <v>10</v>
       </c>
-      <c r="BE22" s="9" t="s">
+      <c r="BF22" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="BF22" s="26" t="s">
+      <c r="BG22" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="BG22" s="13">
+      <c r="BH22" s="13">
         <v>87</v>
       </c>
-      <c r="BH22" s="13">
+      <c r="BI22" s="13">
         <v>2011</v>
       </c>
-      <c r="BJ22" s="12"/>
       <c r="BK22" s="12"/>
-      <c r="BL22" s="14"/>
+      <c r="BL22" s="12"/>
       <c r="BM22" s="14"/>
-      <c r="BN22" s="31"/>
-      <c r="BO22" s="12"/>
+      <c r="BN22" s="14"/>
+      <c r="BO22" s="31"/>
       <c r="BP22" s="12"/>
-    </row>
-    <row r="23" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ22" s="12"/>
+    </row>
+    <row r="23" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>20</v>
       </c>
@@ -4027,91 +4107,94 @@
       <c r="J23" s="13">
         <v>7032300096</v>
       </c>
-      <c r="L23" s="13">
-        <v>20</v>
+      <c r="K23" s="8">
+        <v>1</v>
       </c>
       <c r="M23" s="13">
         <v>20</v>
       </c>
-      <c r="N23" s="24" t="s">
+      <c r="N23" s="13">
+        <v>20</v>
+      </c>
+      <c r="O23" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="32"/>
+      <c r="Y23" s="12"/>
+      <c r="AE23" s="12"/>
       <c r="AF23" s="32"/>
-      <c r="AG23" s="28"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="28"/>
+      <c r="AJ23" s="12"/>
       <c r="AK23" s="32"/>
-      <c r="AM23" s="13">
+      <c r="AL23" s="32"/>
+      <c r="AN23" s="13">
         <v>20</v>
       </c>
-      <c r="AN23" s="13">
+      <c r="AO23" s="13">
         <v>4</v>
       </c>
-      <c r="AO23" s="13">
+      <c r="AP23" s="13">
         <v>7</v>
       </c>
-      <c r="AQ23" s="13">
+      <c r="AR23" s="13">
         <v>20</v>
       </c>
-      <c r="AR23" s="9" t="s">
+      <c r="AS23" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="AS23" s="13">
+      <c r="AT23" s="13">
         <v>5</v>
       </c>
-      <c r="AT23" s="25">
+      <c r="AU23" s="25">
         <v>43435</v>
       </c>
-      <c r="AU23" s="25">
+      <c r="AV23" s="25">
         <v>43524</v>
       </c>
-      <c r="AV23" s="13">
+      <c r="AW23" s="13">
         <v>25</v>
       </c>
-      <c r="AX23" s="13">
+      <c r="AY23" s="13">
         <v>20</v>
       </c>
-      <c r="AY23" s="13">
+      <c r="AZ23" s="13">
         <v>12</v>
       </c>
-      <c r="AZ23" s="13">
+      <c r="BA23" s="13">
         <v>10</v>
       </c>
-      <c r="BB23" s="13">
+      <c r="BC23" s="13">
         <v>20</v>
       </c>
-      <c r="BC23" s="13">
+      <c r="BD23" s="13">
         <v>7</v>
       </c>
-      <c r="BD23" s="9">
+      <c r="BE23" s="9">
         <v>12</v>
       </c>
-      <c r="BE23" s="9" t="s">
+      <c r="BF23" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="BF23" s="26" t="s">
+      <c r="BG23" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="BG23" s="13">
+      <c r="BH23" s="13">
         <v>78</v>
       </c>
-      <c r="BH23" s="13">
+      <c r="BI23" s="13">
         <v>2013</v>
       </c>
-      <c r="BJ23" s="12"/>
       <c r="BK23" s="12"/>
-      <c r="BL23" s="14"/>
+      <c r="BL23" s="12"/>
       <c r="BM23" s="14"/>
-      <c r="BN23" s="31"/>
-      <c r="BO23" s="12"/>
+      <c r="BN23" s="14"/>
+      <c r="BO23" s="31"/>
       <c r="BP23" s="12"/>
-    </row>
-    <row r="24" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ23" s="12"/>
+    </row>
+    <row r="24" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <v>21</v>
       </c>
@@ -4137,88 +4220,91 @@
       <c r="J24" s="13">
         <v>7132300034</v>
       </c>
-      <c r="L24" s="13">
-        <v>21</v>
+      <c r="K24" s="8">
+        <v>1</v>
       </c>
       <c r="M24" s="13">
         <v>21</v>
       </c>
-      <c r="N24" s="24" t="s">
+      <c r="N24" s="13">
+        <v>21</v>
+      </c>
+      <c r="O24" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="32"/>
+      <c r="AE24" s="12"/>
       <c r="AF24" s="32"/>
-      <c r="AG24" s="28"/>
-      <c r="AI24" s="12"/>
-      <c r="AJ24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="28"/>
+      <c r="AJ24" s="12"/>
       <c r="AK24" s="32"/>
-      <c r="AM24" s="13">
+      <c r="AL24" s="32"/>
+      <c r="AN24" s="13">
         <v>21</v>
       </c>
-      <c r="AN24" s="13">
+      <c r="AO24" s="13">
         <v>4</v>
       </c>
-      <c r="AO24" s="13">
+      <c r="AP24" s="13">
         <v>8</v>
       </c>
-      <c r="AQ24" s="13">
+      <c r="AR24" s="13">
         <v>21</v>
       </c>
-      <c r="AR24" s="9" t="s">
+      <c r="AS24" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="AS24" s="13">
-        <v>1</v>
-      </c>
-      <c r="AT24" s="25">
+      <c r="AT24" s="13">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="25">
         <v>42217</v>
       </c>
-      <c r="AU24" s="25">
+      <c r="AV24" s="25">
         <v>42428</v>
       </c>
-      <c r="AV24" s="13">
+      <c r="AW24" s="13">
         <v>80</v>
       </c>
-      <c r="AX24" s="13">
+      <c r="AY24" s="13">
         <v>21</v>
       </c>
-      <c r="AY24" s="13">
+      <c r="AZ24" s="13">
         <v>15</v>
       </c>
-      <c r="AZ24" s="13">
+      <c r="BA24" s="13">
         <v>17</v>
       </c>
-      <c r="BB24" s="13">
+      <c r="BC24" s="13">
         <v>21</v>
       </c>
-      <c r="BC24" s="13">
+      <c r="BD24" s="13">
         <v>7</v>
       </c>
-      <c r="BD24" s="9" t="s">
+      <c r="BE24" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE24" s="9" t="s">
+      <c r="BF24" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="BF24" s="26" t="s">
+      <c r="BG24" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BG24" s="13">
+      <c r="BH24" s="13">
         <v>97</v>
       </c>
-      <c r="BH24" s="13">
+      <c r="BI24" s="13">
         <v>2017</v>
       </c>
-      <c r="BJ24" s="12"/>
       <c r="BK24" s="12"/>
-      <c r="BL24" s="14"/>
+      <c r="BL24" s="12"/>
       <c r="BM24" s="14"/>
-      <c r="BN24" s="31"/>
-      <c r="BO24" s="12"/>
+      <c r="BN24" s="14"/>
+      <c r="BO24" s="31"/>
       <c r="BP24" s="12"/>
-    </row>
-    <row r="25" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ24" s="12"/>
+    </row>
+    <row r="25" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <v>22</v>
       </c>
@@ -4244,88 +4330,91 @@
       <c r="J25" s="13">
         <v>7132300039</v>
       </c>
-      <c r="L25" s="13">
-        <v>22</v>
+      <c r="K25" s="8">
+        <v>1</v>
       </c>
       <c r="M25" s="13">
         <v>22</v>
       </c>
-      <c r="N25" s="24" t="s">
+      <c r="N25" s="13">
+        <v>22</v>
+      </c>
+      <c r="O25" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="32"/>
+      <c r="AE25" s="12"/>
       <c r="AF25" s="32"/>
-      <c r="AG25" s="28"/>
-      <c r="AI25" s="12"/>
-      <c r="AJ25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="28"/>
+      <c r="AJ25" s="12"/>
       <c r="AK25" s="32"/>
-      <c r="AM25" s="13">
+      <c r="AL25" s="32"/>
+      <c r="AN25" s="13">
         <v>22</v>
       </c>
-      <c r="AN25" s="13">
+      <c r="AO25" s="13">
         <v>5</v>
       </c>
-      <c r="AO25" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ25" s="13">
+      <c r="AP25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="13">
         <v>22</v>
       </c>
-      <c r="AR25" s="9" t="s">
+      <c r="AS25" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="AS25" s="13">
+      <c r="AT25" s="13">
         <v>2</v>
       </c>
-      <c r="AT25" s="25">
+      <c r="AU25" s="25">
         <v>42217</v>
       </c>
-      <c r="AU25" s="25">
+      <c r="AV25" s="25">
         <v>42428</v>
       </c>
-      <c r="AV25" s="13">
+      <c r="AW25" s="13">
         <v>30</v>
       </c>
-      <c r="AX25" s="13">
+      <c r="AY25" s="13">
         <v>22</v>
       </c>
-      <c r="AY25" s="13">
+      <c r="AZ25" s="13">
         <v>15</v>
       </c>
-      <c r="AZ25" s="13">
+      <c r="BA25" s="13">
         <v>18</v>
       </c>
-      <c r="BB25" s="13">
+      <c r="BC25" s="13">
         <v>22</v>
       </c>
-      <c r="BC25" s="13">
+      <c r="BD25" s="13">
         <v>8</v>
       </c>
-      <c r="BD25" s="9">
+      <c r="BE25" s="9">
         <v>10</v>
       </c>
-      <c r="BE25" s="9" t="s">
+      <c r="BF25" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="BF25" s="26" t="s">
+      <c r="BG25" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="BG25" s="13">
+      <c r="BH25" s="13">
         <v>56</v>
       </c>
-      <c r="BH25" s="13">
+      <c r="BI25" s="13">
         <v>2010</v>
       </c>
-      <c r="BJ25" s="12"/>
       <c r="BK25" s="12"/>
-      <c r="BL25" s="14"/>
+      <c r="BL25" s="12"/>
       <c r="BM25" s="14"/>
-      <c r="BN25" s="31"/>
-      <c r="BO25" s="12"/>
+      <c r="BN25" s="14"/>
+      <c r="BO25" s="31"/>
       <c r="BP25" s="12"/>
-    </row>
-    <row r="26" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ25" s="12"/>
+    </row>
+    <row r="26" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <v>23</v>
       </c>
@@ -4351,88 +4440,91 @@
       <c r="J26" s="13">
         <v>7132300050</v>
       </c>
-      <c r="L26" s="13">
-        <v>23</v>
+      <c r="K26" s="8">
+        <v>1</v>
       </c>
       <c r="M26" s="13">
         <v>23</v>
       </c>
-      <c r="N26" s="24" t="s">
+      <c r="N26" s="13">
+        <v>23</v>
+      </c>
+      <c r="O26" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="32"/>
+      <c r="AE26" s="12"/>
       <c r="AF26" s="32"/>
-      <c r="AG26" s="28"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="28"/>
+      <c r="AJ26" s="12"/>
       <c r="AK26" s="32"/>
-      <c r="AM26" s="13">
+      <c r="AL26" s="32"/>
+      <c r="AN26" s="13">
         <v>23</v>
       </c>
-      <c r="AN26" s="13">
+      <c r="AO26" s="13">
         <v>5</v>
       </c>
-      <c r="AO26" s="13">
+      <c r="AP26" s="13">
         <v>7</v>
       </c>
-      <c r="AQ26" s="13">
+      <c r="AR26" s="13">
         <v>23</v>
       </c>
-      <c r="AR26" s="9" t="s">
+      <c r="AS26" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AS26" s="13">
+      <c r="AT26" s="13">
         <v>3</v>
       </c>
-      <c r="AT26" s="25">
+      <c r="AU26" s="25">
         <v>43525</v>
       </c>
-      <c r="AU26" s="25">
+      <c r="AV26" s="25">
         <v>43585</v>
       </c>
-      <c r="AV26" s="13">
+      <c r="AW26" s="13">
         <v>40</v>
       </c>
-      <c r="AX26" s="13">
+      <c r="AY26" s="13">
         <v>23</v>
       </c>
-      <c r="AY26" s="13">
+      <c r="AZ26" s="13">
         <v>16</v>
       </c>
-      <c r="AZ26" s="13">
+      <c r="BA26" s="13">
         <v>18</v>
       </c>
-      <c r="BB26" s="13">
+      <c r="BC26" s="13">
         <v>23</v>
       </c>
-      <c r="BC26" s="13">
+      <c r="BD26" s="13">
         <v>8</v>
       </c>
-      <c r="BD26" s="9">
+      <c r="BE26" s="9">
         <v>12</v>
       </c>
-      <c r="BE26" s="9" t="s">
+      <c r="BF26" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BF26" s="26" t="s">
+      <c r="BG26" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="BG26" s="13">
+      <c r="BH26" s="13">
         <v>60</v>
       </c>
-      <c r="BH26" s="13">
+      <c r="BI26" s="13">
         <v>2012</v>
       </c>
-      <c r="BJ26" s="12"/>
       <c r="BK26" s="12"/>
-      <c r="BL26" s="14"/>
+      <c r="BL26" s="12"/>
       <c r="BM26" s="14"/>
-      <c r="BN26" s="31"/>
-      <c r="BO26" s="12"/>
+      <c r="BN26" s="14"/>
+      <c r="BO26" s="31"/>
       <c r="BP26" s="12"/>
-    </row>
-    <row r="27" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ26" s="12"/>
+    </row>
+    <row r="27" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <v>24</v>
       </c>
@@ -4458,83 +4550,86 @@
       <c r="J27" s="13">
         <v>7132300027</v>
       </c>
-      <c r="L27" s="13">
-        <v>24</v>
+      <c r="K27" s="8">
+        <v>1</v>
       </c>
       <c r="M27" s="13">
         <v>24</v>
       </c>
-      <c r="N27" s="24" t="s">
+      <c r="N27" s="13">
+        <v>24</v>
+      </c>
+      <c r="O27" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="AG27" s="12"/>
-      <c r="AI27" s="12"/>
-      <c r="AM27" s="13">
+      <c r="AH27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AN27" s="13">
         <v>24</v>
       </c>
-      <c r="AN27" s="13">
+      <c r="AO27" s="13">
         <v>5</v>
       </c>
-      <c r="AO27" s="13">
+      <c r="AP27" s="13">
         <v>8</v>
       </c>
-      <c r="AQ27" s="13">
+      <c r="AR27" s="13">
         <v>24</v>
       </c>
-      <c r="AR27" s="9" t="s">
+      <c r="AS27" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="AS27" s="13">
+      <c r="AT27" s="13">
         <v>4</v>
       </c>
-      <c r="AT27" s="25">
+      <c r="AU27" s="25">
         <v>43466</v>
       </c>
-      <c r="AU27" s="25">
+      <c r="AV27" s="25">
         <v>43554</v>
       </c>
-      <c r="AV27" s="13">
+      <c r="AW27" s="13">
         <v>30</v>
       </c>
-      <c r="AX27" s="13">
+      <c r="AY27" s="13">
         <v>24</v>
       </c>
-      <c r="AY27" s="13">
+      <c r="AZ27" s="13">
         <v>17</v>
       </c>
-      <c r="AZ27" s="13">
+      <c r="BA27" s="13">
         <v>12</v>
       </c>
-      <c r="BB27" s="13">
+      <c r="BC27" s="13">
         <v>24</v>
       </c>
-      <c r="BC27" s="13">
+      <c r="BD27" s="13">
         <v>8</v>
       </c>
-      <c r="BD27" s="9" t="s">
+      <c r="BE27" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="BE27" s="9" t="s">
+      <c r="BF27" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="BF27" s="26" t="s">
+      <c r="BG27" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="BG27" s="13">
+      <c r="BH27" s="13">
         <v>87</v>
       </c>
-      <c r="BH27" s="13">
+      <c r="BI27" s="13">
         <v>2016</v>
       </c>
-      <c r="BJ27" s="12"/>
       <c r="BK27" s="12"/>
-      <c r="BL27" s="14"/>
+      <c r="BL27" s="12"/>
       <c r="BM27" s="14"/>
-      <c r="BN27" s="31"/>
-      <c r="BO27" s="12"/>
+      <c r="BN27" s="14"/>
+      <c r="BO27" s="31"/>
       <c r="BP27" s="12"/>
-    </row>
-    <row r="28" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ27" s="12"/>
+    </row>
+    <row r="28" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>25</v>
       </c>
@@ -4560,82 +4655,85 @@
       <c r="J28" s="13">
         <v>7032300001</v>
       </c>
-      <c r="L28" s="13">
-        <v>25</v>
+      <c r="K28" s="8">
+        <v>1</v>
       </c>
       <c r="M28" s="13">
         <v>25</v>
       </c>
-      <c r="N28" s="24" t="s">
+      <c r="N28" s="13">
+        <v>25</v>
+      </c>
+      <c r="O28" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="AG28" s="12"/>
-      <c r="AM28" s="13">
+      <c r="AH28" s="12"/>
+      <c r="AN28" s="13">
         <v>25</v>
       </c>
-      <c r="AN28" s="13">
+      <c r="AO28" s="13">
         <v>6</v>
       </c>
-      <c r="AO28" s="13">
+      <c r="AP28" s="13">
         <v>14</v>
       </c>
-      <c r="AQ28" s="13">
+      <c r="AR28" s="13">
         <v>25</v>
       </c>
-      <c r="AR28" s="9" t="s">
+      <c r="AS28" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="AS28" s="13">
+      <c r="AT28" s="13">
         <v>6</v>
       </c>
-      <c r="AT28" s="25">
+      <c r="AU28" s="25">
         <v>43466</v>
       </c>
-      <c r="AU28" s="25">
+      <c r="AV28" s="25">
         <v>43554</v>
       </c>
-      <c r="AV28" s="13">
+      <c r="AW28" s="13">
         <v>30</v>
       </c>
-      <c r="AX28" s="13">
+      <c r="AY28" s="13">
         <v>25</v>
       </c>
-      <c r="AY28" s="13">
+      <c r="AZ28" s="13">
         <v>3</v>
       </c>
-      <c r="AZ28" s="13">
+      <c r="BA28" s="13">
         <v>20</v>
       </c>
-      <c r="BB28" s="13">
+      <c r="BC28" s="13">
         <v>25</v>
       </c>
-      <c r="BC28" s="13">
+      <c r="BD28" s="13">
         <v>9</v>
       </c>
-      <c r="BD28" s="9">
+      <c r="BE28" s="9">
         <v>10</v>
       </c>
-      <c r="BE28" s="9" t="s">
+      <c r="BF28" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="BF28" s="26" t="s">
+      <c r="BG28" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="BG28" s="13">
+      <c r="BH28" s="13">
         <v>98</v>
       </c>
-      <c r="BH28" s="13">
+      <c r="BI28" s="13">
         <v>2012</v>
       </c>
-      <c r="BJ28" s="12"/>
       <c r="BK28" s="12"/>
-      <c r="BL28" s="14"/>
+      <c r="BL28" s="12"/>
       <c r="BM28" s="14"/>
-      <c r="BN28" s="31"/>
-      <c r="BO28" s="12"/>
+      <c r="BN28" s="14"/>
+      <c r="BO28" s="31"/>
       <c r="BP28" s="12"/>
-    </row>
-    <row r="29" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ28" s="12"/>
+    </row>
+    <row r="29" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="12"/>
       <c r="H29" s="13">
         <v>26</v>
@@ -4646,55 +4744,58 @@
       <c r="J29" s="13">
         <v>7132300079</v>
       </c>
-      <c r="AG29" s="12"/>
-      <c r="AM29" s="13">
+      <c r="K29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="12"/>
+      <c r="AN29" s="13">
         <v>26</v>
       </c>
-      <c r="AN29" s="13">
+      <c r="AO29" s="13">
         <v>6</v>
       </c>
-      <c r="AO29" s="13">
+      <c r="AP29" s="13">
         <v>15</v>
       </c>
-      <c r="AX29" s="13">
+      <c r="AY29" s="13">
         <v>26</v>
       </c>
-      <c r="AY29" s="13">
+      <c r="AZ29" s="13">
         <v>4</v>
       </c>
-      <c r="AZ29" s="13">
+      <c r="BA29" s="13">
         <v>17</v>
       </c>
-      <c r="BB29" s="13">
+      <c r="BC29" s="13">
         <v>26</v>
       </c>
-      <c r="BC29" s="13">
+      <c r="BD29" s="13">
         <v>9</v>
       </c>
-      <c r="BD29" s="9">
+      <c r="BE29" s="9">
         <v>12</v>
       </c>
-      <c r="BE29" s="9" t="s">
+      <c r="BF29" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="BF29" s="26" t="s">
+      <c r="BG29" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="BG29" s="13">
+      <c r="BH29" s="13">
         <v>67</v>
       </c>
-      <c r="BH29" s="13">
+      <c r="BI29" s="13">
         <v>2014</v>
       </c>
-      <c r="BJ29" s="12"/>
       <c r="BK29" s="12"/>
-      <c r="BL29" s="14"/>
+      <c r="BL29" s="12"/>
       <c r="BM29" s="14"/>
-      <c r="BN29" s="31"/>
-      <c r="BO29" s="12"/>
+      <c r="BN29" s="14"/>
+      <c r="BO29" s="31"/>
       <c r="BP29" s="12"/>
-    </row>
-    <row r="30" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ29" s="12"/>
+    </row>
+    <row r="30" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="12"/>
       <c r="H30" s="13">
         <v>27</v>
@@ -4705,46 +4806,49 @@
       <c r="J30" s="13">
         <v>7132300081</v>
       </c>
-      <c r="AG30" s="12"/>
-      <c r="AM30" s="13">
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="12"/>
+      <c r="AN30" s="13">
         <v>27</v>
       </c>
-      <c r="AN30" s="13">
+      <c r="AO30" s="13">
         <v>6</v>
       </c>
-      <c r="AO30" s="13">
+      <c r="AP30" s="13">
         <v>16</v>
       </c>
-      <c r="BB30" s="13">
+      <c r="BC30" s="13">
         <v>27</v>
       </c>
-      <c r="BC30" s="13">
+      <c r="BD30" s="13">
         <v>9</v>
       </c>
-      <c r="BD30" s="9" t="s">
+      <c r="BE30" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE30" s="9" t="s">
+      <c r="BF30" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="BF30" s="26" t="s">
+      <c r="BG30" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="BG30" s="13">
+      <c r="BH30" s="13">
         <v>87</v>
       </c>
-      <c r="BH30" s="13">
+      <c r="BI30" s="13">
         <v>2018</v>
       </c>
-      <c r="BJ30" s="12"/>
       <c r="BK30" s="12"/>
-      <c r="BL30" s="14"/>
+      <c r="BL30" s="12"/>
       <c r="BM30" s="14"/>
-      <c r="BN30" s="31"/>
-      <c r="BO30" s="12"/>
+      <c r="BN30" s="14"/>
+      <c r="BO30" s="31"/>
       <c r="BP30" s="12"/>
-    </row>
-    <row r="31" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ30" s="12"/>
+    </row>
+    <row r="31" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="12"/>
       <c r="H31" s="13">
         <v>28</v>
@@ -4755,46 +4859,49 @@
       <c r="J31" s="13">
         <v>7132300054</v>
       </c>
-      <c r="AG31" s="12"/>
-      <c r="AM31" s="13">
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="12"/>
+      <c r="AN31" s="13">
         <v>28</v>
       </c>
-      <c r="AN31" s="13">
+      <c r="AO31" s="13">
         <v>6</v>
       </c>
-      <c r="AO31" s="13">
+      <c r="AP31" s="13">
         <v>17</v>
       </c>
-      <c r="BB31" s="13">
+      <c r="BC31" s="13">
         <v>28</v>
       </c>
-      <c r="BC31" s="13">
+      <c r="BD31" s="13">
         <v>10</v>
       </c>
-      <c r="BD31" s="9">
+      <c r="BE31" s="9">
         <v>10</v>
       </c>
-      <c r="BE31" s="9" t="s">
+      <c r="BF31" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="BF31" s="26" t="s">
+      <c r="BG31" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="BG31" s="13">
+      <c r="BH31" s="13">
         <v>65</v>
       </c>
-      <c r="BH31" s="13">
+      <c r="BI31" s="13">
         <v>2012</v>
       </c>
-      <c r="BJ31" s="12"/>
       <c r="BK31" s="12"/>
-      <c r="BL31" s="14"/>
+      <c r="BL31" s="12"/>
       <c r="BM31" s="14"/>
-      <c r="BN31" s="31"/>
-      <c r="BO31" s="12"/>
+      <c r="BN31" s="14"/>
+      <c r="BO31" s="31"/>
       <c r="BP31" s="12"/>
-    </row>
-    <row r="32" spans="2:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ31" s="12"/>
+    </row>
+    <row r="32" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="12"/>
       <c r="H32" s="13">
         <v>29</v>
@@ -4805,37 +4912,40 @@
       <c r="J32" s="13">
         <v>7132300059</v>
       </c>
-      <c r="AG32" s="12"/>
-      <c r="BB32" s="13">
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="12"/>
+      <c r="BC32" s="13">
         <v>29</v>
       </c>
-      <c r="BC32" s="13">
+      <c r="BD32" s="13">
         <v>10</v>
       </c>
-      <c r="BD32" s="9">
+      <c r="BE32" s="9">
         <v>12</v>
       </c>
-      <c r="BE32" s="9" t="s">
+      <c r="BF32" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="BF32" s="26" t="s">
+      <c r="BG32" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="BG32" s="13">
+      <c r="BH32" s="13">
         <v>76</v>
       </c>
-      <c r="BH32" s="13">
+      <c r="BI32" s="13">
         <v>2014</v>
       </c>
-      <c r="BJ32" s="12"/>
       <c r="BK32" s="12"/>
-      <c r="BL32" s="14"/>
+      <c r="BL32" s="12"/>
       <c r="BM32" s="14"/>
-      <c r="BN32" s="31"/>
-      <c r="BO32" s="12"/>
+      <c r="BN32" s="14"/>
+      <c r="BO32" s="31"/>
       <c r="BP32" s="12"/>
-    </row>
-    <row r="33" spans="5:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ32" s="12"/>
+    </row>
+    <row r="33" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="12"/>
       <c r="H33" s="13">
         <v>30</v>
@@ -4846,37 +4956,40 @@
       <c r="J33" s="13">
         <v>7132300086</v>
       </c>
-      <c r="AG33" s="12"/>
-      <c r="BB33" s="13">
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="12"/>
+      <c r="BC33" s="13">
         <v>30</v>
       </c>
-      <c r="BC33" s="13">
+      <c r="BD33" s="13">
         <v>10</v>
       </c>
-      <c r="BD33" s="9" t="s">
+      <c r="BE33" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="BE33" s="9" t="s">
+      <c r="BF33" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="BF33" s="26" t="s">
+      <c r="BG33" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="BG33" s="13">
+      <c r="BH33" s="13">
         <v>61</v>
       </c>
-      <c r="BH33" s="13">
+      <c r="BI33" s="13">
         <v>2018</v>
       </c>
-      <c r="BJ33" s="12"/>
       <c r="BK33" s="12"/>
-      <c r="BL33" s="14"/>
+      <c r="BL33" s="12"/>
       <c r="BM33" s="14"/>
-      <c r="BN33" s="31"/>
-      <c r="BO33" s="12"/>
+      <c r="BN33" s="14"/>
+      <c r="BO33" s="31"/>
       <c r="BP33" s="12"/>
-    </row>
-    <row r="34" spans="5:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ33" s="12"/>
+    </row>
+    <row r="34" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="12"/>
       <c r="H34" s="13">
         <v>31</v>
@@ -4887,37 +5000,40 @@
       <c r="J34" s="13">
         <v>7132300082</v>
       </c>
-      <c r="AG34" s="12"/>
-      <c r="BB34" s="13">
+      <c r="K34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="12"/>
+      <c r="BC34" s="13">
         <v>31</v>
       </c>
-      <c r="BC34" s="13">
+      <c r="BD34" s="13">
         <v>11</v>
       </c>
-      <c r="BD34" s="9">
+      <c r="BE34" s="9">
         <v>10</v>
       </c>
-      <c r="BE34" s="9" t="s">
+      <c r="BF34" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="BF34" s="26" t="s">
+      <c r="BG34" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="BG34" s="13">
+      <c r="BH34" s="13">
         <v>62</v>
       </c>
-      <c r="BH34" s="13">
+      <c r="BI34" s="13">
         <v>2011</v>
       </c>
-      <c r="BJ34" s="12"/>
       <c r="BK34" s="12"/>
-      <c r="BL34" s="14"/>
+      <c r="BL34" s="12"/>
       <c r="BM34" s="14"/>
-      <c r="BN34" s="31"/>
-      <c r="BO34" s="12"/>
+      <c r="BN34" s="14"/>
+      <c r="BO34" s="31"/>
       <c r="BP34" s="12"/>
-    </row>
-    <row r="35" spans="5:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ34" s="12"/>
+    </row>
+    <row r="35" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="12"/>
       <c r="H35" s="13">
         <v>32</v>
@@ -4928,37 +5044,40 @@
       <c r="J35" s="13">
         <v>7132300042</v>
       </c>
-      <c r="AG35" s="12"/>
-      <c r="BB35" s="13">
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="12"/>
+      <c r="BC35" s="13">
         <v>32</v>
       </c>
-      <c r="BC35" s="13">
+      <c r="BD35" s="13">
         <v>11</v>
       </c>
-      <c r="BD35" s="9">
+      <c r="BE35" s="9">
         <v>12</v>
       </c>
-      <c r="BE35" s="9" t="s">
+      <c r="BF35" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="BF35" s="26" t="s">
+      <c r="BG35" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="BG35" s="13">
+      <c r="BH35" s="13">
         <v>63</v>
       </c>
-      <c r="BH35" s="13">
+      <c r="BI35" s="13">
         <v>2013</v>
       </c>
-      <c r="BJ35" s="12"/>
       <c r="BK35" s="12"/>
-      <c r="BL35" s="14"/>
+      <c r="BL35" s="12"/>
       <c r="BM35" s="14"/>
-      <c r="BN35" s="31"/>
-      <c r="BO35" s="12"/>
+      <c r="BN35" s="14"/>
+      <c r="BO35" s="31"/>
       <c r="BP35" s="12"/>
-    </row>
-    <row r="36" spans="5:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ35" s="12"/>
+    </row>
+    <row r="36" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="12"/>
       <c r="H36" s="13">
         <v>33</v>
@@ -4969,37 +5088,40 @@
       <c r="J36" s="13">
         <v>7132300055</v>
       </c>
-      <c r="AG36" s="12"/>
-      <c r="BB36" s="13">
+      <c r="K36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="12"/>
+      <c r="BC36" s="13">
         <v>33</v>
       </c>
-      <c r="BC36" s="13">
+      <c r="BD36" s="13">
         <v>11</v>
       </c>
-      <c r="BD36" s="9" t="s">
+      <c r="BE36" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="BE36" s="9" t="s">
+      <c r="BF36" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="BF36" s="26" t="s">
+      <c r="BG36" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="BG36" s="13">
+      <c r="BH36" s="13">
         <v>56</v>
       </c>
-      <c r="BH36" s="13">
+      <c r="BI36" s="13">
         <v>2017</v>
       </c>
-      <c r="BJ36" s="12"/>
       <c r="BK36" s="12"/>
-      <c r="BL36" s="14"/>
+      <c r="BL36" s="12"/>
       <c r="BM36" s="14"/>
-      <c r="BN36" s="31"/>
-      <c r="BO36" s="12"/>
+      <c r="BN36" s="14"/>
+      <c r="BO36" s="31"/>
       <c r="BP36" s="12"/>
-    </row>
-    <row r="37" spans="5:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ36" s="12"/>
+    </row>
+    <row r="37" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E37" s="12"/>
       <c r="H37" s="13">
         <v>34</v>
@@ -5010,37 +5132,40 @@
       <c r="J37" s="13">
         <v>7132376055</v>
       </c>
-      <c r="AG37" s="12"/>
-      <c r="BB37" s="13">
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="12"/>
+      <c r="BC37" s="13">
         <v>34</v>
       </c>
-      <c r="BC37" s="13">
+      <c r="BD37" s="13">
         <v>12</v>
       </c>
-      <c r="BD37" s="9">
+      <c r="BE37" s="9">
         <v>10</v>
       </c>
-      <c r="BE37" s="9" t="s">
+      <c r="BF37" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="BF37" s="26" t="s">
+      <c r="BG37" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="BG37" s="13">
+      <c r="BH37" s="13">
         <v>75</v>
       </c>
-      <c r="BH37" s="13">
+      <c r="BI37" s="13">
         <v>2010</v>
       </c>
-      <c r="BJ37" s="12"/>
       <c r="BK37" s="12"/>
-      <c r="BL37" s="14"/>
+      <c r="BL37" s="12"/>
       <c r="BM37" s="14"/>
-      <c r="BN37" s="31"/>
-      <c r="BO37" s="12"/>
+      <c r="BN37" s="14"/>
+      <c r="BO37" s="31"/>
       <c r="BP37" s="12"/>
-    </row>
-    <row r="38" spans="5:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ37" s="12"/>
+    </row>
+    <row r="38" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="12"/>
       <c r="H38" s="13">
         <v>35</v>
@@ -5051,37 +5176,40 @@
       <c r="J38" s="13">
         <v>7132307055</v>
       </c>
-      <c r="AG38" s="12"/>
-      <c r="BB38" s="13">
+      <c r="K38" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="12"/>
+      <c r="BC38" s="13">
         <v>35</v>
       </c>
-      <c r="BC38" s="13">
+      <c r="BD38" s="13">
         <v>12</v>
       </c>
-      <c r="BD38" s="9">
+      <c r="BE38" s="9">
         <v>12</v>
       </c>
-      <c r="BE38" s="9" t="s">
+      <c r="BF38" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="BF38" s="26" t="s">
+      <c r="BG38" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="BG38" s="13">
+      <c r="BH38" s="13">
         <v>45</v>
       </c>
-      <c r="BH38" s="13">
+      <c r="BI38" s="13">
         <v>2012</v>
       </c>
-      <c r="BJ38" s="12"/>
       <c r="BK38" s="12"/>
-      <c r="BL38" s="14"/>
+      <c r="BL38" s="12"/>
       <c r="BM38" s="14"/>
-      <c r="BN38" s="31"/>
-      <c r="BO38" s="12"/>
+      <c r="BN38" s="14"/>
+      <c r="BO38" s="31"/>
       <c r="BP38" s="12"/>
-    </row>
-    <row r="39" spans="5:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ38" s="12"/>
+    </row>
+    <row r="39" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" s="12"/>
       <c r="H39" s="13">
         <v>36</v>
@@ -5092,37 +5220,40 @@
       <c r="J39" s="13">
         <v>7134567123</v>
       </c>
-      <c r="AG39" s="12"/>
-      <c r="BB39" s="13">
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="12"/>
+      <c r="BC39" s="13">
         <v>36</v>
       </c>
-      <c r="BC39" s="13">
+      <c r="BD39" s="13">
         <v>12</v>
       </c>
-      <c r="BD39" s="9" t="s">
+      <c r="BE39" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="BE39" s="9" t="s">
+      <c r="BF39" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="BF39" s="26" t="s">
+      <c r="BG39" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BG39" s="13">
+      <c r="BH39" s="13">
         <v>50</v>
       </c>
-      <c r="BH39" s="13">
+      <c r="BI39" s="13">
         <v>2016</v>
       </c>
-      <c r="BJ39" s="12"/>
       <c r="BK39" s="12"/>
-      <c r="BL39" s="14"/>
+      <c r="BL39" s="12"/>
       <c r="BM39" s="14"/>
-      <c r="BN39" s="31"/>
-      <c r="BO39" s="12"/>
+      <c r="BN39" s="14"/>
+      <c r="BO39" s="31"/>
       <c r="BP39" s="12"/>
-    </row>
-    <row r="40" spans="5:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ39" s="12"/>
+    </row>
+    <row r="40" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" s="12"/>
       <c r="H40" s="13">
         <v>37</v>
@@ -5133,37 +5264,40 @@
       <c r="J40" s="13">
         <v>7156567123</v>
       </c>
-      <c r="AG40" s="12"/>
-      <c r="BB40" s="13">
+      <c r="K40" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="12"/>
+      <c r="BC40" s="13">
         <v>37</v>
       </c>
-      <c r="BC40" s="13">
+      <c r="BD40" s="13">
         <v>13</v>
       </c>
-      <c r="BD40" s="9">
+      <c r="BE40" s="9">
         <v>10</v>
       </c>
-      <c r="BE40" s="9" t="s">
+      <c r="BF40" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="BF40" s="26" t="s">
+      <c r="BG40" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BG40" s="13">
+      <c r="BH40" s="13">
         <v>67</v>
       </c>
-      <c r="BH40" s="13">
+      <c r="BI40" s="13">
         <v>2012</v>
       </c>
-      <c r="BJ40" s="12"/>
       <c r="BK40" s="12"/>
-      <c r="BL40" s="14"/>
+      <c r="BL40" s="12"/>
       <c r="BM40" s="14"/>
-      <c r="BN40" s="31"/>
-      <c r="BO40" s="12"/>
+      <c r="BN40" s="14"/>
+      <c r="BO40" s="31"/>
       <c r="BP40" s="12"/>
-    </row>
-    <row r="41" spans="5:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ40" s="12"/>
+    </row>
+    <row r="41" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H41" s="13">
         <v>38</v>
       </c>
@@ -5173,37 +5307,40 @@
       <c r="J41" s="13">
         <v>7156567134</v>
       </c>
-      <c r="AG41" s="12"/>
-      <c r="BB41" s="13">
+      <c r="K41" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="12"/>
+      <c r="BC41" s="13">
         <v>38</v>
       </c>
-      <c r="BC41" s="13">
+      <c r="BD41" s="13">
         <v>13</v>
       </c>
-      <c r="BD41" s="9">
+      <c r="BE41" s="9">
         <v>12</v>
       </c>
-      <c r="BE41" s="9" t="s">
+      <c r="BF41" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="BF41" s="26" t="s">
+      <c r="BG41" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="BG41" s="13">
+      <c r="BH41" s="13">
         <v>78</v>
       </c>
-      <c r="BH41" s="13">
+      <c r="BI41" s="13">
         <v>2014</v>
       </c>
-      <c r="BJ41" s="12"/>
       <c r="BK41" s="12"/>
-      <c r="BL41" s="14"/>
+      <c r="BL41" s="12"/>
       <c r="BM41" s="14"/>
-      <c r="BN41" s="31"/>
-      <c r="BO41" s="12"/>
+      <c r="BN41" s="14"/>
+      <c r="BO41" s="31"/>
       <c r="BP41" s="12"/>
-    </row>
-    <row r="42" spans="5:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ41" s="12"/>
+    </row>
+    <row r="42" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H42" s="13">
         <v>39</v>
       </c>
@@ -5213,37 +5350,40 @@
       <c r="J42" s="13">
         <v>7156563423</v>
       </c>
-      <c r="AG42" s="12"/>
-      <c r="BB42" s="13">
+      <c r="K42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="12"/>
+      <c r="BC42" s="13">
         <v>39</v>
       </c>
-      <c r="BC42" s="13">
+      <c r="BD42" s="13">
         <v>13</v>
       </c>
-      <c r="BD42" s="9" t="s">
+      <c r="BE42" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE42" s="9" t="s">
+      <c r="BF42" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="BF42" s="26" t="s">
+      <c r="BG42" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="BG42" s="13">
+      <c r="BH42" s="13">
         <v>68</v>
       </c>
-      <c r="BH42" s="13">
+      <c r="BI42" s="13">
         <v>2018</v>
       </c>
-      <c r="BJ42" s="12"/>
       <c r="BK42" s="12"/>
-      <c r="BL42" s="14"/>
+      <c r="BL42" s="12"/>
       <c r="BM42" s="14"/>
-      <c r="BN42" s="31"/>
-      <c r="BO42" s="12"/>
+      <c r="BN42" s="14"/>
+      <c r="BO42" s="31"/>
       <c r="BP42" s="12"/>
-    </row>
-    <row r="43" spans="5:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ42" s="12"/>
+    </row>
+    <row r="43" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H43" s="13">
         <v>40</v>
       </c>
@@ -5253,37 +5393,40 @@
       <c r="J43" s="13">
         <v>7156567183</v>
       </c>
-      <c r="AG43" s="12"/>
-      <c r="BB43" s="13">
+      <c r="K43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="12"/>
+      <c r="BC43" s="13">
         <v>40</v>
       </c>
-      <c r="BC43" s="13">
+      <c r="BD43" s="13">
         <v>14</v>
       </c>
-      <c r="BD43" s="9">
+      <c r="BE43" s="9">
         <v>10</v>
       </c>
-      <c r="BE43" s="9" t="s">
+      <c r="BF43" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="BF43" s="26" t="s">
+      <c r="BG43" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="BG43" s="13">
+      <c r="BH43" s="13">
         <v>67</v>
       </c>
-      <c r="BH43" s="13">
+      <c r="BI43" s="13">
         <v>2013</v>
       </c>
-      <c r="BJ43" s="12"/>
       <c r="BK43" s="12"/>
-      <c r="BL43" s="14"/>
+      <c r="BL43" s="12"/>
       <c r="BM43" s="14"/>
-      <c r="BN43" s="31"/>
-      <c r="BO43" s="12"/>
+      <c r="BN43" s="14"/>
+      <c r="BO43" s="31"/>
       <c r="BP43" s="12"/>
-    </row>
-    <row r="44" spans="5:68" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="BQ43" s="12"/>
+    </row>
+    <row r="44" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H44" s="13">
         <v>41</v>
       </c>
@@ -5293,1328 +5436,1363 @@
       <c r="J44" s="13">
         <v>7146566412</v>
       </c>
-      <c r="AG44" s="12"/>
-      <c r="BB44" s="13">
+      <c r="K44" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="12"/>
+      <c r="BC44" s="13">
         <v>41</v>
       </c>
-      <c r="BC44" s="13">
+      <c r="BD44" s="13">
         <v>14</v>
       </c>
-      <c r="BD44" s="9">
+      <c r="BE44" s="9">
         <v>12</v>
       </c>
-      <c r="BE44" s="9" t="s">
+      <c r="BF44" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="BF44" s="26" t="s">
+      <c r="BG44" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="BG44" s="13">
+      <c r="BH44" s="13">
         <v>87</v>
       </c>
-      <c r="BH44" s="13">
+      <c r="BI44" s="13">
         <v>2015</v>
       </c>
-      <c r="BJ44" s="12"/>
       <c r="BK44" s="12"/>
-      <c r="BL44" s="14"/>
+      <c r="BL44" s="12"/>
       <c r="BM44" s="14"/>
-      <c r="BN44" s="31"/>
-      <c r="BO44" s="12"/>
+      <c r="BN44" s="14"/>
+      <c r="BO44" s="31"/>
       <c r="BP44" s="12"/>
-    </row>
-    <row r="45" spans="5:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG45" s="12"/>
-      <c r="BB45" s="13">
+      <c r="BQ44" s="12"/>
+    </row>
+    <row r="45" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K45"/>
+      <c r="AH45" s="12"/>
+      <c r="BC45" s="13">
         <v>42</v>
       </c>
-      <c r="BC45" s="13">
+      <c r="BD45" s="13">
         <v>14</v>
       </c>
-      <c r="BD45" s="9" t="s">
+      <c r="BE45" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE45" s="9" t="s">
+      <c r="BF45" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="BF45" s="26" t="s">
+      <c r="BG45" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="BG45" s="13">
+      <c r="BH45" s="13">
         <v>57</v>
       </c>
-      <c r="BH45" s="13">
+      <c r="BI45" s="13">
         <v>2019</v>
       </c>
-      <c r="BJ45" s="12"/>
       <c r="BK45" s="12"/>
-      <c r="BL45" s="14"/>
+      <c r="BL45" s="12"/>
       <c r="BM45" s="14"/>
-      <c r="BN45" s="31"/>
-      <c r="BO45" s="12"/>
+      <c r="BN45" s="14"/>
+      <c r="BO45" s="31"/>
       <c r="BP45" s="12"/>
-    </row>
-    <row r="46" spans="5:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG46" s="12"/>
-      <c r="BB46" s="13">
+      <c r="BQ45" s="12"/>
+    </row>
+    <row r="46" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46"/>
+      <c r="AH46" s="12"/>
+      <c r="BC46" s="13">
         <v>43</v>
       </c>
-      <c r="BC46" s="13">
+      <c r="BD46" s="13">
         <v>15</v>
       </c>
-      <c r="BD46" s="9">
+      <c r="BE46" s="9">
         <v>10</v>
       </c>
-      <c r="BE46" s="9" t="s">
+      <c r="BF46" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="BF46" s="26" t="s">
+      <c r="BG46" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="BG46" s="13">
+      <c r="BH46" s="13">
         <v>96</v>
       </c>
-      <c r="BH46" s="13">
+      <c r="BI46" s="13">
         <v>2011</v>
       </c>
-      <c r="BJ46" s="12"/>
       <c r="BK46" s="12"/>
-      <c r="BL46" s="14"/>
+      <c r="BL46" s="12"/>
       <c r="BM46" s="14"/>
-      <c r="BN46" s="31"/>
-      <c r="BO46" s="12"/>
+      <c r="BN46" s="14"/>
+      <c r="BO46" s="31"/>
       <c r="BP46" s="12"/>
-    </row>
-    <row r="47" spans="5:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG47" s="12"/>
-      <c r="BB47" s="13">
+      <c r="BQ46" s="12"/>
+    </row>
+    <row r="47" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47"/>
+      <c r="AH47" s="12"/>
+      <c r="BC47" s="13">
         <v>44</v>
       </c>
-      <c r="BC47" s="13">
+      <c r="BD47" s="13">
         <v>15</v>
       </c>
-      <c r="BD47" s="9">
+      <c r="BE47" s="9">
         <v>12</v>
       </c>
-      <c r="BE47" s="9" t="s">
+      <c r="BF47" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="BF47" s="26" t="s">
+      <c r="BG47" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="BG47" s="13">
+      <c r="BH47" s="13">
         <v>56</v>
       </c>
-      <c r="BH47" s="13">
+      <c r="BI47" s="13">
         <v>2013</v>
       </c>
-      <c r="BJ47" s="12"/>
       <c r="BK47" s="12"/>
-      <c r="BL47" s="14"/>
+      <c r="BL47" s="12"/>
       <c r="BM47" s="14"/>
-      <c r="BN47" s="31"/>
-      <c r="BO47" s="12"/>
+      <c r="BN47" s="14"/>
+      <c r="BO47" s="31"/>
       <c r="BP47" s="12"/>
-    </row>
-    <row r="48" spans="5:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG48" s="12"/>
-      <c r="BB48" s="13">
+      <c r="BQ47" s="12"/>
+    </row>
+    <row r="48" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K48"/>
+      <c r="AH48" s="12"/>
+      <c r="BC48" s="13">
         <v>45</v>
       </c>
-      <c r="BC48" s="13">
+      <c r="BD48" s="13">
         <v>15</v>
       </c>
-      <c r="BD48" s="9" t="s">
+      <c r="BE48" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE48" s="9" t="s">
+      <c r="BF48" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BF48" s="26" t="s">
+      <c r="BG48" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="BG48" s="13">
+      <c r="BH48" s="13">
         <v>65</v>
       </c>
-      <c r="BH48" s="13">
+      <c r="BI48" s="13">
         <v>2017</v>
       </c>
-      <c r="BJ48" s="12"/>
       <c r="BK48" s="12"/>
-      <c r="BL48" s="14"/>
+      <c r="BL48" s="12"/>
       <c r="BM48" s="14"/>
-      <c r="BN48" s="31"/>
-      <c r="BO48" s="12"/>
+      <c r="BN48" s="14"/>
+      <c r="BO48" s="31"/>
       <c r="BP48" s="12"/>
-    </row>
-    <row r="49" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG49" s="12"/>
-      <c r="BB49" s="13">
+      <c r="BQ48" s="12"/>
+    </row>
+    <row r="49" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K49"/>
+      <c r="AH49" s="12"/>
+      <c r="BC49" s="13">
         <v>46</v>
       </c>
-      <c r="BC49" s="13">
+      <c r="BD49" s="13">
         <v>16</v>
       </c>
-      <c r="BD49" s="9">
+      <c r="BE49" s="9">
         <v>10</v>
       </c>
-      <c r="BE49" s="9" t="s">
+      <c r="BF49" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="BF49" s="26" t="s">
+      <c r="BG49" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="BG49" s="13">
+      <c r="BH49" s="13">
         <v>76</v>
       </c>
-      <c r="BH49" s="13">
+      <c r="BI49" s="13">
         <v>2012</v>
       </c>
-      <c r="BJ49" s="12"/>
       <c r="BK49" s="12"/>
-      <c r="BL49" s="14"/>
+      <c r="BL49" s="12"/>
       <c r="BM49" s="14"/>
-      <c r="BN49" s="31"/>
-      <c r="BO49" s="12"/>
+      <c r="BN49" s="14"/>
+      <c r="BO49" s="31"/>
       <c r="BP49" s="12"/>
-    </row>
-    <row r="50" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG50" s="12"/>
-      <c r="BB50" s="13">
+      <c r="BQ49" s="12"/>
+    </row>
+    <row r="50" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K50"/>
+      <c r="AH50" s="12"/>
+      <c r="BC50" s="13">
         <v>47</v>
       </c>
-      <c r="BC50" s="13">
+      <c r="BD50" s="13">
         <v>16</v>
       </c>
-      <c r="BD50" s="9">
+      <c r="BE50" s="9">
         <v>12</v>
       </c>
-      <c r="BE50" s="9" t="s">
+      <c r="BF50" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="BF50" s="26" t="s">
+      <c r="BG50" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="BG50" s="13">
+      <c r="BH50" s="13">
         <v>56</v>
       </c>
-      <c r="BH50" s="13">
+      <c r="BI50" s="13">
         <v>2014</v>
       </c>
-      <c r="BJ50" s="12"/>
       <c r="BK50" s="12"/>
-      <c r="BL50" s="14"/>
+      <c r="BL50" s="12"/>
       <c r="BM50" s="14"/>
-      <c r="BN50" s="31"/>
-      <c r="BO50" s="12"/>
+      <c r="BN50" s="14"/>
+      <c r="BO50" s="31"/>
       <c r="BP50" s="12"/>
-    </row>
-    <row r="51" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG51" s="12"/>
-      <c r="BB51" s="13">
+      <c r="BQ50" s="12"/>
+    </row>
+    <row r="51" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K51"/>
+      <c r="AH51" s="12"/>
+      <c r="BC51" s="13">
         <v>48</v>
       </c>
-      <c r="BC51" s="13">
+      <c r="BD51" s="13">
         <v>16</v>
       </c>
-      <c r="BD51" s="9" t="s">
+      <c r="BE51" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE51" s="9" t="s">
+      <c r="BF51" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="BF51" s="26" t="s">
+      <c r="BG51" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="BG51" s="13">
+      <c r="BH51" s="13">
         <v>76</v>
       </c>
-      <c r="BH51" s="13">
+      <c r="BI51" s="13">
         <v>2018</v>
       </c>
-      <c r="BJ51" s="12"/>
       <c r="BK51" s="12"/>
-      <c r="BL51" s="14"/>
+      <c r="BL51" s="12"/>
       <c r="BM51" s="14"/>
-      <c r="BN51" s="31"/>
-      <c r="BO51" s="12"/>
+      <c r="BN51" s="14"/>
+      <c r="BO51" s="31"/>
       <c r="BP51" s="12"/>
-    </row>
-    <row r="52" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG52" s="12"/>
-      <c r="BB52" s="13">
+      <c r="BQ51" s="12"/>
+    </row>
+    <row r="52" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52"/>
+      <c r="AH52" s="12"/>
+      <c r="BC52" s="13">
         <v>49</v>
       </c>
-      <c r="BC52" s="13">
+      <c r="BD52" s="13">
         <v>17</v>
       </c>
-      <c r="BD52" s="9">
+      <c r="BE52" s="9">
         <v>10</v>
       </c>
-      <c r="BE52" s="9" t="s">
+      <c r="BF52" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BF52" s="26" t="s">
+      <c r="BG52" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="BG52" s="13">
+      <c r="BH52" s="13">
         <v>88</v>
       </c>
-      <c r="BH52" s="13">
+      <c r="BI52" s="13">
         <v>2013</v>
       </c>
-      <c r="BJ52" s="12"/>
       <c r="BK52" s="12"/>
-      <c r="BL52" s="14"/>
+      <c r="BL52" s="12"/>
       <c r="BM52" s="14"/>
-      <c r="BN52" s="31"/>
-      <c r="BO52" s="12"/>
+      <c r="BN52" s="14"/>
+      <c r="BO52" s="31"/>
       <c r="BP52" s="12"/>
-    </row>
-    <row r="53" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG53" s="12"/>
-      <c r="BB53" s="13">
+      <c r="BQ52" s="12"/>
+    </row>
+    <row r="53" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K53"/>
+      <c r="AH53" s="12"/>
+      <c r="BC53" s="13">
         <v>50</v>
       </c>
-      <c r="BC53" s="13">
+      <c r="BD53" s="13">
         <v>17</v>
       </c>
-      <c r="BD53" s="9">
+      <c r="BE53" s="9">
         <v>12</v>
       </c>
-      <c r="BE53" s="9" t="s">
+      <c r="BF53" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="BF53" s="26" t="s">
+      <c r="BG53" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="BG53" s="13">
+      <c r="BH53" s="13">
         <v>76</v>
       </c>
-      <c r="BH53" s="13">
+      <c r="BI53" s="13">
         <v>2015</v>
       </c>
-      <c r="BJ53" s="12"/>
       <c r="BK53" s="12"/>
-      <c r="BL53" s="14"/>
+      <c r="BL53" s="12"/>
       <c r="BM53" s="14"/>
-      <c r="BN53" s="31"/>
-      <c r="BO53" s="12"/>
+      <c r="BN53" s="14"/>
+      <c r="BO53" s="31"/>
       <c r="BP53" s="12"/>
-    </row>
-    <row r="54" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG54" s="12"/>
-      <c r="BB54" s="13">
+      <c r="BQ53" s="12"/>
+    </row>
+    <row r="54" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K54"/>
+      <c r="AH54" s="12"/>
+      <c r="BC54" s="13">
         <v>51</v>
       </c>
-      <c r="BC54" s="13">
+      <c r="BD54" s="13">
         <v>17</v>
       </c>
-      <c r="BD54" s="9" t="s">
+      <c r="BE54" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE54" s="9" t="s">
+      <c r="BF54" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="BF54" s="26" t="s">
+      <c r="BG54" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="BG54" s="13">
+      <c r="BH54" s="13">
         <v>68</v>
       </c>
-      <c r="BH54" s="13">
+      <c r="BI54" s="13">
         <v>2019</v>
       </c>
-      <c r="BJ54" s="12"/>
       <c r="BK54" s="12"/>
-      <c r="BL54" s="14"/>
+      <c r="BL54" s="12"/>
       <c r="BM54" s="14"/>
-      <c r="BN54" s="31"/>
-      <c r="BO54" s="12"/>
+      <c r="BN54" s="14"/>
+      <c r="BO54" s="31"/>
       <c r="BP54" s="12"/>
-    </row>
-    <row r="55" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG55" s="12"/>
-      <c r="BB55" s="13">
+      <c r="BQ54" s="12"/>
+    </row>
+    <row r="55" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K55"/>
+      <c r="AH55" s="12"/>
+      <c r="BC55" s="13">
         <v>52</v>
       </c>
-      <c r="BC55" s="13">
+      <c r="BD55" s="13">
         <v>18</v>
       </c>
-      <c r="BD55" s="9">
+      <c r="BE55" s="9">
         <v>10</v>
       </c>
-      <c r="BE55" s="9" t="s">
+      <c r="BF55" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="BF55" s="26" t="s">
+      <c r="BG55" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="BG55" s="13">
+      <c r="BH55" s="13">
         <v>86</v>
       </c>
-      <c r="BH55" s="13">
+      <c r="BI55" s="13">
         <v>2011</v>
       </c>
-      <c r="BJ55" s="12"/>
       <c r="BK55" s="12"/>
-      <c r="BL55" s="14"/>
+      <c r="BL55" s="12"/>
       <c r="BM55" s="14"/>
-      <c r="BN55" s="31"/>
-      <c r="BO55" s="12"/>
+      <c r="BN55" s="14"/>
+      <c r="BO55" s="31"/>
       <c r="BP55" s="12"/>
-    </row>
-    <row r="56" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG56" s="12"/>
-      <c r="BB56" s="13">
+      <c r="BQ55" s="12"/>
+    </row>
+    <row r="56" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K56"/>
+      <c r="AH56" s="12"/>
+      <c r="BC56" s="13">
         <v>53</v>
       </c>
-      <c r="BC56" s="13">
+      <c r="BD56" s="13">
         <v>18</v>
       </c>
-      <c r="BD56" s="9">
+      <c r="BE56" s="9">
         <v>12</v>
       </c>
-      <c r="BE56" s="9" t="s">
+      <c r="BF56" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="BF56" s="26" t="s">
+      <c r="BG56" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BG56" s="13">
+      <c r="BH56" s="13">
         <v>57</v>
       </c>
-      <c r="BH56" s="13">
+      <c r="BI56" s="13">
         <v>2013</v>
       </c>
-      <c r="BJ56" s="12"/>
       <c r="BK56" s="12"/>
-      <c r="BL56" s="14"/>
+      <c r="BL56" s="12"/>
       <c r="BM56" s="14"/>
-      <c r="BN56" s="31"/>
-      <c r="BO56" s="12"/>
+      <c r="BN56" s="14"/>
+      <c r="BO56" s="31"/>
       <c r="BP56" s="12"/>
-    </row>
-    <row r="57" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG57" s="12"/>
-      <c r="BB57" s="13">
+      <c r="BQ56" s="12"/>
+    </row>
+    <row r="57" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K57"/>
+      <c r="AH57" s="12"/>
+      <c r="BC57" s="13">
         <v>54</v>
       </c>
-      <c r="BC57" s="13">
+      <c r="BD57" s="13">
         <v>18</v>
       </c>
-      <c r="BD57" s="9" t="s">
+      <c r="BE57" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE57" s="9" t="s">
+      <c r="BF57" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="BF57" s="26" t="s">
+      <c r="BG57" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BG57" s="13">
+      <c r="BH57" s="13">
         <v>75</v>
       </c>
-      <c r="BH57" s="13">
+      <c r="BI57" s="13">
         <v>2017</v>
       </c>
-      <c r="BJ57" s="12"/>
       <c r="BK57" s="12"/>
-      <c r="BL57" s="14"/>
+      <c r="BL57" s="12"/>
       <c r="BM57" s="14"/>
-      <c r="BN57" s="31"/>
-      <c r="BO57" s="12"/>
+      <c r="BN57" s="14"/>
+      <c r="BO57" s="31"/>
       <c r="BP57" s="12"/>
-    </row>
-    <row r="58" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG58" s="12"/>
-      <c r="BB58" s="13">
+      <c r="BQ57" s="12"/>
+    </row>
+    <row r="58" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K58"/>
+      <c r="AH58" s="12"/>
+      <c r="BC58" s="13">
         <v>55</v>
       </c>
-      <c r="BC58" s="13">
+      <c r="BD58" s="13">
         <v>19</v>
       </c>
-      <c r="BD58" s="9">
+      <c r="BE58" s="9">
         <v>10</v>
       </c>
-      <c r="BE58" s="9" t="s">
+      <c r="BF58" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BF58" s="26" t="s">
+      <c r="BG58" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="BG58" s="13">
+      <c r="BH58" s="13">
         <v>69</v>
       </c>
-      <c r="BH58" s="13">
+      <c r="BI58" s="13">
         <v>2013</v>
       </c>
-      <c r="BJ58" s="12"/>
       <c r="BK58" s="12"/>
-      <c r="BL58" s="14"/>
+      <c r="BL58" s="12"/>
       <c r="BM58" s="14"/>
-      <c r="BN58" s="31"/>
-      <c r="BO58" s="12"/>
+      <c r="BN58" s="14"/>
+      <c r="BO58" s="31"/>
       <c r="BP58" s="12"/>
-    </row>
-    <row r="59" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG59" s="12"/>
-      <c r="BB59" s="13">
+      <c r="BQ58" s="12"/>
+    </row>
+    <row r="59" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K59"/>
+      <c r="AH59" s="12"/>
+      <c r="BC59" s="13">
         <v>56</v>
       </c>
-      <c r="BC59" s="13">
+      <c r="BD59" s="13">
         <v>19</v>
       </c>
-      <c r="BD59" s="9">
+      <c r="BE59" s="9">
         <v>12</v>
       </c>
-      <c r="BE59" s="9" t="s">
+      <c r="BF59" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="BF59" s="26" t="s">
+      <c r="BG59" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="BG59" s="13">
+      <c r="BH59" s="13">
         <v>60</v>
       </c>
-      <c r="BH59" s="13">
+      <c r="BI59" s="13">
         <v>2015</v>
       </c>
-      <c r="BJ59" s="12"/>
       <c r="BK59" s="12"/>
-      <c r="BL59" s="14"/>
+      <c r="BL59" s="12"/>
       <c r="BM59" s="14"/>
-      <c r="BN59" s="31"/>
-      <c r="BO59" s="12"/>
+      <c r="BN59" s="14"/>
+      <c r="BO59" s="31"/>
       <c r="BP59" s="12"/>
-    </row>
-    <row r="60" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG60" s="12"/>
-      <c r="BB60" s="13">
+      <c r="BQ59" s="12"/>
+    </row>
+    <row r="60" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K60"/>
+      <c r="AH60" s="12"/>
+      <c r="BC60" s="13">
         <v>57</v>
       </c>
-      <c r="BC60" s="13">
+      <c r="BD60" s="13">
         <v>19</v>
       </c>
-      <c r="BD60" s="9" t="s">
+      <c r="BE60" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE60" s="9" t="s">
+      <c r="BF60" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="BF60" s="26" t="s">
+      <c r="BG60" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="BG60" s="13">
+      <c r="BH60" s="13">
         <v>61</v>
       </c>
-      <c r="BH60" s="13">
+      <c r="BI60" s="13">
         <v>2019</v>
       </c>
-      <c r="BJ60" s="12"/>
       <c r="BK60" s="12"/>
-      <c r="BL60" s="14"/>
+      <c r="BL60" s="12"/>
       <c r="BM60" s="14"/>
-      <c r="BN60" s="31"/>
-      <c r="BO60" s="12"/>
+      <c r="BN60" s="14"/>
+      <c r="BO60" s="31"/>
       <c r="BP60" s="12"/>
-    </row>
-    <row r="61" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG61" s="12"/>
-      <c r="BB61" s="13">
+      <c r="BQ60" s="12"/>
+    </row>
+    <row r="61" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K61"/>
+      <c r="AH61" s="12"/>
+      <c r="BC61" s="13">
         <v>58</v>
       </c>
-      <c r="BC61" s="13">
+      <c r="BD61" s="13">
         <v>20</v>
       </c>
-      <c r="BD61" s="9">
+      <c r="BE61" s="9">
         <v>10</v>
       </c>
-      <c r="BE61" s="9" t="s">
+      <c r="BF61" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="BF61" s="26" t="s">
+      <c r="BG61" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="BG61" s="13">
+      <c r="BH61" s="13">
         <v>72</v>
       </c>
-      <c r="BH61" s="13">
+      <c r="BI61" s="13">
         <v>2013</v>
       </c>
-      <c r="BJ61" s="12"/>
       <c r="BK61" s="12"/>
-      <c r="BL61" s="14"/>
+      <c r="BL61" s="12"/>
       <c r="BM61" s="14"/>
-      <c r="BN61" s="31"/>
-      <c r="BO61" s="12"/>
+      <c r="BN61" s="14"/>
+      <c r="BO61" s="31"/>
       <c r="BP61" s="12"/>
-    </row>
-    <row r="62" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG62" s="12"/>
-      <c r="BB62" s="13">
+      <c r="BQ61" s="12"/>
+    </row>
+    <row r="62" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K62"/>
+      <c r="AH62" s="12"/>
+      <c r="BC62" s="13">
         <v>59</v>
       </c>
-      <c r="BC62" s="13">
+      <c r="BD62" s="13">
         <v>20</v>
       </c>
-      <c r="BD62" s="9">
+      <c r="BE62" s="9">
         <v>12</v>
       </c>
-      <c r="BE62" s="9" t="s">
+      <c r="BF62" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="BF62" s="26" t="s">
+      <c r="BG62" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="BG62" s="13">
+      <c r="BH62" s="13">
         <v>83</v>
       </c>
-      <c r="BH62" s="13">
+      <c r="BI62" s="13">
         <v>2015</v>
       </c>
-      <c r="BJ62" s="12"/>
       <c r="BK62" s="12"/>
-      <c r="BL62" s="14"/>
+      <c r="BL62" s="12"/>
       <c r="BM62" s="14"/>
-      <c r="BN62" s="31"/>
-      <c r="BO62" s="12"/>
+      <c r="BN62" s="14"/>
+      <c r="BO62" s="31"/>
       <c r="BP62" s="12"/>
-    </row>
-    <row r="63" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG63" s="12"/>
-      <c r="BB63" s="13">
+      <c r="BQ62" s="12"/>
+    </row>
+    <row r="63" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K63"/>
+      <c r="AH63" s="12"/>
+      <c r="BC63" s="13">
         <v>60</v>
       </c>
-      <c r="BC63" s="13">
+      <c r="BD63" s="13">
         <v>20</v>
       </c>
-      <c r="BD63" s="9" t="s">
+      <c r="BE63" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE63" s="9" t="s">
+      <c r="BF63" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="BF63" s="26" t="s">
+      <c r="BG63" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="BG63" s="13">
+      <c r="BH63" s="13">
         <v>72</v>
       </c>
-      <c r="BH63" s="13">
+      <c r="BI63" s="13">
         <v>2019</v>
       </c>
-      <c r="BJ63" s="12"/>
       <c r="BK63" s="12"/>
-      <c r="BL63" s="14"/>
+      <c r="BL63" s="12"/>
       <c r="BM63" s="14"/>
-      <c r="BN63" s="31"/>
-      <c r="BO63" s="12"/>
+      <c r="BN63" s="14"/>
+      <c r="BO63" s="31"/>
       <c r="BP63" s="12"/>
-    </row>
-    <row r="64" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG64" s="12"/>
-      <c r="BB64" s="13">
+      <c r="BQ63" s="12"/>
+    </row>
+    <row r="64" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K64"/>
+      <c r="AH64" s="12"/>
+      <c r="BC64" s="13">
         <v>61</v>
       </c>
-      <c r="BC64" s="13">
+      <c r="BD64" s="13">
         <v>21</v>
       </c>
-      <c r="BD64" s="9">
+      <c r="BE64" s="9">
         <v>10</v>
       </c>
-      <c r="BE64" s="9" t="s">
+      <c r="BF64" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BF64" s="26" t="s">
+      <c r="BG64" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="BG64" s="13">
+      <c r="BH64" s="13">
         <v>67</v>
       </c>
-      <c r="BH64" s="13">
+      <c r="BI64" s="13">
         <v>2012</v>
       </c>
-      <c r="BJ64" s="12"/>
       <c r="BK64" s="12"/>
-      <c r="BL64" s="14"/>
-      <c r="BM64" s="17"/>
-      <c r="BN64" s="18"/>
-      <c r="BP64" s="12"/>
-    </row>
-    <row r="65" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG65" s="12"/>
-      <c r="BB65" s="13">
+      <c r="BL64" s="12"/>
+      <c r="BM64" s="14"/>
+      <c r="BN64" s="17"/>
+      <c r="BO64" s="18"/>
+      <c r="BQ64" s="12"/>
+    </row>
+    <row r="65" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K65"/>
+      <c r="AH65" s="12"/>
+      <c r="BC65" s="13">
         <v>62</v>
       </c>
-      <c r="BC65" s="13">
+      <c r="BD65" s="13">
         <v>21</v>
       </c>
-      <c r="BD65" s="9">
+      <c r="BE65" s="9">
         <v>12</v>
       </c>
-      <c r="BE65" s="9" t="s">
+      <c r="BF65" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BF65" s="26" t="s">
+      <c r="BG65" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BG65" s="13">
+      <c r="BH65" s="13">
         <v>74</v>
       </c>
-      <c r="BH65" s="13">
+      <c r="BI65" s="13">
         <v>2014</v>
       </c>
-      <c r="BJ65" s="12"/>
       <c r="BK65" s="12"/>
-      <c r="BL65" s="14"/>
-      <c r="BM65" s="17"/>
-      <c r="BN65" s="18"/>
-      <c r="BP65" s="12"/>
-    </row>
-    <row r="66" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG66" s="12"/>
-      <c r="BB66" s="13">
+      <c r="BL65" s="12"/>
+      <c r="BM65" s="14"/>
+      <c r="BN65" s="17"/>
+      <c r="BO65" s="18"/>
+      <c r="BQ65" s="12"/>
+    </row>
+    <row r="66" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K66"/>
+      <c r="AH66" s="12"/>
+      <c r="BC66" s="13">
         <v>63</v>
       </c>
-      <c r="BC66" s="13">
+      <c r="BD66" s="13">
         <v>21</v>
       </c>
-      <c r="BD66" s="9" t="s">
+      <c r="BE66" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE66" s="9" t="s">
+      <c r="BF66" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BF66" s="26" t="s">
+      <c r="BG66" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BG66" s="13">
+      <c r="BH66" s="13">
         <v>68</v>
       </c>
-      <c r="BH66" s="13">
+      <c r="BI66" s="13">
         <v>2018</v>
       </c>
-      <c r="BJ66" s="12"/>
       <c r="BK66" s="12"/>
-      <c r="BL66" s="14"/>
-      <c r="BM66" s="17"/>
-      <c r="BN66" s="18"/>
-      <c r="BP66" s="12"/>
-    </row>
-    <row r="67" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG67" s="12"/>
-      <c r="BB67" s="13">
+      <c r="BL66" s="12"/>
+      <c r="BM66" s="14"/>
+      <c r="BN66" s="17"/>
+      <c r="BO66" s="18"/>
+      <c r="BQ66" s="12"/>
+    </row>
+    <row r="67" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K67"/>
+      <c r="AH67" s="12"/>
+      <c r="BC67" s="13">
         <v>64</v>
       </c>
-      <c r="BC67" s="13">
+      <c r="BD67" s="13">
         <v>22</v>
       </c>
-      <c r="BD67" s="9">
+      <c r="BE67" s="9">
         <v>10</v>
       </c>
-      <c r="BE67" s="9" t="s">
+      <c r="BF67" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BF67" s="26" t="s">
+      <c r="BG67" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="BG67" s="13">
+      <c r="BH67" s="13">
         <v>67</v>
       </c>
-      <c r="BH67" s="13">
+      <c r="BI67" s="13">
         <v>2012</v>
       </c>
-      <c r="BJ67" s="12"/>
       <c r="BK67" s="12"/>
-      <c r="BL67" s="14"/>
-      <c r="BM67" s="17"/>
-      <c r="BN67" s="18"/>
-      <c r="BP67" s="12"/>
-    </row>
-    <row r="68" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG68" s="12"/>
-      <c r="BB68" s="13">
+      <c r="BL67" s="12"/>
+      <c r="BM67" s="14"/>
+      <c r="BN67" s="17"/>
+      <c r="BO67" s="18"/>
+      <c r="BQ67" s="12"/>
+    </row>
+    <row r="68" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K68"/>
+      <c r="AH68" s="12"/>
+      <c r="BC68" s="13">
         <v>65</v>
       </c>
-      <c r="BC68" s="13">
+      <c r="BD68" s="13">
         <v>22</v>
       </c>
-      <c r="BD68" s="9">
+      <c r="BE68" s="9">
         <v>12</v>
       </c>
-      <c r="BE68" s="9" t="s">
+      <c r="BF68" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BF68" s="26" t="s">
+      <c r="BG68" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BG68" s="13">
+      <c r="BH68" s="13">
         <v>74</v>
       </c>
-      <c r="BH68" s="13">
+      <c r="BI68" s="13">
         <v>2014</v>
       </c>
-      <c r="BJ68" s="12"/>
       <c r="BK68" s="12"/>
-      <c r="BL68" s="14"/>
-      <c r="BM68" s="17"/>
-      <c r="BN68" s="18"/>
-      <c r="BP68" s="12"/>
-    </row>
-    <row r="69" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG69" s="12"/>
-      <c r="BB69" s="13">
+      <c r="BL68" s="12"/>
+      <c r="BM68" s="14"/>
+      <c r="BN68" s="17"/>
+      <c r="BO68" s="18"/>
+      <c r="BQ68" s="12"/>
+    </row>
+    <row r="69" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K69"/>
+      <c r="AH69" s="12"/>
+      <c r="BC69" s="13">
         <v>66</v>
       </c>
-      <c r="BC69" s="13">
+      <c r="BD69" s="13">
         <v>22</v>
       </c>
-      <c r="BD69" s="9" t="s">
+      <c r="BE69" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE69" s="9" t="s">
+      <c r="BF69" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BF69" s="26" t="s">
+      <c r="BG69" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BG69" s="13">
+      <c r="BH69" s="13">
         <v>68</v>
       </c>
-      <c r="BH69" s="13">
+      <c r="BI69" s="13">
         <v>2018</v>
       </c>
-      <c r="BJ69" s="12"/>
       <c r="BK69" s="12"/>
-      <c r="BL69" s="14"/>
-      <c r="BM69" s="17"/>
-      <c r="BN69" s="18"/>
-      <c r="BP69" s="12"/>
-    </row>
-    <row r="70" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG70" s="12"/>
-      <c r="BB70" s="13">
+      <c r="BL69" s="12"/>
+      <c r="BM69" s="14"/>
+      <c r="BN69" s="17"/>
+      <c r="BO69" s="18"/>
+      <c r="BQ69" s="12"/>
+    </row>
+    <row r="70" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K70"/>
+      <c r="AH70" s="12"/>
+      <c r="BC70" s="13">
         <v>67</v>
       </c>
-      <c r="BC70" s="13">
+      <c r="BD70" s="13">
         <v>23</v>
       </c>
-      <c r="BD70" s="9">
+      <c r="BE70" s="9">
         <v>10</v>
       </c>
-      <c r="BE70" s="9" t="s">
+      <c r="BF70" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BF70" s="26" t="s">
+      <c r="BG70" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="BG70" s="13">
+      <c r="BH70" s="13">
         <v>67</v>
       </c>
-      <c r="BH70" s="13">
+      <c r="BI70" s="13">
         <v>2012</v>
       </c>
-      <c r="BJ70" s="12"/>
       <c r="BK70" s="12"/>
-      <c r="BL70" s="14"/>
-      <c r="BM70" s="17"/>
-      <c r="BN70" s="18"/>
-      <c r="BP70" s="12"/>
-    </row>
-    <row r="71" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG71" s="12"/>
-      <c r="BB71" s="13">
+      <c r="BL70" s="12"/>
+      <c r="BM70" s="14"/>
+      <c r="BN70" s="17"/>
+      <c r="BO70" s="18"/>
+      <c r="BQ70" s="12"/>
+    </row>
+    <row r="71" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K71"/>
+      <c r="AH71" s="12"/>
+      <c r="BC71" s="13">
         <v>68</v>
       </c>
-      <c r="BC71" s="13">
+      <c r="BD71" s="13">
         <v>23</v>
       </c>
-      <c r="BD71" s="9">
+      <c r="BE71" s="9">
         <v>12</v>
       </c>
-      <c r="BE71" s="9" t="s">
+      <c r="BF71" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BF71" s="26" t="s">
+      <c r="BG71" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BG71" s="13">
+      <c r="BH71" s="13">
         <v>74</v>
       </c>
-      <c r="BH71" s="13">
+      <c r="BI71" s="13">
         <v>2014</v>
       </c>
-      <c r="BJ71" s="12"/>
       <c r="BK71" s="12"/>
-      <c r="BL71" s="14"/>
-      <c r="BM71" s="17"/>
-      <c r="BN71" s="18"/>
-      <c r="BP71" s="12"/>
-    </row>
-    <row r="72" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG72" s="12"/>
-      <c r="BB72" s="13">
+      <c r="BL71" s="12"/>
+      <c r="BM71" s="14"/>
+      <c r="BN71" s="17"/>
+      <c r="BO71" s="18"/>
+      <c r="BQ71" s="12"/>
+    </row>
+    <row r="72" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K72"/>
+      <c r="AH72" s="12"/>
+      <c r="BC72" s="13">
         <v>69</v>
       </c>
-      <c r="BC72" s="13">
+      <c r="BD72" s="13">
         <v>23</v>
       </c>
-      <c r="BD72" s="9" t="s">
+      <c r="BE72" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE72" s="9" t="s">
+      <c r="BF72" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="BF72" s="26" t="s">
+      <c r="BG72" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BG72" s="13">
+      <c r="BH72" s="13">
         <v>68</v>
       </c>
-      <c r="BH72" s="13">
+      <c r="BI72" s="13">
         <v>2018</v>
       </c>
-      <c r="BJ72" s="12"/>
       <c r="BK72" s="12"/>
-      <c r="BL72" s="14"/>
-      <c r="BM72" s="17"/>
-      <c r="BN72" s="18"/>
-      <c r="BP72" s="12"/>
-    </row>
-    <row r="73" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG73" s="12"/>
-      <c r="BB73" s="13">
+      <c r="BL72" s="12"/>
+      <c r="BM72" s="14"/>
+      <c r="BN72" s="17"/>
+      <c r="BO72" s="18"/>
+      <c r="BQ72" s="12"/>
+    </row>
+    <row r="73" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K73"/>
+      <c r="AH73" s="12"/>
+      <c r="BC73" s="13">
         <v>70</v>
       </c>
-      <c r="BC73" s="13">
+      <c r="BD73" s="13">
         <v>24</v>
       </c>
-      <c r="BD73" s="9">
+      <c r="BE73" s="9">
         <v>10</v>
       </c>
-      <c r="BE73" s="9" t="s">
+      <c r="BF73" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="BF73" s="26" t="s">
+      <c r="BG73" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="BG73" s="13">
+      <c r="BH73" s="13">
         <v>87</v>
       </c>
-      <c r="BH73" s="13">
+      <c r="BI73" s="13">
         <v>2011</v>
       </c>
-      <c r="BJ73" s="12"/>
       <c r="BK73" s="12"/>
-      <c r="BL73" s="14"/>
-      <c r="BM73" s="17"/>
-      <c r="BN73" s="18"/>
-      <c r="BP73" s="12"/>
-    </row>
-    <row r="74" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG74" s="12"/>
-      <c r="BB74" s="13">
+      <c r="BL73" s="12"/>
+      <c r="BM73" s="14"/>
+      <c r="BN73" s="17"/>
+      <c r="BO73" s="18"/>
+      <c r="BQ73" s="12"/>
+    </row>
+    <row r="74" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K74"/>
+      <c r="AH74" s="12"/>
+      <c r="BC74" s="13">
         <v>71</v>
       </c>
-      <c r="BC74" s="13">
+      <c r="BD74" s="13">
         <v>24</v>
       </c>
-      <c r="BD74" s="9">
+      <c r="BE74" s="9">
         <v>12</v>
       </c>
-      <c r="BE74" s="9" t="s">
+      <c r="BF74" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="BF74" s="26" t="s">
+      <c r="BG74" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="BG74" s="13">
+      <c r="BH74" s="13">
         <v>78</v>
       </c>
-      <c r="BH74" s="13">
+      <c r="BI74" s="13">
         <v>2013</v>
       </c>
-      <c r="BJ74" s="12"/>
       <c r="BK74" s="12"/>
-      <c r="BL74" s="14"/>
-      <c r="BM74" s="17"/>
-      <c r="BN74" s="18"/>
-      <c r="BP74" s="12"/>
-    </row>
-    <row r="75" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG75" s="12"/>
-      <c r="BB75" s="13">
+      <c r="BL74" s="12"/>
+      <c r="BM74" s="14"/>
+      <c r="BN74" s="17"/>
+      <c r="BO74" s="18"/>
+      <c r="BQ74" s="12"/>
+    </row>
+    <row r="75" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K75"/>
+      <c r="AH75" s="12"/>
+      <c r="BC75" s="13">
         <v>72</v>
       </c>
-      <c r="BC75" s="13">
+      <c r="BD75" s="13">
         <v>24</v>
       </c>
-      <c r="BD75" s="9" t="s">
+      <c r="BE75" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE75" s="9" t="s">
+      <c r="BF75" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="BF75" s="26" t="s">
+      <c r="BG75" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BG75" s="13">
+      <c r="BH75" s="13">
         <v>97</v>
       </c>
-      <c r="BH75" s="13">
+      <c r="BI75" s="13">
         <v>2017</v>
       </c>
-      <c r="BJ75" s="12"/>
       <c r="BK75" s="12"/>
-      <c r="BL75" s="14"/>
-      <c r="BM75" s="17"/>
-      <c r="BN75" s="18"/>
-      <c r="BP75" s="12"/>
-    </row>
-    <row r="76" spans="33:68" s="21" customFormat="1" ht="30" customHeight="1">
-      <c r="AG76" s="12"/>
-      <c r="BB76" s="13">
+      <c r="BL75" s="12"/>
+      <c r="BM75" s="14"/>
+      <c r="BN75" s="17"/>
+      <c r="BO75" s="18"/>
+      <c r="BQ75" s="12"/>
+    </row>
+    <row r="76" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K76"/>
+      <c r="AH76" s="12"/>
+      <c r="BC76" s="13">
         <v>73</v>
       </c>
-      <c r="BC76" s="13">
+      <c r="BD76" s="13">
         <v>25</v>
       </c>
-      <c r="BD76" s="9">
+      <c r="BE76" s="9">
         <v>10</v>
       </c>
-      <c r="BE76" s="9" t="s">
+      <c r="BF76" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="BF76" s="26" t="s">
+      <c r="BG76" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="BG76" s="13">
+      <c r="BH76" s="13">
         <v>87</v>
       </c>
-      <c r="BH76" s="13">
+      <c r="BI76" s="13">
         <v>2011</v>
       </c>
-      <c r="BJ76" s="12"/>
       <c r="BK76" s="12"/>
-      <c r="BL76" s="14"/>
-      <c r="BM76" s="17"/>
-      <c r="BN76" s="18"/>
-      <c r="BP76" s="12"/>
-    </row>
-    <row r="77" spans="33:68" ht="30" customHeight="1">
-      <c r="BB77" s="13">
+      <c r="BL76" s="12"/>
+      <c r="BM76" s="14"/>
+      <c r="BN76" s="17"/>
+      <c r="BO76" s="18"/>
+      <c r="BQ76" s="12"/>
+    </row>
+    <row r="77" spans="11:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC77" s="13">
         <v>74</v>
       </c>
-      <c r="BC77" s="8">
+      <c r="BD77" s="8">
         <v>25</v>
       </c>
-      <c r="BD77" s="9">
+      <c r="BE77" s="9">
         <v>12</v>
       </c>
-      <c r="BE77" s="9" t="s">
+      <c r="BF77" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="BF77" s="26" t="s">
+      <c r="BG77" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="BG77" s="13">
+      <c r="BH77" s="13">
         <v>78</v>
       </c>
-      <c r="BH77" s="13">
+      <c r="BI77" s="13">
         <v>2013</v>
       </c>
-      <c r="BJ77" s="1"/>
       <c r="BK77" s="1"/>
-      <c r="BL77" s="2"/>
-      <c r="BM77" s="15"/>
-      <c r="BN77" s="10"/>
-      <c r="BP77" s="1"/>
-    </row>
-    <row r="78" spans="33:68" ht="30" customHeight="1">
-      <c r="BB78" s="13">
+      <c r="BL77" s="1"/>
+      <c r="BM77" s="2"/>
+      <c r="BN77" s="15"/>
+      <c r="BO77" s="10"/>
+      <c r="BQ77" s="1"/>
+    </row>
+    <row r="78" spans="11:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC78" s="13">
         <v>75</v>
       </c>
-      <c r="BC78" s="8">
+      <c r="BD78" s="8">
         <v>25</v>
       </c>
-      <c r="BD78" s="9" t="s">
+      <c r="BE78" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="BE78" s="9" t="s">
+      <c r="BF78" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="BF78" s="26" t="s">
+      <c r="BG78" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BG78" s="13">
+      <c r="BH78" s="13">
         <v>97</v>
       </c>
-      <c r="BH78" s="13">
+      <c r="BI78" s="13">
         <v>2017</v>
       </c>
-      <c r="BJ78" s="1"/>
       <c r="BK78" s="1"/>
-      <c r="BL78" s="2"/>
-      <c r="BM78" s="15"/>
-      <c r="BN78" s="10"/>
-      <c r="BP78" s="1"/>
-    </row>
-    <row r="79" spans="33:68" ht="30" customHeight="1">
-      <c r="BB79" s="1"/>
+      <c r="BL78" s="1"/>
+      <c r="BM78" s="2"/>
+      <c r="BN78" s="15"/>
+      <c r="BO78" s="10"/>
+      <c r="BQ78" s="1"/>
+    </row>
+    <row r="79" spans="11:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC79" s="1"/>
-      <c r="BD79" s="2"/>
-      <c r="BE79" s="15"/>
-      <c r="BF79" s="10"/>
-      <c r="BH79" s="1"/>
-      <c r="BJ79" s="1"/>
+      <c r="BD79" s="1"/>
+      <c r="BE79" s="2"/>
+      <c r="BF79" s="15"/>
+      <c r="BG79" s="10"/>
+      <c r="BI79" s="1"/>
       <c r="BK79" s="1"/>
-      <c r="BL79" s="2"/>
-      <c r="BM79" s="15"/>
-      <c r="BN79" s="10"/>
-      <c r="BP79" s="1"/>
-    </row>
-    <row r="80" spans="33:68" ht="30" customHeight="1">
-      <c r="BB80" s="1"/>
-      <c r="BC80" s="12"/>
-      <c r="BD80" s="2"/>
-      <c r="BE80" s="15"/>
-      <c r="BF80" s="10"/>
-      <c r="BH80" s="1"/>
-      <c r="BJ80" s="1"/>
-      <c r="BK80" s="12"/>
-      <c r="BL80" s="2"/>
-      <c r="BM80" s="15"/>
-      <c r="BN80" s="10"/>
-      <c r="BP80" s="1"/>
-    </row>
-    <row r="81" spans="54:68" ht="30" customHeight="1">
-      <c r="BB81" s="1"/>
-      <c r="BC81" s="12"/>
-      <c r="BD81" s="2"/>
-      <c r="BE81" s="15"/>
-      <c r="BF81" s="10"/>
-      <c r="BH81" s="1"/>
-      <c r="BJ81" s="1"/>
-      <c r="BK81" s="12"/>
-      <c r="BL81" s="2"/>
-      <c r="BM81" s="15"/>
-      <c r="BN81" s="10"/>
-      <c r="BP81" s="1"/>
-    </row>
-    <row r="82" spans="54:68" ht="30" customHeight="1">
-      <c r="BB82" s="1"/>
-      <c r="BC82" s="12"/>
-      <c r="BD82" s="2"/>
-      <c r="BE82" s="15"/>
-      <c r="BF82" s="10"/>
-      <c r="BH82" s="1"/>
-      <c r="BJ82" s="1"/>
-      <c r="BK82" s="12"/>
-      <c r="BL82" s="2"/>
-      <c r="BM82" s="15"/>
-      <c r="BN82" s="10"/>
-      <c r="BP82" s="1"/>
-    </row>
-    <row r="83" spans="54:68" ht="30" customHeight="1">
-      <c r="BB83" s="1"/>
-      <c r="BC83" s="12"/>
-      <c r="BD83" s="2"/>
-      <c r="BE83" s="15"/>
-      <c r="BF83" s="10"/>
-      <c r="BH83" s="1"/>
-      <c r="BJ83" s="1"/>
-      <c r="BK83" s="12"/>
-      <c r="BL83" s="2"/>
-      <c r="BM83" s="15"/>
-      <c r="BN83" s="10"/>
-      <c r="BP83" s="1"/>
-    </row>
-    <row r="84" spans="54:68" ht="30" customHeight="1">
-      <c r="BB84" s="1"/>
-      <c r="BC84" s="12"/>
-      <c r="BD84" s="2"/>
-      <c r="BE84" s="15"/>
-      <c r="BF84" s="10"/>
-      <c r="BH84" s="1"/>
-      <c r="BJ84" s="1"/>
-      <c r="BK84" s="12"/>
-      <c r="BL84" s="2"/>
-      <c r="BM84" s="15"/>
-      <c r="BN84" s="10"/>
-      <c r="BP84" s="1"/>
-    </row>
-    <row r="85" spans="54:68" ht="30" customHeight="1">
-      <c r="BB85" s="1"/>
+      <c r="BL79" s="1"/>
+      <c r="BM79" s="2"/>
+      <c r="BN79" s="15"/>
+      <c r="BO79" s="10"/>
+      <c r="BQ79" s="1"/>
+    </row>
+    <row r="80" spans="11:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC80" s="1"/>
+      <c r="BD80" s="12"/>
+      <c r="BE80" s="2"/>
+      <c r="BF80" s="15"/>
+      <c r="BG80" s="10"/>
+      <c r="BI80" s="1"/>
+      <c r="BK80" s="1"/>
+      <c r="BL80" s="12"/>
+      <c r="BM80" s="2"/>
+      <c r="BN80" s="15"/>
+      <c r="BO80" s="10"/>
+      <c r="BQ80" s="1"/>
+    </row>
+    <row r="81" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC81" s="1"/>
+      <c r="BD81" s="12"/>
+      <c r="BE81" s="2"/>
+      <c r="BF81" s="15"/>
+      <c r="BG81" s="10"/>
+      <c r="BI81" s="1"/>
+      <c r="BK81" s="1"/>
+      <c r="BL81" s="12"/>
+      <c r="BM81" s="2"/>
+      <c r="BN81" s="15"/>
+      <c r="BO81" s="10"/>
+      <c r="BQ81" s="1"/>
+    </row>
+    <row r="82" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC82" s="1"/>
+      <c r="BD82" s="12"/>
+      <c r="BE82" s="2"/>
+      <c r="BF82" s="15"/>
+      <c r="BG82" s="10"/>
+      <c r="BI82" s="1"/>
+      <c r="BK82" s="1"/>
+      <c r="BL82" s="12"/>
+      <c r="BM82" s="2"/>
+      <c r="BN82" s="15"/>
+      <c r="BO82" s="10"/>
+      <c r="BQ82" s="1"/>
+    </row>
+    <row r="83" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC83" s="1"/>
+      <c r="BD83" s="12"/>
+      <c r="BE83" s="2"/>
+      <c r="BF83" s="15"/>
+      <c r="BG83" s="10"/>
+      <c r="BI83" s="1"/>
+      <c r="BK83" s="1"/>
+      <c r="BL83" s="12"/>
+      <c r="BM83" s="2"/>
+      <c r="BN83" s="15"/>
+      <c r="BO83" s="10"/>
+      <c r="BQ83" s="1"/>
+    </row>
+    <row r="84" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC84" s="1"/>
+      <c r="BD84" s="12"/>
+      <c r="BE84" s="2"/>
+      <c r="BF84" s="15"/>
+      <c r="BG84" s="10"/>
+      <c r="BI84" s="1"/>
+      <c r="BK84" s="1"/>
+      <c r="BL84" s="12"/>
+      <c r="BM84" s="2"/>
+      <c r="BN84" s="15"/>
+      <c r="BO84" s="10"/>
+      <c r="BQ84" s="1"/>
+    </row>
+    <row r="85" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC85" s="1"/>
-      <c r="BD85" s="2"/>
-      <c r="BE85" s="15"/>
-      <c r="BF85" s="10"/>
-      <c r="BH85" s="1"/>
-      <c r="BJ85" s="1"/>
+      <c r="BD85" s="1"/>
+      <c r="BE85" s="2"/>
+      <c r="BF85" s="15"/>
+      <c r="BG85" s="10"/>
+      <c r="BI85" s="1"/>
       <c r="BK85" s="1"/>
-      <c r="BL85" s="2"/>
-      <c r="BM85" s="15"/>
-      <c r="BN85" s="10"/>
-      <c r="BP85" s="1"/>
-    </row>
-    <row r="86" spans="54:68" ht="30" customHeight="1">
-      <c r="BB86" s="12"/>
+      <c r="BL85" s="1"/>
+      <c r="BM85" s="2"/>
+      <c r="BN85" s="15"/>
+      <c r="BO85" s="10"/>
+      <c r="BQ85" s="1"/>
+    </row>
+    <row r="86" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC86" s="12"/>
-      <c r="BD86" s="14"/>
-      <c r="BE86" s="17"/>
-      <c r="BF86" s="18"/>
-      <c r="BH86" s="1"/>
-      <c r="BJ86" s="12"/>
+      <c r="BD86" s="12"/>
+      <c r="BE86" s="14"/>
+      <c r="BF86" s="17"/>
+      <c r="BG86" s="18"/>
+      <c r="BI86" s="1"/>
       <c r="BK86" s="12"/>
-      <c r="BL86" s="14"/>
-      <c r="BM86" s="17"/>
-      <c r="BN86" s="18"/>
-      <c r="BP86" s="1"/>
-    </row>
-    <row r="87" spans="54:68" ht="30" customHeight="1">
-      <c r="BB87" s="12"/>
+      <c r="BL86" s="12"/>
+      <c r="BM86" s="14"/>
+      <c r="BN86" s="17"/>
+      <c r="BO86" s="18"/>
+      <c r="BQ86" s="1"/>
+    </row>
+    <row r="87" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC87" s="12"/>
-      <c r="BD87" s="14"/>
-      <c r="BE87" s="17"/>
-      <c r="BF87" s="18"/>
-      <c r="BH87" s="1"/>
-      <c r="BJ87" s="12"/>
+      <c r="BD87" s="12"/>
+      <c r="BE87" s="14"/>
+      <c r="BF87" s="17"/>
+      <c r="BG87" s="18"/>
+      <c r="BI87" s="1"/>
       <c r="BK87" s="12"/>
-      <c r="BL87" s="14"/>
-      <c r="BM87" s="17"/>
-      <c r="BN87" s="18"/>
-      <c r="BP87" s="1"/>
-    </row>
-    <row r="88" spans="54:68" ht="30" customHeight="1">
-      <c r="BB88" s="12"/>
+      <c r="BL87" s="12"/>
+      <c r="BM87" s="14"/>
+      <c r="BN87" s="17"/>
+      <c r="BO87" s="18"/>
+      <c r="BQ87" s="1"/>
+    </row>
+    <row r="88" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC88" s="12"/>
-      <c r="BD88" s="14"/>
-      <c r="BE88" s="17"/>
-      <c r="BF88" s="18"/>
-      <c r="BH88" s="1"/>
-      <c r="BJ88" s="12"/>
+      <c r="BD88" s="12"/>
+      <c r="BE88" s="14"/>
+      <c r="BF88" s="17"/>
+      <c r="BG88" s="18"/>
+      <c r="BI88" s="1"/>
       <c r="BK88" s="12"/>
-      <c r="BL88" s="14"/>
-      <c r="BM88" s="17"/>
-      <c r="BN88" s="18"/>
-      <c r="BP88" s="1"/>
-    </row>
-    <row r="89" spans="54:68" ht="30" customHeight="1">
-      <c r="BB89" s="12"/>
-      <c r="BC89" s="1"/>
-      <c r="BD89" s="2"/>
-      <c r="BE89" s="15"/>
-      <c r="BF89" s="10"/>
-      <c r="BH89" s="1"/>
-      <c r="BJ89" s="12"/>
-      <c r="BK89" s="1"/>
-      <c r="BL89" s="2"/>
-      <c r="BM89" s="15"/>
-      <c r="BN89" s="10"/>
-      <c r="BP89" s="1"/>
-    </row>
-    <row r="90" spans="54:68" ht="30" customHeight="1">
-      <c r="BB90" s="12"/>
-      <c r="BC90" s="1"/>
-      <c r="BD90" s="2"/>
-      <c r="BE90" s="15"/>
-      <c r="BF90" s="10"/>
-      <c r="BH90" s="1"/>
-      <c r="BJ90" s="12"/>
-      <c r="BK90" s="1"/>
-      <c r="BL90" s="2"/>
-      <c r="BM90" s="15"/>
-      <c r="BN90" s="10"/>
-      <c r="BP90" s="1"/>
-    </row>
-    <row r="91" spans="54:68" ht="30" customHeight="1">
-      <c r="BB91" s="12"/>
-      <c r="BC91" s="1"/>
-      <c r="BD91" s="2"/>
-      <c r="BE91" s="15"/>
-      <c r="BF91" s="10"/>
-      <c r="BH91" s="1"/>
-      <c r="BJ91" s="12"/>
-      <c r="BK91" s="1"/>
-      <c r="BL91" s="2"/>
-      <c r="BM91" s="15"/>
-      <c r="BN91" s="10"/>
-      <c r="BP91" s="1"/>
-    </row>
-    <row r="92" spans="54:68" ht="30" customHeight="1">
-      <c r="BB92" s="12"/>
-      <c r="BC92" s="1"/>
-      <c r="BD92" s="2"/>
-      <c r="BE92" s="15"/>
-      <c r="BF92" s="10"/>
-      <c r="BH92" s="1"/>
-      <c r="BJ92" s="12"/>
-      <c r="BK92" s="1"/>
-      <c r="BL92" s="2"/>
-      <c r="BM92" s="15"/>
-      <c r="BN92" s="10"/>
-      <c r="BP92" s="1"/>
-    </row>
-    <row r="93" spans="54:68" ht="30" customHeight="1">
-      <c r="BB93" s="12"/>
+      <c r="BL88" s="12"/>
+      <c r="BM88" s="14"/>
+      <c r="BN88" s="17"/>
+      <c r="BO88" s="18"/>
+      <c r="BQ88" s="1"/>
+    </row>
+    <row r="89" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC89" s="12"/>
+      <c r="BD89" s="1"/>
+      <c r="BE89" s="2"/>
+      <c r="BF89" s="15"/>
+      <c r="BG89" s="10"/>
+      <c r="BI89" s="1"/>
+      <c r="BK89" s="12"/>
+      <c r="BL89" s="1"/>
+      <c r="BM89" s="2"/>
+      <c r="BN89" s="15"/>
+      <c r="BO89" s="10"/>
+      <c r="BQ89" s="1"/>
+    </row>
+    <row r="90" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC90" s="12"/>
+      <c r="BD90" s="1"/>
+      <c r="BE90" s="2"/>
+      <c r="BF90" s="15"/>
+      <c r="BG90" s="10"/>
+      <c r="BI90" s="1"/>
+      <c r="BK90" s="12"/>
+      <c r="BL90" s="1"/>
+      <c r="BM90" s="2"/>
+      <c r="BN90" s="15"/>
+      <c r="BO90" s="10"/>
+      <c r="BQ90" s="1"/>
+    </row>
+    <row r="91" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC91" s="12"/>
+      <c r="BD91" s="1"/>
+      <c r="BE91" s="2"/>
+      <c r="BF91" s="15"/>
+      <c r="BG91" s="10"/>
+      <c r="BI91" s="1"/>
+      <c r="BK91" s="12"/>
+      <c r="BL91" s="1"/>
+      <c r="BM91" s="2"/>
+      <c r="BN91" s="15"/>
+      <c r="BO91" s="10"/>
+      <c r="BQ91" s="1"/>
+    </row>
+    <row r="92" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BC92" s="12"/>
+      <c r="BD92" s="1"/>
+      <c r="BE92" s="2"/>
+      <c r="BF92" s="15"/>
+      <c r="BG92" s="10"/>
+      <c r="BI92" s="1"/>
+      <c r="BK92" s="12"/>
+      <c r="BL92" s="1"/>
+      <c r="BM92" s="2"/>
+      <c r="BN92" s="15"/>
+      <c r="BO92" s="10"/>
+      <c r="BQ92" s="1"/>
+    </row>
+    <row r="93" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC93" s="12"/>
-      <c r="BD93" s="2"/>
-      <c r="BE93" s="15"/>
-      <c r="BF93" s="10"/>
-      <c r="BH93" s="1"/>
-      <c r="BJ93" s="12"/>
+      <c r="BD93" s="12"/>
+      <c r="BE93" s="2"/>
+      <c r="BF93" s="15"/>
+      <c r="BG93" s="10"/>
+      <c r="BI93" s="1"/>
       <c r="BK93" s="12"/>
-      <c r="BL93" s="2"/>
-      <c r="BM93" s="15"/>
-      <c r="BN93" s="10"/>
-      <c r="BP93" s="1"/>
-    </row>
-    <row r="94" spans="54:68" ht="30" customHeight="1">
-      <c r="BB94" s="12"/>
+      <c r="BL93" s="12"/>
+      <c r="BM93" s="2"/>
+      <c r="BN93" s="15"/>
+      <c r="BO93" s="10"/>
+      <c r="BQ93" s="1"/>
+    </row>
+    <row r="94" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC94" s="12"/>
-      <c r="BD94" s="2"/>
-      <c r="BE94" s="15"/>
-      <c r="BF94" s="10"/>
-      <c r="BH94" s="1"/>
-      <c r="BJ94" s="12"/>
+      <c r="BD94" s="12"/>
+      <c r="BE94" s="2"/>
+      <c r="BF94" s="15"/>
+      <c r="BG94" s="10"/>
+      <c r="BI94" s="1"/>
       <c r="BK94" s="12"/>
-      <c r="BL94" s="2"/>
-      <c r="BM94" s="15"/>
-      <c r="BN94" s="10"/>
-      <c r="BP94" s="1"/>
-    </row>
-    <row r="95" spans="54:68" ht="30" customHeight="1">
-      <c r="BB95" s="12"/>
+      <c r="BL94" s="12"/>
+      <c r="BM94" s="2"/>
+      <c r="BN94" s="15"/>
+      <c r="BO94" s="10"/>
+      <c r="BQ94" s="1"/>
+    </row>
+    <row r="95" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC95" s="12"/>
-      <c r="BD95" s="2"/>
-      <c r="BE95" s="15"/>
-      <c r="BF95" s="10"/>
-      <c r="BH95" s="1"/>
-      <c r="BJ95" s="12"/>
+      <c r="BD95" s="12"/>
+      <c r="BE95" s="2"/>
+      <c r="BF95" s="15"/>
+      <c r="BG95" s="10"/>
+      <c r="BI95" s="1"/>
       <c r="BK95" s="12"/>
-      <c r="BL95" s="2"/>
-      <c r="BM95" s="15"/>
-      <c r="BN95" s="10"/>
-      <c r="BP95" s="1"/>
-    </row>
-    <row r="96" spans="54:68" ht="30" customHeight="1">
-      <c r="BB96" s="12"/>
+      <c r="BL95" s="12"/>
+      <c r="BM95" s="2"/>
+      <c r="BN95" s="15"/>
+      <c r="BO95" s="10"/>
+      <c r="BQ95" s="1"/>
+    </row>
+    <row r="96" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC96" s="12"/>
-      <c r="BE96" s="15"/>
-      <c r="BF96" s="10"/>
-      <c r="BH96" s="1"/>
-      <c r="BJ96" s="12"/>
+      <c r="BD96" s="12"/>
+      <c r="BF96" s="15"/>
+      <c r="BG96" s="10"/>
+      <c r="BI96" s="1"/>
       <c r="BK96" s="12"/>
-      <c r="BM96" s="15"/>
-      <c r="BN96" s="10"/>
-      <c r="BP96" s="1"/>
+      <c r="BL96" s="12"/>
+      <c r="BN96" s="15"/>
+      <c r="BO96" s="10"/>
+      <c r="BQ96" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AE2:AG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ERP, STUDENT, and CAB Databases/Campus/Data for Assignment002 (Create Campus _with_constraints Table ) .xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/Data for Assignment002 (Create Campus _with_constraints Table ) .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.100.10\Faculty Common\saleel\Saleel\New DATA\Saleel Tables VER2\ERP, STUDENT, and CAB Databases\Campus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE8BE63-83CA-49BB-8C98-0F4062774E1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233FB7D9-0166-4F6B-9F4C-CD27DAFDA364}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="209">
   <si>
     <t>namefirst</t>
   </si>
@@ -637,6 +637,30 @@
   </si>
   <si>
     <t>isActive</t>
+  </si>
+  <si>
+    <t>Student_Cards Table</t>
+  </si>
+  <si>
+    <t>Aadhaar</t>
+  </si>
+  <si>
+    <t>Driving Licence</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>Voter ID</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Credit</t>
   </si>
 </sst>
 </file>
@@ -738,7 +762,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -838,11 +862,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1126,11 +1156,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:BQ96"/>
+  <dimension ref="B2:BV96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1203,10 +1233,15 @@
     <col min="67" max="67" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="13.140625" style="4" customWidth="1"/>
     <col min="69" max="69" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="70" max="16384" width="9.140625" style="4"/>
+    <col min="70" max="70" width="2.5703125" style="4" customWidth="1"/>
+    <col min="71" max="71" width="6.5703125" customWidth="1"/>
+    <col min="72" max="72" width="13.85546875" customWidth="1"/>
+    <col min="73" max="73" width="16" customWidth="1"/>
+    <col min="74" max="74" width="8" bestFit="1" customWidth="1"/>
+    <col min="75" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
@@ -1219,7 +1254,7 @@
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="38"/>
+      <c r="K2" s="37"/>
       <c r="M2" s="19" t="s">
         <v>170</v>
       </c>
@@ -1242,22 +1277,22 @@
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
-      <c r="AE2" s="37" t="s">
+      <c r="AE2" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
       <c r="AH2" s="3"/>
-      <c r="AJ2" s="37" t="s">
+      <c r="AJ2" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AN2" s="37" t="s">
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AN2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
       <c r="AR2" s="6" t="s">
         <v>20</v>
       </c>
@@ -1289,8 +1324,14 @@
       <c r="BO2" s="6"/>
       <c r="BP2" s="6"/>
       <c r="BQ2" s="6"/>
-    </row>
-    <row r="3" spans="2:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS2" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="BT2" s="37"/>
+      <c r="BU2" s="37"/>
+      <c r="BV2" s="37"/>
+    </row>
+    <row r="3" spans="2:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>84</v>
       </c>
@@ -1459,8 +1500,20 @@
       <c r="BQ3" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV3" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13">
         <v>1</v>
       </c>
@@ -1631,8 +1684,20 @@
       <c r="BQ4" s="13">
         <v>2012</v>
       </c>
-    </row>
-    <row r="5" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS4" s="8">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="8">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13">
         <v>2</v>
       </c>
@@ -1803,8 +1868,20 @@
       <c r="BQ5" s="13">
         <v>2014</v>
       </c>
-    </row>
-    <row r="6" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS5" s="8">
+        <v>2</v>
+      </c>
+      <c r="BT5" s="8">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13">
         <v>3</v>
       </c>
@@ -1975,8 +2052,20 @@
       <c r="BQ6" s="13">
         <v>2018</v>
       </c>
-    </row>
-    <row r="7" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS6" s="8">
+        <v>3</v>
+      </c>
+      <c r="BT6" s="8">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>4</v>
       </c>
@@ -2147,8 +2236,20 @@
       <c r="BQ7" s="13">
         <v>2013</v>
       </c>
-    </row>
-    <row r="8" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS7" s="8">
+        <v>4</v>
+      </c>
+      <c r="BT7" s="8">
+        <v>1</v>
+      </c>
+      <c r="BU7" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>5</v>
       </c>
@@ -2294,8 +2395,20 @@
       <c r="BQ8" s="13">
         <v>2015</v>
       </c>
-    </row>
-    <row r="9" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS8" s="8">
+        <v>5</v>
+      </c>
+      <c r="BT8" s="8">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>6</v>
       </c>
@@ -2441,8 +2554,20 @@
       <c r="BQ9" s="13">
         <v>2019</v>
       </c>
-    </row>
-    <row r="10" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS9" s="8">
+        <v>6</v>
+      </c>
+      <c r="BT9" s="8">
+        <v>1</v>
+      </c>
+      <c r="BU9" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>7</v>
       </c>
@@ -2588,8 +2713,20 @@
       <c r="BQ10" s="13">
         <v>2011</v>
       </c>
-    </row>
-    <row r="11" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS10" s="8">
+        <v>7</v>
+      </c>
+      <c r="BT10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BU10" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="BV10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <v>8</v>
       </c>
@@ -2727,8 +2864,20 @@
       <c r="BQ11" s="13">
         <v>2013</v>
       </c>
-    </row>
-    <row r="12" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS11" s="8">
+        <v>8</v>
+      </c>
+      <c r="BT11" s="8">
+        <v>2</v>
+      </c>
+      <c r="BU11" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <v>9</v>
       </c>
@@ -2860,8 +3009,20 @@
       <c r="BQ12" s="13">
         <v>2017</v>
       </c>
-    </row>
-    <row r="13" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS12" s="8">
+        <v>9</v>
+      </c>
+      <c r="BT12" s="8">
+        <v>2</v>
+      </c>
+      <c r="BU12" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13">
         <v>10</v>
       </c>
@@ -2993,8 +3154,20 @@
       <c r="BQ13" s="13">
         <v>2010</v>
       </c>
-    </row>
-    <row r="14" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS13" s="8">
+        <v>10</v>
+      </c>
+      <c r="BT13" s="8">
+        <v>2</v>
+      </c>
+      <c r="BU13" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <v>11</v>
       </c>
@@ -3126,8 +3299,20 @@
       <c r="BQ14" s="13">
         <v>2012</v>
       </c>
-    </row>
-    <row r="15" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS14" s="8">
+        <v>11</v>
+      </c>
+      <c r="BT14" s="8">
+        <v>2</v>
+      </c>
+      <c r="BU14" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <v>12</v>
       </c>
@@ -3259,8 +3444,20 @@
       <c r="BQ15" s="13">
         <v>2016</v>
       </c>
-    </row>
-    <row r="16" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS15" s="8">
+        <v>12</v>
+      </c>
+      <c r="BT15" s="8">
+        <v>2</v>
+      </c>
+      <c r="BU15" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>13</v>
       </c>
@@ -3378,8 +3575,20 @@
       <c r="BO16" s="31"/>
       <c r="BP16" s="12"/>
       <c r="BQ16" s="12"/>
-    </row>
-    <row r="17" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS16" s="8">
+        <v>13</v>
+      </c>
+      <c r="BT16" s="8">
+        <v>3</v>
+      </c>
+      <c r="BU16" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <v>14</v>
       </c>
@@ -3497,8 +3706,20 @@
       <c r="BO17" s="31"/>
       <c r="BP17" s="12"/>
       <c r="BQ17" s="12"/>
-    </row>
-    <row r="18" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS17" s="8">
+        <v>14</v>
+      </c>
+      <c r="BT17" s="8">
+        <v>3</v>
+      </c>
+      <c r="BU17" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <v>15</v>
       </c>
@@ -3616,8 +3837,20 @@
       <c r="BO18" s="31"/>
       <c r="BP18" s="12"/>
       <c r="BQ18" s="12"/>
-    </row>
-    <row r="19" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS18" s="8">
+        <v>15</v>
+      </c>
+      <c r="BT18" s="8">
+        <v>3</v>
+      </c>
+      <c r="BU18" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13">
         <v>16</v>
       </c>
@@ -3735,8 +3968,20 @@
       <c r="BO19" s="31"/>
       <c r="BP19" s="12"/>
       <c r="BQ19" s="12"/>
-    </row>
-    <row r="20" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS19" s="8">
+        <v>16</v>
+      </c>
+      <c r="BT19" s="8">
+        <v>3</v>
+      </c>
+      <c r="BU19" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <v>17</v>
       </c>
@@ -3854,8 +4099,20 @@
       <c r="BO20" s="31"/>
       <c r="BP20" s="12"/>
       <c r="BQ20" s="12"/>
-    </row>
-    <row r="21" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS20" s="8">
+        <v>17</v>
+      </c>
+      <c r="BT20" s="8">
+        <v>3</v>
+      </c>
+      <c r="BU20" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <v>18</v>
       </c>
@@ -3967,8 +4224,20 @@
       <c r="BO21" s="31"/>
       <c r="BP21" s="12"/>
       <c r="BQ21" s="12"/>
-    </row>
-    <row r="22" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS21" s="8">
+        <v>18</v>
+      </c>
+      <c r="BT21" s="8">
+        <v>4</v>
+      </c>
+      <c r="BU21" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <v>19</v>
       </c>
@@ -4080,8 +4349,20 @@
       <c r="BO22" s="31"/>
       <c r="BP22" s="12"/>
       <c r="BQ22" s="12"/>
-    </row>
-    <row r="23" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS22" s="8">
+        <v>19</v>
+      </c>
+      <c r="BT22" s="8">
+        <v>4</v>
+      </c>
+      <c r="BU22" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>20</v>
       </c>
@@ -4193,8 +4474,20 @@
       <c r="BO23" s="31"/>
       <c r="BP23" s="12"/>
       <c r="BQ23" s="12"/>
-    </row>
-    <row r="24" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS23" s="8">
+        <v>20</v>
+      </c>
+      <c r="BT23" s="8">
+        <v>4</v>
+      </c>
+      <c r="BU23" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <v>21</v>
       </c>
@@ -4303,8 +4596,20 @@
       <c r="BO24" s="31"/>
       <c r="BP24" s="12"/>
       <c r="BQ24" s="12"/>
-    </row>
-    <row r="25" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS24" s="8">
+        <v>21</v>
+      </c>
+      <c r="BT24" s="8">
+        <v>4</v>
+      </c>
+      <c r="BU24" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <v>22</v>
       </c>
@@ -4413,8 +4718,20 @@
       <c r="BO25" s="31"/>
       <c r="BP25" s="12"/>
       <c r="BQ25" s="12"/>
-    </row>
-    <row r="26" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS25" s="8">
+        <v>22</v>
+      </c>
+      <c r="BT25" s="8">
+        <v>4</v>
+      </c>
+      <c r="BU25" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <v>23</v>
       </c>
@@ -4523,8 +4840,20 @@
       <c r="BO26" s="31"/>
       <c r="BP26" s="12"/>
       <c r="BQ26" s="12"/>
-    </row>
-    <row r="27" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS26" s="8">
+        <v>23</v>
+      </c>
+      <c r="BT26" s="8">
+        <v>4</v>
+      </c>
+      <c r="BU26" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="BV26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <v>24</v>
       </c>
@@ -4628,8 +4957,20 @@
       <c r="BO27" s="31"/>
       <c r="BP27" s="12"/>
       <c r="BQ27" s="12"/>
-    </row>
-    <row r="28" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS27" s="8">
+        <v>24</v>
+      </c>
+      <c r="BT27" s="8">
+        <v>5</v>
+      </c>
+      <c r="BU27" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>25</v>
       </c>
@@ -4732,8 +5073,20 @@
       <c r="BO28" s="31"/>
       <c r="BP28" s="12"/>
       <c r="BQ28" s="12"/>
-    </row>
-    <row r="29" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS28" s="8">
+        <v>25</v>
+      </c>
+      <c r="BT28" s="8">
+        <v>5</v>
+      </c>
+      <c r="BU28" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="12"/>
       <c r="H29" s="13">
         <v>26</v>
@@ -4794,8 +5147,20 @@
       <c r="BO29" s="31"/>
       <c r="BP29" s="12"/>
       <c r="BQ29" s="12"/>
-    </row>
-    <row r="30" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS29" s="8">
+        <v>26</v>
+      </c>
+      <c r="BT29" s="8">
+        <v>5</v>
+      </c>
+      <c r="BU29" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV29" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="12"/>
       <c r="H30" s="13">
         <v>27</v>
@@ -4847,8 +5212,20 @@
       <c r="BO30" s="31"/>
       <c r="BP30" s="12"/>
       <c r="BQ30" s="12"/>
-    </row>
-    <row r="31" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS30" s="8">
+        <v>27</v>
+      </c>
+      <c r="BT30" s="8">
+        <v>5</v>
+      </c>
+      <c r="BU30" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV30" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="12"/>
       <c r="H31" s="13">
         <v>28</v>
@@ -4900,8 +5277,20 @@
       <c r="BO31" s="31"/>
       <c r="BP31" s="12"/>
       <c r="BQ31" s="12"/>
-    </row>
-    <row r="32" spans="2:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS31" s="8">
+        <v>28</v>
+      </c>
+      <c r="BT31" s="8">
+        <v>5</v>
+      </c>
+      <c r="BU31" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV31" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="12"/>
       <c r="H32" s="13">
         <v>29</v>
@@ -4944,8 +5333,20 @@
       <c r="BO32" s="31"/>
       <c r="BP32" s="12"/>
       <c r="BQ32" s="12"/>
-    </row>
-    <row r="33" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS32" s="8">
+        <v>29</v>
+      </c>
+      <c r="BT32" s="8">
+        <v>5</v>
+      </c>
+      <c r="BU32" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV32" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="12"/>
       <c r="H33" s="13">
         <v>30</v>
@@ -4988,8 +5389,20 @@
       <c r="BO33" s="31"/>
       <c r="BP33" s="12"/>
       <c r="BQ33" s="12"/>
-    </row>
-    <row r="34" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS33" s="8">
+        <v>30</v>
+      </c>
+      <c r="BT33" s="8">
+        <v>5</v>
+      </c>
+      <c r="BU33" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="BV33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="12"/>
       <c r="H34" s="13">
         <v>31</v>
@@ -5032,8 +5445,20 @@
       <c r="BO34" s="31"/>
       <c r="BP34" s="12"/>
       <c r="BQ34" s="12"/>
-    </row>
-    <row r="35" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS34" s="8">
+        <v>31</v>
+      </c>
+      <c r="BT34" s="8">
+        <v>6</v>
+      </c>
+      <c r="BU34" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="12"/>
       <c r="H35" s="13">
         <v>32</v>
@@ -5076,8 +5501,20 @@
       <c r="BO35" s="31"/>
       <c r="BP35" s="12"/>
       <c r="BQ35" s="12"/>
-    </row>
-    <row r="36" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS35" s="8">
+        <v>32</v>
+      </c>
+      <c r="BT35" s="8">
+        <v>6</v>
+      </c>
+      <c r="BU35" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV35" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="5:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="12"/>
       <c r="H36" s="13">
         <v>33</v>
@@ -5120,8 +5557,20 @@
       <c r="BO36" s="31"/>
       <c r="BP36" s="12"/>
       <c r="BQ36" s="12"/>
-    </row>
-    <row r="37" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS36" s="8">
+        <v>33</v>
+      </c>
+      <c r="BT36" s="8">
+        <v>7</v>
+      </c>
+      <c r="BU36" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="5:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E37" s="12"/>
       <c r="H37" s="13">
         <v>34</v>
@@ -5164,8 +5613,20 @@
       <c r="BO37" s="31"/>
       <c r="BP37" s="12"/>
       <c r="BQ37" s="12"/>
-    </row>
-    <row r="38" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS37" s="8">
+        <v>34</v>
+      </c>
+      <c r="BT37" s="8">
+        <v>7</v>
+      </c>
+      <c r="BU37" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV37" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="5:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="12"/>
       <c r="H38" s="13">
         <v>35</v>
@@ -5208,8 +5669,20 @@
       <c r="BO38" s="31"/>
       <c r="BP38" s="12"/>
       <c r="BQ38" s="12"/>
-    </row>
-    <row r="39" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS38" s="8">
+        <v>35</v>
+      </c>
+      <c r="BT38" s="8">
+        <v>8</v>
+      </c>
+      <c r="BU38" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="5:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" s="12"/>
       <c r="H39" s="13">
         <v>36</v>
@@ -5252,8 +5725,20 @@
       <c r="BO39" s="31"/>
       <c r="BP39" s="12"/>
       <c r="BQ39" s="12"/>
-    </row>
-    <row r="40" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS39" s="8">
+        <v>36</v>
+      </c>
+      <c r="BT39" s="8">
+        <v>8</v>
+      </c>
+      <c r="BU39" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV39" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="5:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E40" s="12"/>
       <c r="H40" s="13">
         <v>37</v>
@@ -5296,8 +5781,20 @@
       <c r="BO40" s="31"/>
       <c r="BP40" s="12"/>
       <c r="BQ40" s="12"/>
-    </row>
-    <row r="41" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS40" s="8">
+        <v>37</v>
+      </c>
+      <c r="BT40" s="8">
+        <v>8</v>
+      </c>
+      <c r="BU40" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV40" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="5:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H41" s="13">
         <v>38</v>
       </c>
@@ -5339,8 +5836,20 @@
       <c r="BO41" s="31"/>
       <c r="BP41" s="12"/>
       <c r="BQ41" s="12"/>
-    </row>
-    <row r="42" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS41" s="8">
+        <v>38</v>
+      </c>
+      <c r="BT41" s="8">
+        <v>8</v>
+      </c>
+      <c r="BU41" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV41" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="5:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H42" s="13">
         <v>39</v>
       </c>
@@ -5382,8 +5891,20 @@
       <c r="BO42" s="31"/>
       <c r="BP42" s="12"/>
       <c r="BQ42" s="12"/>
-    </row>
-    <row r="43" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS42" s="8">
+        <v>39</v>
+      </c>
+      <c r="BT42" s="8">
+        <v>9</v>
+      </c>
+      <c r="BU42" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV42" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="5:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H43" s="13">
         <v>40</v>
       </c>
@@ -5425,8 +5946,20 @@
       <c r="BO43" s="31"/>
       <c r="BP43" s="12"/>
       <c r="BQ43" s="12"/>
-    </row>
-    <row r="44" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS43" s="8">
+        <v>40</v>
+      </c>
+      <c r="BT43" s="8">
+        <v>9</v>
+      </c>
+      <c r="BU43" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="5:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H44" s="13">
         <v>41</v>
       </c>
@@ -5468,8 +6001,20 @@
       <c r="BO44" s="31"/>
       <c r="BP44" s="12"/>
       <c r="BQ44" s="12"/>
-    </row>
-    <row r="45" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS44" s="8">
+        <v>41</v>
+      </c>
+      <c r="BT44" s="8">
+        <v>9</v>
+      </c>
+      <c r="BU44" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV44" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="5:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K45"/>
       <c r="AH45" s="12"/>
       <c r="BC45" s="13">
@@ -5500,8 +6045,20 @@
       <c r="BO45" s="31"/>
       <c r="BP45" s="12"/>
       <c r="BQ45" s="12"/>
-    </row>
-    <row r="46" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS45" s="8">
+        <v>42</v>
+      </c>
+      <c r="BT45" s="8">
+        <v>9</v>
+      </c>
+      <c r="BU45" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="BV45" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="5:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K46"/>
       <c r="AH46" s="12"/>
       <c r="BC46" s="13">
@@ -5532,8 +6089,20 @@
       <c r="BO46" s="31"/>
       <c r="BP46" s="12"/>
       <c r="BQ46" s="12"/>
-    </row>
-    <row r="47" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS46" s="8">
+        <v>43</v>
+      </c>
+      <c r="BT46" s="8">
+        <v>10</v>
+      </c>
+      <c r="BU46" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV46" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="5:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K47"/>
       <c r="AH47" s="12"/>
       <c r="BC47" s="13">
@@ -5564,8 +6133,20 @@
       <c r="BO47" s="31"/>
       <c r="BP47" s="12"/>
       <c r="BQ47" s="12"/>
-    </row>
-    <row r="48" spans="5:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS47" s="8">
+        <v>44</v>
+      </c>
+      <c r="BT47" s="8">
+        <v>10</v>
+      </c>
+      <c r="BU47" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV47" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="5:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K48"/>
       <c r="AH48" s="12"/>
       <c r="BC48" s="13">
@@ -5596,8 +6177,20 @@
       <c r="BO48" s="31"/>
       <c r="BP48" s="12"/>
       <c r="BQ48" s="12"/>
-    </row>
-    <row r="49" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS48" s="8">
+        <v>45</v>
+      </c>
+      <c r="BT48" s="8">
+        <v>10</v>
+      </c>
+      <c r="BU48" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV48" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K49"/>
       <c r="AH49" s="12"/>
       <c r="BC49" s="13">
@@ -5628,8 +6221,20 @@
       <c r="BO49" s="31"/>
       <c r="BP49" s="12"/>
       <c r="BQ49" s="12"/>
-    </row>
-    <row r="50" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS49" s="8">
+        <v>46</v>
+      </c>
+      <c r="BT49" s="8">
+        <v>10</v>
+      </c>
+      <c r="BU49" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV49" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K50"/>
       <c r="AH50" s="12"/>
       <c r="BC50" s="13">
@@ -5660,8 +6265,20 @@
       <c r="BO50" s="31"/>
       <c r="BP50" s="12"/>
       <c r="BQ50" s="12"/>
-    </row>
-    <row r="51" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS50" s="8">
+        <v>47</v>
+      </c>
+      <c r="BT50" s="8">
+        <v>11</v>
+      </c>
+      <c r="BU50" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV50" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K51"/>
       <c r="AH51" s="12"/>
       <c r="BC51" s="13">
@@ -5692,8 +6309,20 @@
       <c r="BO51" s="31"/>
       <c r="BP51" s="12"/>
       <c r="BQ51" s="12"/>
-    </row>
-    <row r="52" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS51" s="8">
+        <v>48</v>
+      </c>
+      <c r="BT51" s="8">
+        <v>12</v>
+      </c>
+      <c r="BU51" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV51" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K52"/>
       <c r="AH52" s="12"/>
       <c r="BC52" s="13">
@@ -5724,8 +6353,20 @@
       <c r="BO52" s="31"/>
       <c r="BP52" s="12"/>
       <c r="BQ52" s="12"/>
-    </row>
-    <row r="53" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS52" s="8">
+        <v>49</v>
+      </c>
+      <c r="BT52" s="8">
+        <v>12</v>
+      </c>
+      <c r="BU52" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV52" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K53"/>
       <c r="AH53" s="12"/>
       <c r="BC53" s="13">
@@ -5756,8 +6397,20 @@
       <c r="BO53" s="31"/>
       <c r="BP53" s="12"/>
       <c r="BQ53" s="12"/>
-    </row>
-    <row r="54" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS53" s="8">
+        <v>50</v>
+      </c>
+      <c r="BT53" s="8">
+        <v>12</v>
+      </c>
+      <c r="BU53" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV53" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K54"/>
       <c r="AH54" s="12"/>
       <c r="BC54" s="13">
@@ -5788,8 +6441,20 @@
       <c r="BO54" s="31"/>
       <c r="BP54" s="12"/>
       <c r="BQ54" s="12"/>
-    </row>
-    <row r="55" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS54" s="8">
+        <v>51</v>
+      </c>
+      <c r="BT54" s="8">
+        <v>13</v>
+      </c>
+      <c r="BU54" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV54" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K55"/>
       <c r="AH55" s="12"/>
       <c r="BC55" s="13">
@@ -5820,8 +6485,20 @@
       <c r="BO55" s="31"/>
       <c r="BP55" s="12"/>
       <c r="BQ55" s="12"/>
-    </row>
-    <row r="56" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS55" s="8">
+        <v>52</v>
+      </c>
+      <c r="BT55" s="8">
+        <v>13</v>
+      </c>
+      <c r="BU55" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV55" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K56"/>
       <c r="AH56" s="12"/>
       <c r="BC56" s="13">
@@ -5852,8 +6529,20 @@
       <c r="BO56" s="31"/>
       <c r="BP56" s="12"/>
       <c r="BQ56" s="12"/>
-    </row>
-    <row r="57" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS56" s="8">
+        <v>53</v>
+      </c>
+      <c r="BT56" s="8">
+        <v>13</v>
+      </c>
+      <c r="BU56" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV56" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K57"/>
       <c r="AH57" s="12"/>
       <c r="BC57" s="13">
@@ -5884,8 +6573,20 @@
       <c r="BO57" s="31"/>
       <c r="BP57" s="12"/>
       <c r="BQ57" s="12"/>
-    </row>
-    <row r="58" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS57" s="8">
+        <v>54</v>
+      </c>
+      <c r="BT57" s="8">
+        <v>13</v>
+      </c>
+      <c r="BU57" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV57" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K58"/>
       <c r="AH58" s="12"/>
       <c r="BC58" s="13">
@@ -5916,8 +6617,20 @@
       <c r="BO58" s="31"/>
       <c r="BP58" s="12"/>
       <c r="BQ58" s="12"/>
-    </row>
-    <row r="59" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS58" s="8">
+        <v>55</v>
+      </c>
+      <c r="BT58" s="8">
+        <v>17</v>
+      </c>
+      <c r="BU58" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV58" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K59"/>
       <c r="AH59" s="12"/>
       <c r="BC59" s="13">
@@ -5948,8 +6661,20 @@
       <c r="BO59" s="31"/>
       <c r="BP59" s="12"/>
       <c r="BQ59" s="12"/>
-    </row>
-    <row r="60" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS59" s="8">
+        <v>56</v>
+      </c>
+      <c r="BT59" s="8">
+        <v>17</v>
+      </c>
+      <c r="BU59" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV59" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K60"/>
       <c r="AH60" s="12"/>
       <c r="BC60" s="13">
@@ -5980,8 +6705,20 @@
       <c r="BO60" s="31"/>
       <c r="BP60" s="12"/>
       <c r="BQ60" s="12"/>
-    </row>
-    <row r="61" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS60" s="8">
+        <v>57</v>
+      </c>
+      <c r="BT60" s="8">
+        <v>17</v>
+      </c>
+      <c r="BU60" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV60" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K61"/>
       <c r="AH61" s="12"/>
       <c r="BC61" s="13">
@@ -6012,8 +6749,20 @@
       <c r="BO61" s="31"/>
       <c r="BP61" s="12"/>
       <c r="BQ61" s="12"/>
-    </row>
-    <row r="62" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS61" s="8">
+        <v>58</v>
+      </c>
+      <c r="BT61" s="8">
+        <v>17</v>
+      </c>
+      <c r="BU61" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV61" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K62"/>
       <c r="AH62" s="12"/>
       <c r="BC62" s="13">
@@ -6044,8 +6793,20 @@
       <c r="BO62" s="31"/>
       <c r="BP62" s="12"/>
       <c r="BQ62" s="12"/>
-    </row>
-    <row r="63" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS62" s="8">
+        <v>59</v>
+      </c>
+      <c r="BT62" s="8">
+        <v>17</v>
+      </c>
+      <c r="BU62" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV62" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K63"/>
       <c r="AH63" s="12"/>
       <c r="BC63" s="13">
@@ -6076,8 +6837,20 @@
       <c r="BO63" s="31"/>
       <c r="BP63" s="12"/>
       <c r="BQ63" s="12"/>
-    </row>
-    <row r="64" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS63" s="8">
+        <v>60</v>
+      </c>
+      <c r="BT63" s="8">
+        <v>17</v>
+      </c>
+      <c r="BU63" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV63" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K64"/>
       <c r="AH64" s="12"/>
       <c r="BC64" s="13">
@@ -6107,8 +6880,20 @@
       <c r="BN64" s="17"/>
       <c r="BO64" s="18"/>
       <c r="BQ64" s="12"/>
-    </row>
-    <row r="65" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS64" s="8">
+        <v>61</v>
+      </c>
+      <c r="BT64" s="8">
+        <v>17</v>
+      </c>
+      <c r="BU64" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="BV64" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K65"/>
       <c r="AH65" s="12"/>
       <c r="BC65" s="13">
@@ -6138,8 +6923,20 @@
       <c r="BN65" s="17"/>
       <c r="BO65" s="18"/>
       <c r="BQ65" s="12"/>
-    </row>
-    <row r="66" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS65" s="8">
+        <v>62</v>
+      </c>
+      <c r="BT65" s="8">
+        <v>18</v>
+      </c>
+      <c r="BU65" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV65" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K66"/>
       <c r="AH66" s="12"/>
       <c r="BC66" s="13">
@@ -6169,8 +6966,20 @@
       <c r="BN66" s="17"/>
       <c r="BO66" s="18"/>
       <c r="BQ66" s="12"/>
-    </row>
-    <row r="67" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS66" s="8">
+        <v>63</v>
+      </c>
+      <c r="BT66" s="8">
+        <v>18</v>
+      </c>
+      <c r="BU66" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV66" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K67"/>
       <c r="AH67" s="12"/>
       <c r="BC67" s="13">
@@ -6200,8 +7009,20 @@
       <c r="BN67" s="17"/>
       <c r="BO67" s="18"/>
       <c r="BQ67" s="12"/>
-    </row>
-    <row r="68" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS67" s="8">
+        <v>64</v>
+      </c>
+      <c r="BT67" s="8">
+        <v>19</v>
+      </c>
+      <c r="BU67" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV67" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K68"/>
       <c r="AH68" s="12"/>
       <c r="BC68" s="13">
@@ -6231,8 +7052,20 @@
       <c r="BN68" s="17"/>
       <c r="BO68" s="18"/>
       <c r="BQ68" s="12"/>
-    </row>
-    <row r="69" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS68" s="8">
+        <v>65</v>
+      </c>
+      <c r="BT68" s="8">
+        <v>19</v>
+      </c>
+      <c r="BU68" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV68" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K69"/>
       <c r="AH69" s="12"/>
       <c r="BC69" s="13">
@@ -6262,8 +7095,20 @@
       <c r="BN69" s="17"/>
       <c r="BO69" s="18"/>
       <c r="BQ69" s="12"/>
-    </row>
-    <row r="70" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS69" s="8">
+        <v>66</v>
+      </c>
+      <c r="BT69" s="8">
+        <v>19</v>
+      </c>
+      <c r="BU69" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV69" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K70"/>
       <c r="AH70" s="12"/>
       <c r="BC70" s="13">
@@ -6293,8 +7138,20 @@
       <c r="BN70" s="17"/>
       <c r="BO70" s="18"/>
       <c r="BQ70" s="12"/>
-    </row>
-    <row r="71" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS70" s="8">
+        <v>67</v>
+      </c>
+      <c r="BT70" s="8">
+        <v>20</v>
+      </c>
+      <c r="BU70" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV70" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K71"/>
       <c r="AH71" s="12"/>
       <c r="BC71" s="13">
@@ -6324,8 +7181,20 @@
       <c r="BN71" s="17"/>
       <c r="BO71" s="18"/>
       <c r="BQ71" s="12"/>
-    </row>
-    <row r="72" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS71" s="8">
+        <v>68</v>
+      </c>
+      <c r="BT71" s="8">
+        <v>20</v>
+      </c>
+      <c r="BU71" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV71" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K72"/>
       <c r="AH72" s="12"/>
       <c r="BC72" s="13">
@@ -6355,8 +7224,20 @@
       <c r="BN72" s="17"/>
       <c r="BO72" s="18"/>
       <c r="BQ72" s="12"/>
-    </row>
-    <row r="73" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS72" s="8">
+        <v>69</v>
+      </c>
+      <c r="BT72" s="8">
+        <v>20</v>
+      </c>
+      <c r="BU72" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV72" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K73"/>
       <c r="AH73" s="12"/>
       <c r="BC73" s="13">
@@ -6386,8 +7267,20 @@
       <c r="BN73" s="17"/>
       <c r="BO73" s="18"/>
       <c r="BQ73" s="12"/>
-    </row>
-    <row r="74" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS73" s="8">
+        <v>70</v>
+      </c>
+      <c r="BT73" s="8">
+        <v>23</v>
+      </c>
+      <c r="BU73" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV73" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K74"/>
       <c r="AH74" s="12"/>
       <c r="BC74" s="13">
@@ -6417,8 +7310,20 @@
       <c r="BN74" s="17"/>
       <c r="BO74" s="18"/>
       <c r="BQ74" s="12"/>
-    </row>
-    <row r="75" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS74" s="8">
+        <v>71</v>
+      </c>
+      <c r="BT74" s="8">
+        <v>23</v>
+      </c>
+      <c r="BU74" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV74" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K75"/>
       <c r="AH75" s="12"/>
       <c r="BC75" s="13">
@@ -6448,8 +7353,20 @@
       <c r="BN75" s="17"/>
       <c r="BO75" s="18"/>
       <c r="BQ75" s="12"/>
-    </row>
-    <row r="76" spans="11:69" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS75" s="8">
+        <v>72</v>
+      </c>
+      <c r="BT75" s="8">
+        <v>23</v>
+      </c>
+      <c r="BU75" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="BV75" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="11:74" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K76"/>
       <c r="AH76" s="12"/>
       <c r="BC76" s="13">
@@ -6479,8 +7396,20 @@
       <c r="BN76" s="17"/>
       <c r="BO76" s="18"/>
       <c r="BQ76" s="12"/>
-    </row>
-    <row r="77" spans="11:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS76" s="8">
+        <v>73</v>
+      </c>
+      <c r="BT76" s="8">
+        <v>24</v>
+      </c>
+      <c r="BU76" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV76" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="11:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC77" s="13">
         <v>74</v>
       </c>
@@ -6508,8 +7437,20 @@
       <c r="BN77" s="15"/>
       <c r="BO77" s="10"/>
       <c r="BQ77" s="1"/>
-    </row>
-    <row r="78" spans="11:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS77" s="8">
+        <v>74</v>
+      </c>
+      <c r="BT77" s="8">
+        <v>24</v>
+      </c>
+      <c r="BU77" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV77" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="11:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC78" s="13">
         <v>75</v>
       </c>
@@ -6537,8 +7478,20 @@
       <c r="BN78" s="15"/>
       <c r="BO78" s="10"/>
       <c r="BQ78" s="1"/>
-    </row>
-    <row r="79" spans="11:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS78" s="8">
+        <v>75</v>
+      </c>
+      <c r="BT78" s="8">
+        <v>24</v>
+      </c>
+      <c r="BU78" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV78" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="11:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC79" s="1"/>
       <c r="BD79" s="1"/>
       <c r="BE79" s="2"/>
@@ -6551,8 +7504,20 @@
       <c r="BN79" s="15"/>
       <c r="BO79" s="10"/>
       <c r="BQ79" s="1"/>
-    </row>
-    <row r="80" spans="11:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS79" s="8">
+        <v>76</v>
+      </c>
+      <c r="BT79" s="8">
+        <v>24</v>
+      </c>
+      <c r="BU79" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV79" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="11:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC80" s="1"/>
       <c r="BD80" s="12"/>
       <c r="BE80" s="2"/>
@@ -6565,8 +7530,20 @@
       <c r="BN80" s="15"/>
       <c r="BO80" s="10"/>
       <c r="BQ80" s="1"/>
-    </row>
-    <row r="81" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS80" s="8">
+        <v>77</v>
+      </c>
+      <c r="BT80" s="8">
+        <v>24</v>
+      </c>
+      <c r="BU80" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV80" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC81" s="1"/>
       <c r="BD81" s="12"/>
       <c r="BE81" s="2"/>
@@ -6579,8 +7556,20 @@
       <c r="BN81" s="15"/>
       <c r="BO81" s="10"/>
       <c r="BQ81" s="1"/>
-    </row>
-    <row r="82" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS81" s="8">
+        <v>78</v>
+      </c>
+      <c r="BT81" s="8">
+        <v>24</v>
+      </c>
+      <c r="BU81" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="BV81" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC82" s="1"/>
       <c r="BD82" s="12"/>
       <c r="BE82" s="2"/>
@@ -6593,8 +7582,20 @@
       <c r="BN82" s="15"/>
       <c r="BO82" s="10"/>
       <c r="BQ82" s="1"/>
-    </row>
-    <row r="83" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS82" s="8">
+        <v>79</v>
+      </c>
+      <c r="BT82" s="8">
+        <v>25</v>
+      </c>
+      <c r="BU82" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BV82" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC83" s="1"/>
       <c r="BD83" s="12"/>
       <c r="BE83" s="2"/>
@@ -6607,8 +7608,20 @@
       <c r="BN83" s="15"/>
       <c r="BO83" s="10"/>
       <c r="BQ83" s="1"/>
-    </row>
-    <row r="84" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS83" s="8">
+        <v>80</v>
+      </c>
+      <c r="BT83" s="8">
+        <v>14</v>
+      </c>
+      <c r="BU83" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC84" s="1"/>
       <c r="BD84" s="12"/>
       <c r="BE84" s="2"/>
@@ -6621,8 +7634,20 @@
       <c r="BN84" s="15"/>
       <c r="BO84" s="10"/>
       <c r="BQ84" s="1"/>
-    </row>
-    <row r="85" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS84" s="8">
+        <v>81</v>
+      </c>
+      <c r="BT84" s="8">
+        <v>15</v>
+      </c>
+      <c r="BU84" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV84" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC85" s="1"/>
       <c r="BD85" s="1"/>
       <c r="BE85" s="2"/>
@@ -6635,8 +7660,20 @@
       <c r="BN85" s="15"/>
       <c r="BO85" s="10"/>
       <c r="BQ85" s="1"/>
-    </row>
-    <row r="86" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS85" s="8">
+        <v>82</v>
+      </c>
+      <c r="BT85" s="8">
+        <v>16</v>
+      </c>
+      <c r="BU85" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV85" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC86" s="12"/>
       <c r="BD86" s="12"/>
       <c r="BE86" s="14"/>
@@ -6649,8 +7686,20 @@
       <c r="BN86" s="17"/>
       <c r="BO86" s="18"/>
       <c r="BQ86" s="1"/>
-    </row>
-    <row r="87" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS86" s="8">
+        <v>83</v>
+      </c>
+      <c r="BT86" s="8">
+        <v>25</v>
+      </c>
+      <c r="BU86" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV86" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC87" s="12"/>
       <c r="BD87" s="12"/>
       <c r="BE87" s="14"/>
@@ -6663,8 +7712,20 @@
       <c r="BN87" s="17"/>
       <c r="BO87" s="18"/>
       <c r="BQ87" s="1"/>
-    </row>
-    <row r="88" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS87" s="8">
+        <v>84</v>
+      </c>
+      <c r="BT87" s="8">
+        <v>25</v>
+      </c>
+      <c r="BU87" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV87" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC88" s="12"/>
       <c r="BD88" s="12"/>
       <c r="BE88" s="14"/>
@@ -6677,8 +7738,20 @@
       <c r="BN88" s="17"/>
       <c r="BO88" s="18"/>
       <c r="BQ88" s="1"/>
-    </row>
-    <row r="89" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BS88" s="8">
+        <v>85</v>
+      </c>
+      <c r="BT88" s="8">
+        <v>25</v>
+      </c>
+      <c r="BU88" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV88" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC89" s="12"/>
       <c r="BD89" s="1"/>
       <c r="BE89" s="2"/>
@@ -6692,7 +7765,7 @@
       <c r="BO89" s="10"/>
       <c r="BQ89" s="1"/>
     </row>
-    <row r="90" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC90" s="12"/>
       <c r="BD90" s="1"/>
       <c r="BE90" s="2"/>
@@ -6706,7 +7779,7 @@
       <c r="BO90" s="10"/>
       <c r="BQ90" s="1"/>
     </row>
-    <row r="91" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC91" s="12"/>
       <c r="BD91" s="1"/>
       <c r="BE91" s="2"/>
@@ -6720,7 +7793,7 @@
       <c r="BO91" s="10"/>
       <c r="BQ91" s="1"/>
     </row>
-    <row r="92" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC92" s="12"/>
       <c r="BD92" s="1"/>
       <c r="BE92" s="2"/>
@@ -6734,7 +7807,7 @@
       <c r="BO92" s="10"/>
       <c r="BQ92" s="1"/>
     </row>
-    <row r="93" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC93" s="12"/>
       <c r="BD93" s="12"/>
       <c r="BE93" s="2"/>
@@ -6748,7 +7821,7 @@
       <c r="BO93" s="10"/>
       <c r="BQ93" s="1"/>
     </row>
-    <row r="94" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC94" s="12"/>
       <c r="BD94" s="12"/>
       <c r="BE94" s="2"/>
@@ -6762,7 +7835,7 @@
       <c r="BO94" s="10"/>
       <c r="BQ94" s="1"/>
     </row>
-    <row r="95" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC95" s="12"/>
       <c r="BD95" s="12"/>
       <c r="BE95" s="2"/>
@@ -6776,7 +7849,7 @@
       <c r="BO95" s="10"/>
       <c r="BQ95" s="1"/>
     </row>
-    <row r="96" spans="55:69" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="55:74" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC96" s="12"/>
       <c r="BD96" s="12"/>
       <c r="BF96" s="15"/>

--- a/ERP, STUDENT, and CAB Databases/Campus/Data for Assignment002 (Create Campus _with_constraints Table ) .xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/Data for Assignment002 (Create Campus _with_constraints Table ) .xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="243">
   <si>
     <t>namefirst</t>
   </si>
@@ -698,6 +698,66 @@
   </si>
   <si>
     <t>moduleID(FK)</t>
+  </si>
+  <si>
+    <t>Books Table</t>
+  </si>
+  <si>
+    <t>newbooks Table</t>
+  </si>
+  <si>
+    <t>bookID (PK)</t>
+  </si>
+  <si>
+    <t>bookName</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>PDF File</t>
+  </si>
+  <si>
+    <t>hBase</t>
+  </si>
+  <si>
+    <t>Word File</t>
+  </si>
+  <si>
+    <t>Hardcover</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Paperback</t>
+  </si>
+  <si>
+    <t>Hadoop</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>ASDM</t>
+  </si>
+  <si>
+    <t>Core Java</t>
+  </si>
+  <si>
+    <t>Adv. Java</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>OSC</t>
+  </si>
+  <si>
+    <t>HTML</t>
   </si>
 </sst>
 </file>
@@ -821,7 +881,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -944,6 +1004,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1219,7 +1288,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1227,11 +1296,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:CA96"/>
+  <dimension ref="B2:CK96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP4" sqref="AP4"/>
+      <selection pane="bottomLeft" activeCell="CL6" sqref="CL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1"/>
@@ -1313,10 +1382,19 @@
     <col min="76" max="76" width="9.140625" style="4"/>
     <col min="77" max="77" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="79" max="16384" width="9.140625" style="4"/>
+    <col min="79" max="79" width="9.140625" style="4"/>
+    <col min="80" max="80" width="2.5703125" style="4" customWidth="1"/>
+    <col min="81" max="81" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="9.140625" style="4"/>
+    <col min="85" max="85" width="2.5703125" style="4" customWidth="1"/>
+    <col min="86" max="86" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="89" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:79" ht="30" customHeight="1">
+    <row r="2" spans="2:89" ht="30" customHeight="1">
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
@@ -1411,8 +1489,20 @@
       <c r="BY2" s="44"/>
       <c r="BZ2" s="44"/>
       <c r="CA2" s="44"/>
-    </row>
-    <row r="3" spans="2:79" ht="45">
+      <c r="CC2" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="CD2" s="45"/>
+      <c r="CE2" s="45"/>
+      <c r="CF2" s="45"/>
+      <c r="CH2" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="CI2" s="45"/>
+      <c r="CJ2" s="45"/>
+      <c r="CK2" s="45"/>
+    </row>
+    <row r="3" spans="2:89" ht="45">
       <c r="B3" s="6" t="s">
         <v>81</v>
       </c>
@@ -1605,8 +1695,32 @@
       <c r="CA3" s="6" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="4" spans="2:79" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="CC3" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="CD3" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CE3" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="CF3" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="CH3" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="CI3" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CJ3" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="CK3" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="2:89" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="B4" s="12">
         <v>1</v>
       </c>
@@ -1801,8 +1915,32 @@
       <c r="CA4" s="7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="2:79" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="CC4" s="12">
+        <v>1</v>
+      </c>
+      <c r="CD4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE4" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="CF4" s="12">
+        <v>1200</v>
+      </c>
+      <c r="CH4" s="46">
+        <v>1</v>
+      </c>
+      <c r="CI4" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="CJ4" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="CK4" s="46">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:89" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="B5" s="12">
         <v>2</v>
       </c>
@@ -1997,8 +2135,32 @@
       <c r="CA5" s="7">
         <v>2500</v>
       </c>
-    </row>
-    <row r="6" spans="2:79" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="CC5" s="12">
+        <v>2</v>
+      </c>
+      <c r="CD5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE5" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="CF5" s="12">
+        <v>1000</v>
+      </c>
+      <c r="CH5" s="46">
+        <v>2</v>
+      </c>
+      <c r="CI5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="CJ5" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="CK5" s="46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:89" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="B6" s="12">
         <v>3</v>
       </c>
@@ -2193,8 +2355,32 @@
       <c r="CA6" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="2:79" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="CC6" s="12">
+        <v>3</v>
+      </c>
+      <c r="CD6" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="CE6" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="CF6" s="12">
+        <v>950</v>
+      </c>
+      <c r="CH6" s="46">
+        <v>3</v>
+      </c>
+      <c r="CI6" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ6" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="CK6" s="46">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="7" spans="2:89" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="B7" s="12">
         <v>4</v>
       </c>
@@ -2389,8 +2575,32 @@
       <c r="CA7" s="7">
         <v>340</v>
       </c>
-    </row>
-    <row r="8" spans="2:79" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="CC7" s="12">
+        <v>4</v>
+      </c>
+      <c r="CD7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE7" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="CF7" s="12">
+        <v>1400</v>
+      </c>
+      <c r="CH7" s="46">
+        <v>4</v>
+      </c>
+      <c r="CI7" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="CJ7" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="CK7" s="46">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="8" spans="2:89" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="B8" s="12">
         <v>5</v>
       </c>
@@ -2560,8 +2770,32 @@
       <c r="CA8" s="7">
         <v>655</v>
       </c>
-    </row>
-    <row r="9" spans="2:79" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="CC8" s="12">
+        <v>5</v>
+      </c>
+      <c r="CD8" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="CE8" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="CF8" s="12">
+        <v>1225</v>
+      </c>
+      <c r="CH8" s="46">
+        <v>5</v>
+      </c>
+      <c r="CI8" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="CJ8" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="CK8" s="46">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="9" spans="2:89" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="B9" s="12">
         <v>6</v>
       </c>
@@ -2731,8 +2965,32 @@
       <c r="CA9" s="7">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="2:79" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="CC9" s="12">
+        <v>6</v>
+      </c>
+      <c r="CD9" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="CE9" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="CF9" s="12">
+        <v>650</v>
+      </c>
+      <c r="CH9" s="46">
+        <v>6</v>
+      </c>
+      <c r="CI9" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="CJ9" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="CK9" s="46">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="10" spans="2:89" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="B10" s="12">
         <v>7</v>
       </c>
@@ -2902,8 +3160,32 @@
       <c r="CA10" s="7">
         <v>4000</v>
       </c>
-    </row>
-    <row r="11" spans="2:79" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="CC10" s="12">
+        <v>7</v>
+      </c>
+      <c r="CD10" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="CE10" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="CF10" s="12">
+        <v>700</v>
+      </c>
+      <c r="CH10" s="46">
+        <v>7</v>
+      </c>
+      <c r="CI10" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="CJ10" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="CK10" s="46">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="2:89" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="B11" s="12">
         <v>8</v>
       </c>
@@ -3065,8 +3347,32 @@
       <c r="CA11" s="7">
         <v>1270</v>
       </c>
-    </row>
-    <row r="12" spans="2:79" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="CC11" s="12">
+        <v>8</v>
+      </c>
+      <c r="CD11" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="CE11" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="CF11" s="12">
+        <v>500</v>
+      </c>
+      <c r="CH11" s="46">
+        <v>8</v>
+      </c>
+      <c r="CI11" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="CJ11" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="CK11" s="46">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:89" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="B12" s="12">
         <v>9</v>
       </c>
@@ -3222,8 +3528,32 @@
       <c r="CA12" s="7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="13" spans="2:79" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="CC12" s="12">
+        <v>9</v>
+      </c>
+      <c r="CD12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="CE12" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="CF12" s="12">
+        <v>2500</v>
+      </c>
+      <c r="CH12" s="46">
+        <v>9</v>
+      </c>
+      <c r="CI12" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="CJ12" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="CK12" s="46">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:89" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="B13" s="12">
         <v>10</v>
       </c>
@@ -3379,8 +3709,32 @@
       <c r="CA13" s="7">
         <v>2500</v>
       </c>
-    </row>
-    <row r="14" spans="2:79" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="CC13" s="12">
+        <v>10</v>
+      </c>
+      <c r="CD13" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="CE13" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="CF13" s="12">
+        <v>1500</v>
+      </c>
+      <c r="CH13" s="46">
+        <v>10</v>
+      </c>
+      <c r="CI13" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="CJ13" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="CK13" s="46">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:89" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="B14" s="12">
         <v>11</v>
       </c>
@@ -3536,8 +3890,32 @@
       <c r="CA14" s="7">
         <v>150</v>
       </c>
-    </row>
-    <row r="15" spans="2:79" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="CC14" s="12">
+        <v>11</v>
+      </c>
+      <c r="CD14" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="CE14" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="CF14" s="12">
+        <v>1800</v>
+      </c>
+      <c r="CH14" s="46">
+        <v>11</v>
+      </c>
+      <c r="CI14" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="CJ14" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="CK14" s="46">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="15" spans="2:89" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="B15" s="12">
         <v>12</v>
       </c>
@@ -3694,7 +4072,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="2:79" s="19" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="2:89" s="19" customFormat="1" ht="30" customHeight="1">
       <c r="B16" s="12">
         <v>13</v>
       </c>
@@ -8657,11 +9035,13 @@
       <c r="BQ96" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="CH2:CK2"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AN2:AP2"/>
     <mergeCell ref="AE2:AG2"/>
     <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CC2:CF2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
